--- a/dist/a4.xlsx
+++ b/dist/a4.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Projects\Nodejs\base — копия\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Projects\Test\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400E8300-738B-4D0E-8203-CDAEF1839377}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C85E575-347B-4D39-8038-07013B76B775}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="main" sheetId="1" r:id="rId1"/>
+    <sheet name="Page 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
@@ -205,21 +205,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="36">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -347,21 +341,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom style="medium">
@@ -455,21 +434,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -482,60 +446,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -660,12 +570,83 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -740,18 +721,15 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -765,62 +743,119 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -829,16 +864,16 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -853,34 +888,34 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -892,34 +927,34 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -934,104 +969,35 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1350,8 +1316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AR1316"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageBreakPreview" topLeftCell="A11" zoomScale="82" zoomScaleNormal="82" zoomScaleSheetLayoutView="82" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="X11" sqref="X11"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageBreakPreview" zoomScale="82" zoomScaleNormal="82" zoomScaleSheetLayoutView="82" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -1361,12 +1327,12 @@
     <col min="3" max="4" width="5.6640625" style="17" customWidth="1"/>
     <col min="5" max="5" width="12.5546875" style="17" customWidth="1"/>
     <col min="6" max="6" width="9" style="17" customWidth="1"/>
-    <col min="7" max="7" width="7.109375" style="42" customWidth="1"/>
+    <col min="7" max="7" width="7.109375" style="41" customWidth="1"/>
     <col min="8" max="8" width="5.6640625" style="17" customWidth="1"/>
     <col min="9" max="9" width="3.44140625" style="17" customWidth="1"/>
-    <col min="10" max="29" width="4.33203125" style="43" customWidth="1"/>
-    <col min="30" max="30" width="4.44140625" style="43" customWidth="1"/>
-    <col min="31" max="40" width="4.33203125" style="43" customWidth="1"/>
+    <col min="10" max="29" width="4.33203125" style="42" customWidth="1"/>
+    <col min="30" max="30" width="4.44140625" style="42" customWidth="1"/>
+    <col min="31" max="40" width="4.33203125" style="42" customWidth="1"/>
     <col min="41" max="43" width="9.109375" style="17" customWidth="1"/>
     <col min="44" max="44" width="5.88671875" style="17" customWidth="1"/>
   </cols>
@@ -1418,11 +1384,11 @@
     </row>
     <row r="2" spans="1:44" s="11" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
       <c r="E2" s="13"/>
       <c r="F2" s="1"/>
       <c r="G2" s="4"/>
@@ -1553,266 +1519,266 @@
       <c r="AR4" s="15"/>
     </row>
     <row r="5" spans="1:44" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="70" t="s">
+      <c r="A5" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="70" t="s">
+      <c r="B5" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="73" t="s">
+      <c r="C5" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="74"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="82" t="s">
+      <c r="D5" s="92"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="85" t="s">
+      <c r="G5" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="88" t="s">
+      <c r="H5" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="89"/>
-      <c r="J5" s="94" t="s">
+      <c r="I5" s="107"/>
+      <c r="J5" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="95"/>
-      <c r="L5" s="95"/>
-      <c r="M5" s="95"/>
-      <c r="N5" s="95"/>
-      <c r="O5" s="95"/>
-      <c r="P5" s="95"/>
-      <c r="Q5" s="95"/>
-      <c r="R5" s="95"/>
-      <c r="S5" s="95"/>
-      <c r="T5" s="95"/>
-      <c r="U5" s="95"/>
-      <c r="V5" s="95"/>
-      <c r="W5" s="95"/>
-      <c r="X5" s="95"/>
-      <c r="Y5" s="95"/>
-      <c r="Z5" s="95"/>
-      <c r="AA5" s="95"/>
-      <c r="AB5" s="95"/>
-      <c r="AC5" s="95"/>
-      <c r="AD5" s="95"/>
-      <c r="AE5" s="95"/>
-      <c r="AF5" s="95"/>
-      <c r="AG5" s="95"/>
-      <c r="AH5" s="95"/>
-      <c r="AI5" s="95"/>
-      <c r="AJ5" s="95"/>
-      <c r="AK5" s="95"/>
-      <c r="AL5" s="95"/>
-      <c r="AM5" s="95"/>
-      <c r="AN5" s="96"/>
-      <c r="AO5" s="100" t="s">
+      <c r="K5" s="113"/>
+      <c r="L5" s="113"/>
+      <c r="M5" s="113"/>
+      <c r="N5" s="113"/>
+      <c r="O5" s="113"/>
+      <c r="P5" s="113"/>
+      <c r="Q5" s="113"/>
+      <c r="R5" s="113"/>
+      <c r="S5" s="113"/>
+      <c r="T5" s="113"/>
+      <c r="U5" s="113"/>
+      <c r="V5" s="113"/>
+      <c r="W5" s="113"/>
+      <c r="X5" s="113"/>
+      <c r="Y5" s="113"/>
+      <c r="Z5" s="113"/>
+      <c r="AA5" s="113"/>
+      <c r="AB5" s="113"/>
+      <c r="AC5" s="113"/>
+      <c r="AD5" s="113"/>
+      <c r="AE5" s="113"/>
+      <c r="AF5" s="113"/>
+      <c r="AG5" s="113"/>
+      <c r="AH5" s="113"/>
+      <c r="AI5" s="113"/>
+      <c r="AJ5" s="113"/>
+      <c r="AK5" s="113"/>
+      <c r="AL5" s="113"/>
+      <c r="AM5" s="113"/>
+      <c r="AN5" s="114"/>
+      <c r="AO5" s="118" t="s">
         <v>8</v>
       </c>
-      <c r="AP5" s="101"/>
-      <c r="AQ5" s="101"/>
-      <c r="AR5" s="102"/>
+      <c r="AP5" s="119"/>
+      <c r="AQ5" s="119"/>
+      <c r="AR5" s="120"/>
     </row>
     <row r="6" spans="1:44" s="17" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="71"/>
-      <c r="B6" s="71"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="83"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="90"/>
-      <c r="I6" s="91"/>
-      <c r="J6" s="97"/>
-      <c r="K6" s="98"/>
-      <c r="L6" s="98"/>
-      <c r="M6" s="98"/>
-      <c r="N6" s="98"/>
-      <c r="O6" s="98"/>
-      <c r="P6" s="98"/>
-      <c r="Q6" s="98"/>
-      <c r="R6" s="98"/>
-      <c r="S6" s="98"/>
-      <c r="T6" s="98"/>
-      <c r="U6" s="98"/>
-      <c r="V6" s="98"/>
-      <c r="W6" s="98"/>
-      <c r="X6" s="98"/>
-      <c r="Y6" s="98"/>
-      <c r="Z6" s="98"/>
-      <c r="AA6" s="98"/>
-      <c r="AB6" s="98"/>
-      <c r="AC6" s="98"/>
-      <c r="AD6" s="98"/>
-      <c r="AE6" s="98"/>
-      <c r="AF6" s="98"/>
-      <c r="AG6" s="98"/>
-      <c r="AH6" s="98"/>
-      <c r="AI6" s="98"/>
-      <c r="AJ6" s="98"/>
-      <c r="AK6" s="98"/>
-      <c r="AL6" s="98"/>
-      <c r="AM6" s="98"/>
-      <c r="AN6" s="99"/>
-      <c r="AO6" s="103"/>
-      <c r="AP6" s="104"/>
-      <c r="AQ6" s="104"/>
-      <c r="AR6" s="105"/>
+      <c r="A6" s="89"/>
+      <c r="B6" s="89"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="104"/>
+      <c r="H6" s="108"/>
+      <c r="I6" s="109"/>
+      <c r="J6" s="115"/>
+      <c r="K6" s="116"/>
+      <c r="L6" s="116"/>
+      <c r="M6" s="116"/>
+      <c r="N6" s="116"/>
+      <c r="O6" s="116"/>
+      <c r="P6" s="116"/>
+      <c r="Q6" s="116"/>
+      <c r="R6" s="116"/>
+      <c r="S6" s="116"/>
+      <c r="T6" s="116"/>
+      <c r="U6" s="116"/>
+      <c r="V6" s="116"/>
+      <c r="W6" s="116"/>
+      <c r="X6" s="116"/>
+      <c r="Y6" s="116"/>
+      <c r="Z6" s="116"/>
+      <c r="AA6" s="116"/>
+      <c r="AB6" s="116"/>
+      <c r="AC6" s="116"/>
+      <c r="AD6" s="116"/>
+      <c r="AE6" s="116"/>
+      <c r="AF6" s="116"/>
+      <c r="AG6" s="116"/>
+      <c r="AH6" s="116"/>
+      <c r="AI6" s="116"/>
+      <c r="AJ6" s="116"/>
+      <c r="AK6" s="116"/>
+      <c r="AL6" s="116"/>
+      <c r="AM6" s="116"/>
+      <c r="AN6" s="117"/>
+      <c r="AO6" s="121"/>
+      <c r="AP6" s="122"/>
+      <c r="AQ6" s="122"/>
+      <c r="AR6" s="123"/>
     </row>
     <row r="7" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="71"/>
-      <c r="B7" s="71"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="90"/>
-      <c r="I7" s="91"/>
-      <c r="J7" s="109">
+      <c r="A7" s="89"/>
+      <c r="B7" s="89"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="109"/>
+      <c r="J7" s="83">
         <v>1</v>
       </c>
-      <c r="K7" s="111">
+      <c r="K7" s="83">
         <v>2</v>
       </c>
-      <c r="L7" s="111">
+      <c r="L7" s="83">
         <v>3</v>
       </c>
-      <c r="M7" s="111">
+      <c r="M7" s="83">
         <v>4</v>
       </c>
-      <c r="N7" s="111">
+      <c r="N7" s="83">
         <v>5</v>
       </c>
-      <c r="O7" s="111">
+      <c r="O7" s="83">
         <v>6</v>
       </c>
-      <c r="P7" s="109">
+      <c r="P7" s="83">
         <v>7</v>
       </c>
-      <c r="Q7" s="109">
+      <c r="Q7" s="83">
         <v>8</v>
       </c>
-      <c r="R7" s="111">
+      <c r="R7" s="83">
         <v>9</v>
       </c>
-      <c r="S7" s="111">
+      <c r="S7" s="83">
         <v>10</v>
       </c>
-      <c r="T7" s="111">
+      <c r="T7" s="83">
         <v>11</v>
       </c>
-      <c r="U7" s="111">
+      <c r="U7" s="83">
         <v>12</v>
       </c>
-      <c r="V7" s="111">
+      <c r="V7" s="83">
         <v>13</v>
       </c>
-      <c r="W7" s="109">
+      <c r="W7" s="83">
         <v>14</v>
       </c>
-      <c r="X7" s="109">
+      <c r="X7" s="83">
         <v>15</v>
       </c>
-      <c r="Y7" s="111">
+      <c r="Y7" s="83">
         <v>16</v>
       </c>
-      <c r="Z7" s="111">
+      <c r="Z7" s="83">
         <v>17</v>
       </c>
-      <c r="AA7" s="111">
+      <c r="AA7" s="83">
         <v>18</v>
       </c>
-      <c r="AB7" s="111">
+      <c r="AB7" s="83">
         <v>19</v>
       </c>
-      <c r="AC7" s="111">
+      <c r="AC7" s="83">
         <v>20</v>
       </c>
-      <c r="AD7" s="109">
+      <c r="AD7" s="83">
         <v>21</v>
       </c>
-      <c r="AE7" s="109">
+      <c r="AE7" s="83">
         <v>22</v>
       </c>
-      <c r="AF7" s="111">
+      <c r="AF7" s="83">
         <v>23</v>
       </c>
-      <c r="AG7" s="111">
+      <c r="AG7" s="83">
         <v>24</v>
       </c>
-      <c r="AH7" s="111">
+      <c r="AH7" s="83">
         <v>25</v>
       </c>
-      <c r="AI7" s="111">
+      <c r="AI7" s="83">
         <v>26</v>
       </c>
-      <c r="AJ7" s="111">
+      <c r="AJ7" s="83">
         <v>27</v>
       </c>
-      <c r="AK7" s="109">
+      <c r="AK7" s="83">
         <v>28</v>
       </c>
-      <c r="AL7" s="109">
+      <c r="AL7" s="83">
         <v>29</v>
       </c>
-      <c r="AM7" s="111">
+      <c r="AM7" s="83">
         <v>30</v>
       </c>
-      <c r="AN7" s="111">
+      <c r="AN7" s="83">
         <v>31</v>
       </c>
-      <c r="AO7" s="103"/>
-      <c r="AP7" s="104"/>
-      <c r="AQ7" s="104"/>
-      <c r="AR7" s="105"/>
+      <c r="AO7" s="121"/>
+      <c r="AP7" s="122"/>
+      <c r="AQ7" s="122"/>
+      <c r="AR7" s="123"/>
     </row>
     <row r="8" spans="1:44" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="72"/>
-      <c r="B8" s="72"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="87"/>
-      <c r="H8" s="92"/>
-      <c r="I8" s="93"/>
-      <c r="J8" s="110"/>
-      <c r="K8" s="112"/>
-      <c r="L8" s="112"/>
-      <c r="M8" s="112"/>
-      <c r="N8" s="112"/>
-      <c r="O8" s="112"/>
-      <c r="P8" s="110"/>
-      <c r="Q8" s="110"/>
-      <c r="R8" s="112"/>
-      <c r="S8" s="112"/>
-      <c r="T8" s="112"/>
-      <c r="U8" s="112"/>
-      <c r="V8" s="112"/>
-      <c r="W8" s="110"/>
-      <c r="X8" s="110"/>
-      <c r="Y8" s="112"/>
-      <c r="Z8" s="112"/>
-      <c r="AA8" s="112"/>
-      <c r="AB8" s="112"/>
-      <c r="AC8" s="112"/>
-      <c r="AD8" s="110"/>
-      <c r="AE8" s="110"/>
-      <c r="AF8" s="112"/>
-      <c r="AG8" s="112"/>
-      <c r="AH8" s="112"/>
-      <c r="AI8" s="112"/>
-      <c r="AJ8" s="112"/>
-      <c r="AK8" s="110"/>
-      <c r="AL8" s="110"/>
-      <c r="AM8" s="112"/>
-      <c r="AN8" s="112"/>
-      <c r="AO8" s="106"/>
-      <c r="AP8" s="107"/>
-      <c r="AQ8" s="107"/>
-      <c r="AR8" s="108"/>
+      <c r="A8" s="90"/>
+      <c r="B8" s="90"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="110"/>
+      <c r="I8" s="111"/>
+      <c r="J8" s="84"/>
+      <c r="K8" s="84"/>
+      <c r="L8" s="84"/>
+      <c r="M8" s="84"/>
+      <c r="N8" s="84"/>
+      <c r="O8" s="84"/>
+      <c r="P8" s="84"/>
+      <c r="Q8" s="84"/>
+      <c r="R8" s="84"/>
+      <c r="S8" s="84"/>
+      <c r="T8" s="84"/>
+      <c r="U8" s="84"/>
+      <c r="V8" s="84"/>
+      <c r="W8" s="84"/>
+      <c r="X8" s="84"/>
+      <c r="Y8" s="84"/>
+      <c r="Z8" s="84"/>
+      <c r="AA8" s="84"/>
+      <c r="AB8" s="84"/>
+      <c r="AC8" s="84"/>
+      <c r="AD8" s="84"/>
+      <c r="AE8" s="84"/>
+      <c r="AF8" s="84"/>
+      <c r="AG8" s="84"/>
+      <c r="AH8" s="84"/>
+      <c r="AI8" s="84"/>
+      <c r="AJ8" s="84"/>
+      <c r="AK8" s="84"/>
+      <c r="AL8" s="84"/>
+      <c r="AM8" s="84"/>
+      <c r="AN8" s="84"/>
+      <c r="AO8" s="124"/>
+      <c r="AP8" s="125"/>
+      <c r="AQ8" s="125"/>
+      <c r="AR8" s="126"/>
     </row>
     <row r="9" spans="1:44" s="26" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="18">
@@ -1821,22 +1787,22 @@
       <c r="B9" s="19">
         <v>2</v>
       </c>
-      <c r="C9" s="113">
+      <c r="C9" s="80">
         <v>3</v>
       </c>
-      <c r="D9" s="114"/>
-      <c r="E9" s="115"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="82"/>
       <c r="F9" s="20">
         <v>4</v>
       </c>
       <c r="G9" s="21">
         <v>5</v>
       </c>
-      <c r="H9" s="113">
+      <c r="H9" s="85">
         <v>6</v>
       </c>
-      <c r="I9" s="115"/>
-      <c r="J9" s="59">
+      <c r="I9" s="86"/>
+      <c r="J9" s="22">
         <v>7</v>
       </c>
       <c r="K9" s="22">
@@ -1854,10 +1820,10 @@
       <c r="O9" s="22">
         <v>12</v>
       </c>
-      <c r="P9" s="67">
+      <c r="P9" s="23">
         <v>13</v>
       </c>
-      <c r="Q9" s="67">
+      <c r="Q9" s="23">
         <v>14</v>
       </c>
       <c r="R9" s="23">
@@ -1875,10 +1841,10 @@
       <c r="V9" s="22">
         <v>19</v>
       </c>
-      <c r="W9" s="68">
+      <c r="W9" s="24">
         <v>20</v>
       </c>
-      <c r="X9" s="67">
+      <c r="X9" s="23">
         <v>21</v>
       </c>
       <c r="Y9" s="23">
@@ -1896,10 +1862,10 @@
       <c r="AC9" s="22">
         <v>26</v>
       </c>
-      <c r="AD9" s="68">
+      <c r="AD9" s="24">
         <v>27</v>
       </c>
-      <c r="AE9" s="67">
+      <c r="AE9" s="23">
         <v>28</v>
       </c>
       <c r="AF9" s="22">
@@ -1917,10 +1883,10 @@
       <c r="AJ9" s="24">
         <v>33</v>
       </c>
-      <c r="AK9" s="68">
+      <c r="AK9" s="24">
         <v>34</v>
       </c>
-      <c r="AL9" s="68">
+      <c r="AL9" s="24">
         <v>35</v>
       </c>
       <c r="AM9" s="24">
@@ -1929,54 +1895,54 @@
       <c r="AN9" s="25">
         <v>37</v>
       </c>
-      <c r="AO9" s="113">
+      <c r="AO9" s="80">
         <v>38</v>
       </c>
-      <c r="AP9" s="114"/>
-      <c r="AQ9" s="114"/>
-      <c r="AR9" s="115"/>
+      <c r="AP9" s="81"/>
+      <c r="AQ9" s="81"/>
+      <c r="AR9" s="82"/>
     </row>
     <row r="10" spans="1:44" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="116"/>
-      <c r="B10" s="116"/>
-      <c r="C10" s="119"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="121"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="122"/>
-      <c r="I10" s="123"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="49"/>
-      <c r="O10" s="49"/>
-      <c r="P10" s="61"/>
-      <c r="Q10" s="61"/>
-      <c r="R10" s="49"/>
-      <c r="S10" s="49"/>
-      <c r="T10" s="49"/>
-      <c r="U10" s="49"/>
-      <c r="V10" s="49"/>
-      <c r="W10" s="61"/>
-      <c r="X10" s="61"/>
-      <c r="Y10" s="49"/>
-      <c r="Z10" s="49"/>
-      <c r="AA10" s="49"/>
-      <c r="AB10" s="49"/>
-      <c r="AC10" s="49"/>
-      <c r="AD10" s="61"/>
-      <c r="AE10" s="61"/>
-      <c r="AF10" s="49"/>
-      <c r="AG10" s="49"/>
-      <c r="AH10" s="49"/>
-      <c r="AI10" s="49"/>
-      <c r="AJ10" s="49"/>
-      <c r="AK10" s="61"/>
-      <c r="AL10" s="61"/>
-      <c r="AM10" s="49"/>
-      <c r="AN10" s="49"/>
+      <c r="A10" s="57"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="127"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="48"/>
+      <c r="P10" s="48"/>
+      <c r="Q10" s="48"/>
+      <c r="R10" s="48"/>
+      <c r="S10" s="48"/>
+      <c r="T10" s="48"/>
+      <c r="U10" s="48"/>
+      <c r="V10" s="48"/>
+      <c r="W10" s="48"/>
+      <c r="X10" s="48"/>
+      <c r="Y10" s="48"/>
+      <c r="Z10" s="48"/>
+      <c r="AA10" s="48"/>
+      <c r="AB10" s="48"/>
+      <c r="AC10" s="48"/>
+      <c r="AD10" s="48"/>
+      <c r="AE10" s="48"/>
+      <c r="AF10" s="48"/>
+      <c r="AG10" s="48"/>
+      <c r="AH10" s="48"/>
+      <c r="AI10" s="48"/>
+      <c r="AJ10" s="48"/>
+      <c r="AK10" s="48"/>
+      <c r="AL10" s="48"/>
+      <c r="AM10" s="48"/>
+      <c r="AN10" s="128"/>
       <c r="AO10" s="27" t="s">
         <v>9</v>
       </c>
@@ -1985,94 +1951,94 @@
       <c r="AR10" s="30"/>
     </row>
     <row r="11" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A11" s="117"/>
-      <c r="B11" s="117"/>
-      <c r="C11" s="124"/>
-      <c r="D11" s="125"/>
-      <c r="E11" s="126"/>
+      <c r="A11" s="58"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="67"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="127"/>
-      <c r="I11" s="128"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="50"/>
-      <c r="P11" s="62"/>
-      <c r="Q11" s="62"/>
-      <c r="R11" s="50"/>
-      <c r="S11" s="50"/>
-      <c r="T11" s="50"/>
-      <c r="U11" s="50"/>
-      <c r="V11" s="50"/>
-      <c r="W11" s="62"/>
-      <c r="X11" s="62"/>
-      <c r="Y11" s="50"/>
-      <c r="Z11" s="50"/>
-      <c r="AA11" s="50"/>
-      <c r="AB11" s="50"/>
-      <c r="AC11" s="50"/>
-      <c r="AD11" s="62"/>
-      <c r="AE11" s="62"/>
-      <c r="AF11" s="50"/>
-      <c r="AG11" s="50"/>
-      <c r="AH11" s="50"/>
-      <c r="AI11" s="50"/>
-      <c r="AJ11" s="50"/>
-      <c r="AK11" s="62"/>
-      <c r="AL11" s="62"/>
-      <c r="AM11" s="50"/>
-      <c r="AN11" s="50"/>
-      <c r="AO11" s="129" t="s">
+      <c r="G11" s="35"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="129"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="49"/>
+      <c r="Q11" s="49"/>
+      <c r="R11" s="49"/>
+      <c r="S11" s="49"/>
+      <c r="T11" s="49"/>
+      <c r="U11" s="49"/>
+      <c r="V11" s="49"/>
+      <c r="W11" s="49"/>
+      <c r="X11" s="49"/>
+      <c r="Y11" s="49"/>
+      <c r="Z11" s="49"/>
+      <c r="AA11" s="49"/>
+      <c r="AB11" s="49"/>
+      <c r="AC11" s="49"/>
+      <c r="AD11" s="49"/>
+      <c r="AE11" s="49"/>
+      <c r="AF11" s="49"/>
+      <c r="AG11" s="49"/>
+      <c r="AH11" s="49"/>
+      <c r="AI11" s="49"/>
+      <c r="AJ11" s="49"/>
+      <c r="AK11" s="49"/>
+      <c r="AL11" s="49"/>
+      <c r="AM11" s="49"/>
+      <c r="AN11" s="130"/>
+      <c r="AO11" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="AP11" s="130"/>
-      <c r="AQ11" s="130"/>
+      <c r="AP11" s="74"/>
+      <c r="AQ11" s="74"/>
       <c r="AR11" s="30"/>
     </row>
     <row r="12" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A12" s="117"/>
-      <c r="B12" s="117"/>
-      <c r="C12" s="124"/>
-      <c r="D12" s="125"/>
-      <c r="E12" s="126"/>
+      <c r="A12" s="58"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="67"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="127"/>
-      <c r="I12" s="128"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="52"/>
-      <c r="O12" s="52"/>
-      <c r="P12" s="64"/>
-      <c r="Q12" s="64"/>
-      <c r="R12" s="52"/>
-      <c r="S12" s="52"/>
-      <c r="T12" s="52"/>
-      <c r="U12" s="52"/>
-      <c r="V12" s="52"/>
-      <c r="W12" s="64"/>
-      <c r="X12" s="64"/>
-      <c r="Y12" s="52"/>
-      <c r="Z12" s="52"/>
-      <c r="AA12" s="52"/>
-      <c r="AB12" s="52"/>
-      <c r="AC12" s="52"/>
-      <c r="AD12" s="64"/>
-      <c r="AE12" s="64"/>
-      <c r="AF12" s="52"/>
-      <c r="AG12" s="52"/>
-      <c r="AH12" s="52"/>
-      <c r="AI12" s="52"/>
-      <c r="AJ12" s="52"/>
-      <c r="AK12" s="64"/>
-      <c r="AL12" s="64"/>
-      <c r="AM12" s="52"/>
-      <c r="AN12" s="53"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="131"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="51"/>
+      <c r="Q12" s="51"/>
+      <c r="R12" s="51"/>
+      <c r="S12" s="51"/>
+      <c r="T12" s="51"/>
+      <c r="U12" s="51"/>
+      <c r="V12" s="51"/>
+      <c r="W12" s="51"/>
+      <c r="X12" s="51"/>
+      <c r="Y12" s="51"/>
+      <c r="Z12" s="51"/>
+      <c r="AA12" s="51"/>
+      <c r="AB12" s="51"/>
+      <c r="AC12" s="51"/>
+      <c r="AD12" s="51"/>
+      <c r="AE12" s="51"/>
+      <c r="AF12" s="51"/>
+      <c r="AG12" s="51"/>
+      <c r="AH12" s="51"/>
+      <c r="AI12" s="51"/>
+      <c r="AJ12" s="51"/>
+      <c r="AK12" s="51"/>
+      <c r="AL12" s="51"/>
+      <c r="AM12" s="51"/>
+      <c r="AN12" s="52"/>
       <c r="AO12" s="31" t="s">
         <v>11</v>
       </c>
@@ -2083,288 +2049,288 @@
       <c r="AR12" s="33"/>
     </row>
     <row r="13" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A13" s="117"/>
-      <c r="B13" s="117"/>
-      <c r="C13" s="124"/>
-      <c r="D13" s="125"/>
-      <c r="E13" s="126"/>
+      <c r="A13" s="58"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="67"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="128"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="52"/>
-      <c r="O13" s="52"/>
-      <c r="P13" s="64"/>
-      <c r="Q13" s="64"/>
-      <c r="R13" s="52"/>
-      <c r="S13" s="52"/>
-      <c r="T13" s="52"/>
-      <c r="U13" s="52"/>
-      <c r="V13" s="52"/>
-      <c r="W13" s="64"/>
-      <c r="X13" s="64"/>
-      <c r="Y13" s="52"/>
-      <c r="Z13" s="52"/>
-      <c r="AA13" s="52"/>
-      <c r="AB13" s="52"/>
-      <c r="AC13" s="52"/>
-      <c r="AD13" s="64"/>
-      <c r="AE13" s="64"/>
-      <c r="AF13" s="52"/>
-      <c r="AG13" s="52"/>
-      <c r="AH13" s="52"/>
-      <c r="AI13" s="52"/>
-      <c r="AJ13" s="52"/>
-      <c r="AK13" s="64"/>
-      <c r="AL13" s="64"/>
-      <c r="AM13" s="52"/>
-      <c r="AN13" s="53"/>
-      <c r="AO13" s="129" t="s">
+      <c r="G13" s="35"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="131"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="51"/>
+      <c r="Q13" s="51"/>
+      <c r="R13" s="51"/>
+      <c r="S13" s="51"/>
+      <c r="T13" s="51"/>
+      <c r="U13" s="51"/>
+      <c r="V13" s="51"/>
+      <c r="W13" s="51"/>
+      <c r="X13" s="51"/>
+      <c r="Y13" s="51"/>
+      <c r="Z13" s="51"/>
+      <c r="AA13" s="51"/>
+      <c r="AB13" s="51"/>
+      <c r="AC13" s="51"/>
+      <c r="AD13" s="51"/>
+      <c r="AE13" s="51"/>
+      <c r="AF13" s="51"/>
+      <c r="AG13" s="51"/>
+      <c r="AH13" s="51"/>
+      <c r="AI13" s="51"/>
+      <c r="AJ13" s="51"/>
+      <c r="AK13" s="51"/>
+      <c r="AL13" s="51"/>
+      <c r="AM13" s="51"/>
+      <c r="AN13" s="52"/>
+      <c r="AO13" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="AP13" s="130"/>
+      <c r="AP13" s="74"/>
       <c r="AQ13" s="32"/>
       <c r="AR13" s="30"/>
     </row>
     <row r="14" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A14" s="117"/>
-      <c r="B14" s="117"/>
-      <c r="C14" s="131"/>
-      <c r="D14" s="132"/>
-      <c r="E14" s="133"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="128"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="52"/>
-      <c r="N14" s="52"/>
-      <c r="O14" s="52"/>
-      <c r="P14" s="64"/>
-      <c r="Q14" s="64"/>
-      <c r="R14" s="52"/>
-      <c r="S14" s="52"/>
-      <c r="T14" s="52"/>
-      <c r="U14" s="52"/>
-      <c r="V14" s="52"/>
-      <c r="W14" s="64"/>
-      <c r="X14" s="64"/>
-      <c r="Y14" s="52"/>
-      <c r="Z14" s="52"/>
-      <c r="AA14" s="52"/>
-      <c r="AB14" s="52"/>
-      <c r="AC14" s="52"/>
-      <c r="AD14" s="64"/>
-      <c r="AE14" s="64"/>
-      <c r="AF14" s="52"/>
-      <c r="AG14" s="52"/>
-      <c r="AH14" s="52"/>
-      <c r="AI14" s="52"/>
-      <c r="AJ14" s="52"/>
-      <c r="AK14" s="64"/>
-      <c r="AL14" s="64"/>
-      <c r="AM14" s="52"/>
-      <c r="AN14" s="53"/>
-      <c r="AO14" s="129" t="s">
+      <c r="A14" s="58"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="131"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="51"/>
+      <c r="Q14" s="51"/>
+      <c r="R14" s="51"/>
+      <c r="S14" s="51"/>
+      <c r="T14" s="51"/>
+      <c r="U14" s="51"/>
+      <c r="V14" s="51"/>
+      <c r="W14" s="51"/>
+      <c r="X14" s="51"/>
+      <c r="Y14" s="51"/>
+      <c r="Z14" s="51"/>
+      <c r="AA14" s="51"/>
+      <c r="AB14" s="51"/>
+      <c r="AC14" s="51"/>
+      <c r="AD14" s="51"/>
+      <c r="AE14" s="51"/>
+      <c r="AF14" s="51"/>
+      <c r="AG14" s="51"/>
+      <c r="AH14" s="51"/>
+      <c r="AI14" s="51"/>
+      <c r="AJ14" s="51"/>
+      <c r="AK14" s="51"/>
+      <c r="AL14" s="51"/>
+      <c r="AM14" s="51"/>
+      <c r="AN14" s="52"/>
+      <c r="AO14" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="AP14" s="130"/>
+      <c r="AP14" s="74"/>
       <c r="AQ14" s="32"/>
       <c r="AR14" s="34"/>
     </row>
     <row r="15" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A15" s="117"/>
-      <c r="B15" s="117"/>
-      <c r="C15" s="131"/>
-      <c r="D15" s="132"/>
-      <c r="E15" s="133"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="128"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="52"/>
-      <c r="N15" s="52"/>
-      <c r="O15" s="52"/>
-      <c r="P15" s="64"/>
-      <c r="Q15" s="64"/>
-      <c r="R15" s="52"/>
-      <c r="S15" s="52"/>
-      <c r="T15" s="52"/>
-      <c r="U15" s="52"/>
-      <c r="V15" s="52"/>
-      <c r="W15" s="64"/>
-      <c r="X15" s="64"/>
-      <c r="Y15" s="52"/>
-      <c r="Z15" s="52"/>
-      <c r="AA15" s="52"/>
-      <c r="AB15" s="52"/>
-      <c r="AC15" s="52"/>
-      <c r="AD15" s="64"/>
-      <c r="AE15" s="64"/>
-      <c r="AF15" s="52"/>
-      <c r="AG15" s="52"/>
-      <c r="AH15" s="52"/>
-      <c r="AI15" s="52"/>
-      <c r="AJ15" s="52"/>
-      <c r="AK15" s="64"/>
-      <c r="AL15" s="64"/>
-      <c r="AM15" s="52"/>
-      <c r="AN15" s="53"/>
-      <c r="AO15" s="129" t="s">
+      <c r="A15" s="58"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="131"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="51"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="51"/>
+      <c r="Q15" s="51"/>
+      <c r="R15" s="51"/>
+      <c r="S15" s="51"/>
+      <c r="T15" s="51"/>
+      <c r="U15" s="51"/>
+      <c r="V15" s="51"/>
+      <c r="W15" s="51"/>
+      <c r="X15" s="51"/>
+      <c r="Y15" s="51"/>
+      <c r="Z15" s="51"/>
+      <c r="AA15" s="51"/>
+      <c r="AB15" s="51"/>
+      <c r="AC15" s="51"/>
+      <c r="AD15" s="51"/>
+      <c r="AE15" s="51"/>
+      <c r="AF15" s="51"/>
+      <c r="AG15" s="51"/>
+      <c r="AH15" s="51"/>
+      <c r="AI15" s="51"/>
+      <c r="AJ15" s="51"/>
+      <c r="AK15" s="51"/>
+      <c r="AL15" s="51"/>
+      <c r="AM15" s="51"/>
+      <c r="AN15" s="52"/>
+      <c r="AO15" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="AP15" s="130"/>
+      <c r="AP15" s="74"/>
       <c r="AQ15" s="32"/>
       <c r="AR15" s="30"/>
     </row>
     <row r="16" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A16" s="117"/>
-      <c r="B16" s="117"/>
-      <c r="C16" s="124"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="126"/>
+      <c r="A16" s="58"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="67"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="128"/>
-      <c r="J16" s="63"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="52"/>
-      <c r="N16" s="52"/>
-      <c r="O16" s="52"/>
-      <c r="P16" s="64"/>
-      <c r="Q16" s="64"/>
-      <c r="R16" s="52"/>
-      <c r="S16" s="52"/>
-      <c r="T16" s="52"/>
-      <c r="U16" s="52"/>
-      <c r="V16" s="52"/>
-      <c r="W16" s="64"/>
-      <c r="X16" s="64"/>
-      <c r="Y16" s="52"/>
-      <c r="Z16" s="52"/>
-      <c r="AA16" s="52"/>
-      <c r="AB16" s="52"/>
-      <c r="AC16" s="52"/>
-      <c r="AD16" s="64"/>
-      <c r="AE16" s="64"/>
-      <c r="AF16" s="52"/>
-      <c r="AG16" s="52"/>
-      <c r="AH16" s="52"/>
-      <c r="AI16" s="52"/>
-      <c r="AJ16" s="52"/>
-      <c r="AK16" s="64"/>
-      <c r="AL16" s="64"/>
-      <c r="AM16" s="52"/>
-      <c r="AN16" s="53"/>
-      <c r="AO16" s="129" t="s">
+      <c r="G16" s="35"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="131"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="51"/>
+      <c r="O16" s="51"/>
+      <c r="P16" s="51"/>
+      <c r="Q16" s="51"/>
+      <c r="R16" s="51"/>
+      <c r="S16" s="51"/>
+      <c r="T16" s="51"/>
+      <c r="U16" s="51"/>
+      <c r="V16" s="51"/>
+      <c r="W16" s="51"/>
+      <c r="X16" s="51"/>
+      <c r="Y16" s="51"/>
+      <c r="Z16" s="51"/>
+      <c r="AA16" s="51"/>
+      <c r="AB16" s="51"/>
+      <c r="AC16" s="51"/>
+      <c r="AD16" s="51"/>
+      <c r="AE16" s="51"/>
+      <c r="AF16" s="51"/>
+      <c r="AG16" s="51"/>
+      <c r="AH16" s="51"/>
+      <c r="AI16" s="51"/>
+      <c r="AJ16" s="51"/>
+      <c r="AK16" s="51"/>
+      <c r="AL16" s="51"/>
+      <c r="AM16" s="51"/>
+      <c r="AN16" s="52"/>
+      <c r="AO16" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="AP16" s="130"/>
-      <c r="AQ16" s="37"/>
+      <c r="AP16" s="74"/>
+      <c r="AQ16" s="36"/>
       <c r="AR16" s="34"/>
     </row>
     <row r="17" spans="1:44" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="118"/>
-      <c r="B17" s="118"/>
-      <c r="C17" s="134"/>
-      <c r="D17" s="135"/>
-      <c r="E17" s="136"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="127"/>
-      <c r="I17" s="128"/>
-      <c r="J17" s="65"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="51"/>
-      <c r="M17" s="51"/>
-      <c r="N17" s="51"/>
-      <c r="O17" s="51"/>
-      <c r="P17" s="66"/>
-      <c r="Q17" s="66"/>
-      <c r="R17" s="51"/>
-      <c r="S17" s="51"/>
-      <c r="T17" s="51"/>
-      <c r="U17" s="51"/>
-      <c r="V17" s="51"/>
-      <c r="W17" s="66"/>
-      <c r="X17" s="66"/>
-      <c r="Y17" s="51"/>
-      <c r="Z17" s="51"/>
-      <c r="AA17" s="51"/>
-      <c r="AB17" s="51"/>
-      <c r="AC17" s="51"/>
-      <c r="AD17" s="66"/>
-      <c r="AE17" s="66"/>
-      <c r="AF17" s="51"/>
-      <c r="AG17" s="51"/>
-      <c r="AH17" s="51"/>
-      <c r="AI17" s="51"/>
-      <c r="AJ17" s="51"/>
-      <c r="AK17" s="66"/>
-      <c r="AL17" s="66"/>
-      <c r="AM17" s="51"/>
-      <c r="AN17" s="51"/>
-      <c r="AO17" s="38" t="s">
+      <c r="A17" s="59"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="132"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="50"/>
+      <c r="P17" s="50"/>
+      <c r="Q17" s="50"/>
+      <c r="R17" s="50"/>
+      <c r="S17" s="50"/>
+      <c r="T17" s="50"/>
+      <c r="U17" s="50"/>
+      <c r="V17" s="50"/>
+      <c r="W17" s="50"/>
+      <c r="X17" s="50"/>
+      <c r="Y17" s="50"/>
+      <c r="Z17" s="50"/>
+      <c r="AA17" s="50"/>
+      <c r="AB17" s="50"/>
+      <c r="AC17" s="50"/>
+      <c r="AD17" s="50"/>
+      <c r="AE17" s="50"/>
+      <c r="AF17" s="50"/>
+      <c r="AG17" s="50"/>
+      <c r="AH17" s="50"/>
+      <c r="AI17" s="50"/>
+      <c r="AJ17" s="50"/>
+      <c r="AK17" s="50"/>
+      <c r="AL17" s="50"/>
+      <c r="AM17" s="50"/>
+      <c r="AN17" s="133"/>
+      <c r="AO17" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="AP17" s="39"/>
-      <c r="AQ17" s="40" t="s">
+      <c r="AP17" s="38"/>
+      <c r="AQ17" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="AR17" s="41"/>
+      <c r="AR17" s="40"/>
     </row>
     <row r="18" spans="1:44" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="116"/>
-      <c r="B18" s="116"/>
-      <c r="C18" s="119"/>
-      <c r="D18" s="120"/>
-      <c r="E18" s="121"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="122"/>
-      <c r="I18" s="123"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="49"/>
-      <c r="M18" s="49"/>
-      <c r="N18" s="49"/>
-      <c r="O18" s="49"/>
-      <c r="P18" s="61"/>
-      <c r="Q18" s="61"/>
-      <c r="R18" s="49"/>
-      <c r="S18" s="49"/>
-      <c r="T18" s="49"/>
-      <c r="U18" s="49"/>
-      <c r="V18" s="49"/>
-      <c r="W18" s="61"/>
-      <c r="X18" s="61"/>
-      <c r="Y18" s="49"/>
-      <c r="Z18" s="49"/>
-      <c r="AA18" s="49"/>
-      <c r="AB18" s="49"/>
-      <c r="AC18" s="49"/>
-      <c r="AD18" s="61"/>
-      <c r="AE18" s="61"/>
-      <c r="AF18" s="49"/>
-      <c r="AG18" s="49"/>
-      <c r="AH18" s="49"/>
-      <c r="AI18" s="49"/>
-      <c r="AJ18" s="49"/>
-      <c r="AK18" s="61"/>
-      <c r="AL18" s="61"/>
-      <c r="AM18" s="49"/>
-      <c r="AN18" s="49"/>
+      <c r="A18" s="57"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="127"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="48"/>
+      <c r="O18" s="48"/>
+      <c r="P18" s="48"/>
+      <c r="Q18" s="48"/>
+      <c r="R18" s="48"/>
+      <c r="S18" s="48"/>
+      <c r="T18" s="48"/>
+      <c r="U18" s="48"/>
+      <c r="V18" s="48"/>
+      <c r="W18" s="48"/>
+      <c r="X18" s="48"/>
+      <c r="Y18" s="48"/>
+      <c r="Z18" s="48"/>
+      <c r="AA18" s="48"/>
+      <c r="AB18" s="48"/>
+      <c r="AC18" s="48"/>
+      <c r="AD18" s="48"/>
+      <c r="AE18" s="48"/>
+      <c r="AF18" s="48"/>
+      <c r="AG18" s="48"/>
+      <c r="AH18" s="48"/>
+      <c r="AI18" s="48"/>
+      <c r="AJ18" s="48"/>
+      <c r="AK18" s="48"/>
+      <c r="AL18" s="48"/>
+      <c r="AM18" s="48"/>
+      <c r="AN18" s="128"/>
       <c r="AO18" s="27" t="s">
         <v>9</v>
       </c>
@@ -2373,94 +2339,94 @@
       <c r="AR18" s="30"/>
     </row>
     <row r="19" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A19" s="117"/>
-      <c r="B19" s="117"/>
-      <c r="C19" s="124"/>
-      <c r="D19" s="125"/>
-      <c r="E19" s="126"/>
+      <c r="A19" s="58"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="67"/>
       <c r="F19" s="35"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="127"/>
-      <c r="I19" s="128"/>
-      <c r="J19" s="62"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="50"/>
-      <c r="N19" s="50"/>
-      <c r="O19" s="50"/>
-      <c r="P19" s="62"/>
-      <c r="Q19" s="62"/>
-      <c r="R19" s="50"/>
-      <c r="S19" s="50"/>
-      <c r="T19" s="50"/>
-      <c r="U19" s="50"/>
-      <c r="V19" s="50"/>
-      <c r="W19" s="62"/>
-      <c r="X19" s="62"/>
-      <c r="Y19" s="50"/>
-      <c r="Z19" s="50"/>
-      <c r="AA19" s="50"/>
-      <c r="AB19" s="50"/>
-      <c r="AC19" s="50"/>
-      <c r="AD19" s="62"/>
-      <c r="AE19" s="62"/>
-      <c r="AF19" s="50"/>
-      <c r="AG19" s="50"/>
-      <c r="AH19" s="50"/>
-      <c r="AI19" s="50"/>
-      <c r="AJ19" s="50"/>
-      <c r="AK19" s="62"/>
-      <c r="AL19" s="62"/>
-      <c r="AM19" s="50"/>
-      <c r="AN19" s="50"/>
-      <c r="AO19" s="129" t="s">
+      <c r="G19" s="35"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="129"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="49"/>
+      <c r="N19" s="49"/>
+      <c r="O19" s="49"/>
+      <c r="P19" s="49"/>
+      <c r="Q19" s="49"/>
+      <c r="R19" s="49"/>
+      <c r="S19" s="49"/>
+      <c r="T19" s="49"/>
+      <c r="U19" s="49"/>
+      <c r="V19" s="49"/>
+      <c r="W19" s="49"/>
+      <c r="X19" s="49"/>
+      <c r="Y19" s="49"/>
+      <c r="Z19" s="49"/>
+      <c r="AA19" s="49"/>
+      <c r="AB19" s="49"/>
+      <c r="AC19" s="49"/>
+      <c r="AD19" s="49"/>
+      <c r="AE19" s="49"/>
+      <c r="AF19" s="49"/>
+      <c r="AG19" s="49"/>
+      <c r="AH19" s="49"/>
+      <c r="AI19" s="49"/>
+      <c r="AJ19" s="49"/>
+      <c r="AK19" s="49"/>
+      <c r="AL19" s="49"/>
+      <c r="AM19" s="49"/>
+      <c r="AN19" s="130"/>
+      <c r="AO19" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="AP19" s="130"/>
-      <c r="AQ19" s="130"/>
+      <c r="AP19" s="74"/>
+      <c r="AQ19" s="74"/>
       <c r="AR19" s="30"/>
     </row>
     <row r="20" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A20" s="117"/>
-      <c r="B20" s="117"/>
-      <c r="C20" s="124"/>
-      <c r="D20" s="125"/>
-      <c r="E20" s="126"/>
+      <c r="A20" s="58"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="67"/>
       <c r="F20" s="35"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="127"/>
-      <c r="I20" s="128"/>
-      <c r="J20" s="63"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="52"/>
-      <c r="M20" s="52"/>
-      <c r="N20" s="52"/>
-      <c r="O20" s="52"/>
-      <c r="P20" s="64"/>
-      <c r="Q20" s="64"/>
-      <c r="R20" s="52"/>
-      <c r="S20" s="52"/>
-      <c r="T20" s="52"/>
-      <c r="U20" s="52"/>
-      <c r="V20" s="52"/>
-      <c r="W20" s="64"/>
-      <c r="X20" s="64"/>
-      <c r="Y20" s="52"/>
-      <c r="Z20" s="52"/>
-      <c r="AA20" s="52"/>
-      <c r="AB20" s="52"/>
-      <c r="AC20" s="52"/>
-      <c r="AD20" s="64"/>
-      <c r="AE20" s="64"/>
-      <c r="AF20" s="52"/>
-      <c r="AG20" s="52"/>
-      <c r="AH20" s="52"/>
-      <c r="AI20" s="52"/>
-      <c r="AJ20" s="52"/>
-      <c r="AK20" s="64"/>
-      <c r="AL20" s="64"/>
-      <c r="AM20" s="52"/>
-      <c r="AN20" s="53"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="69"/>
+      <c r="J20" s="131"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="51"/>
+      <c r="N20" s="51"/>
+      <c r="O20" s="51"/>
+      <c r="P20" s="51"/>
+      <c r="Q20" s="51"/>
+      <c r="R20" s="51"/>
+      <c r="S20" s="51"/>
+      <c r="T20" s="51"/>
+      <c r="U20" s="51"/>
+      <c r="V20" s="51"/>
+      <c r="W20" s="51"/>
+      <c r="X20" s="51"/>
+      <c r="Y20" s="51"/>
+      <c r="Z20" s="51"/>
+      <c r="AA20" s="51"/>
+      <c r="AB20" s="51"/>
+      <c r="AC20" s="51"/>
+      <c r="AD20" s="51"/>
+      <c r="AE20" s="51"/>
+      <c r="AF20" s="51"/>
+      <c r="AG20" s="51"/>
+      <c r="AH20" s="51"/>
+      <c r="AI20" s="51"/>
+      <c r="AJ20" s="51"/>
+      <c r="AK20" s="51"/>
+      <c r="AL20" s="51"/>
+      <c r="AM20" s="51"/>
+      <c r="AN20" s="52"/>
       <c r="AO20" s="31" t="s">
         <v>11</v>
       </c>
@@ -2471,288 +2437,288 @@
       <c r="AR20" s="33"/>
     </row>
     <row r="21" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A21" s="117"/>
-      <c r="B21" s="117"/>
-      <c r="C21" s="124"/>
-      <c r="D21" s="125"/>
-      <c r="E21" s="126"/>
+      <c r="A21" s="58"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="67"/>
       <c r="F21" s="35"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="127"/>
-      <c r="I21" s="128"/>
-      <c r="J21" s="63"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="52"/>
-      <c r="M21" s="52"/>
-      <c r="N21" s="52"/>
-      <c r="O21" s="52"/>
-      <c r="P21" s="64"/>
-      <c r="Q21" s="64"/>
-      <c r="R21" s="52"/>
-      <c r="S21" s="52"/>
-      <c r="T21" s="52"/>
-      <c r="U21" s="52"/>
-      <c r="V21" s="52"/>
-      <c r="W21" s="64"/>
-      <c r="X21" s="64"/>
-      <c r="Y21" s="52"/>
-      <c r="Z21" s="52"/>
-      <c r="AA21" s="52"/>
-      <c r="AB21" s="52"/>
-      <c r="AC21" s="52"/>
-      <c r="AD21" s="64"/>
-      <c r="AE21" s="64"/>
-      <c r="AF21" s="52"/>
-      <c r="AG21" s="52"/>
-      <c r="AH21" s="52"/>
-      <c r="AI21" s="52"/>
-      <c r="AJ21" s="52"/>
-      <c r="AK21" s="64"/>
-      <c r="AL21" s="64"/>
-      <c r="AM21" s="52"/>
-      <c r="AN21" s="53"/>
-      <c r="AO21" s="129" t="s">
+      <c r="G21" s="35"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="69"/>
+      <c r="J21" s="131"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="51"/>
+      <c r="M21" s="51"/>
+      <c r="N21" s="51"/>
+      <c r="O21" s="51"/>
+      <c r="P21" s="51"/>
+      <c r="Q21" s="51"/>
+      <c r="R21" s="51"/>
+      <c r="S21" s="51"/>
+      <c r="T21" s="51"/>
+      <c r="U21" s="51"/>
+      <c r="V21" s="51"/>
+      <c r="W21" s="51"/>
+      <c r="X21" s="51"/>
+      <c r="Y21" s="51"/>
+      <c r="Z21" s="51"/>
+      <c r="AA21" s="51"/>
+      <c r="AB21" s="51"/>
+      <c r="AC21" s="51"/>
+      <c r="AD21" s="51"/>
+      <c r="AE21" s="51"/>
+      <c r="AF21" s="51"/>
+      <c r="AG21" s="51"/>
+      <c r="AH21" s="51"/>
+      <c r="AI21" s="51"/>
+      <c r="AJ21" s="51"/>
+      <c r="AK21" s="51"/>
+      <c r="AL21" s="51"/>
+      <c r="AM21" s="51"/>
+      <c r="AN21" s="52"/>
+      <c r="AO21" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="AP21" s="130"/>
+      <c r="AP21" s="74"/>
       <c r="AQ21" s="32"/>
       <c r="AR21" s="30"/>
     </row>
     <row r="22" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A22" s="117"/>
-      <c r="B22" s="117"/>
-      <c r="C22" s="131"/>
-      <c r="D22" s="132"/>
-      <c r="E22" s="133"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="127"/>
-      <c r="I22" s="128"/>
-      <c r="J22" s="63"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="52"/>
-      <c r="M22" s="52"/>
-      <c r="N22" s="52"/>
-      <c r="O22" s="52"/>
-      <c r="P22" s="64"/>
-      <c r="Q22" s="64"/>
-      <c r="R22" s="52"/>
-      <c r="S22" s="52"/>
-      <c r="T22" s="52"/>
-      <c r="U22" s="52"/>
-      <c r="V22" s="52"/>
-      <c r="W22" s="64"/>
-      <c r="X22" s="64"/>
-      <c r="Y22" s="52"/>
-      <c r="Z22" s="52"/>
-      <c r="AA22" s="52"/>
-      <c r="AB22" s="52"/>
-      <c r="AC22" s="52"/>
-      <c r="AD22" s="64"/>
-      <c r="AE22" s="64"/>
-      <c r="AF22" s="52"/>
-      <c r="AG22" s="52"/>
-      <c r="AH22" s="52"/>
-      <c r="AI22" s="52"/>
-      <c r="AJ22" s="52"/>
-      <c r="AK22" s="64"/>
-      <c r="AL22" s="64"/>
-      <c r="AM22" s="52"/>
-      <c r="AN22" s="53"/>
-      <c r="AO22" s="129" t="s">
+      <c r="A22" s="58"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="68"/>
+      <c r="I22" s="69"/>
+      <c r="J22" s="131"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="51"/>
+      <c r="M22" s="51"/>
+      <c r="N22" s="51"/>
+      <c r="O22" s="51"/>
+      <c r="P22" s="51"/>
+      <c r="Q22" s="51"/>
+      <c r="R22" s="51"/>
+      <c r="S22" s="51"/>
+      <c r="T22" s="51"/>
+      <c r="U22" s="51"/>
+      <c r="V22" s="51"/>
+      <c r="W22" s="51"/>
+      <c r="X22" s="51"/>
+      <c r="Y22" s="51"/>
+      <c r="Z22" s="51"/>
+      <c r="AA22" s="51"/>
+      <c r="AB22" s="51"/>
+      <c r="AC22" s="51"/>
+      <c r="AD22" s="51"/>
+      <c r="AE22" s="51"/>
+      <c r="AF22" s="51"/>
+      <c r="AG22" s="51"/>
+      <c r="AH22" s="51"/>
+      <c r="AI22" s="51"/>
+      <c r="AJ22" s="51"/>
+      <c r="AK22" s="51"/>
+      <c r="AL22" s="51"/>
+      <c r="AM22" s="51"/>
+      <c r="AN22" s="52"/>
+      <c r="AO22" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="AP22" s="130"/>
+      <c r="AP22" s="74"/>
       <c r="AQ22" s="32"/>
       <c r="AR22" s="34"/>
     </row>
     <row r="23" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A23" s="117"/>
-      <c r="B23" s="117"/>
-      <c r="C23" s="131"/>
-      <c r="D23" s="132"/>
-      <c r="E23" s="133"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="127"/>
-      <c r="I23" s="128"/>
-      <c r="J23" s="63"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="52"/>
-      <c r="M23" s="52"/>
-      <c r="N23" s="52"/>
-      <c r="O23" s="52"/>
-      <c r="P23" s="64"/>
-      <c r="Q23" s="64"/>
-      <c r="R23" s="52"/>
-      <c r="S23" s="52"/>
-      <c r="T23" s="52"/>
-      <c r="U23" s="52"/>
-      <c r="V23" s="52"/>
-      <c r="W23" s="64"/>
-      <c r="X23" s="64"/>
-      <c r="Y23" s="52"/>
-      <c r="Z23" s="52"/>
-      <c r="AA23" s="52"/>
-      <c r="AB23" s="52"/>
-      <c r="AC23" s="52"/>
-      <c r="AD23" s="64"/>
-      <c r="AE23" s="64"/>
-      <c r="AF23" s="52"/>
-      <c r="AG23" s="52"/>
-      <c r="AH23" s="52"/>
-      <c r="AI23" s="52"/>
-      <c r="AJ23" s="52"/>
-      <c r="AK23" s="64"/>
-      <c r="AL23" s="64"/>
-      <c r="AM23" s="52"/>
-      <c r="AN23" s="53"/>
-      <c r="AO23" s="129" t="s">
+      <c r="A23" s="58"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="131"/>
+      <c r="K23" s="51"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="51"/>
+      <c r="N23" s="51"/>
+      <c r="O23" s="51"/>
+      <c r="P23" s="51"/>
+      <c r="Q23" s="51"/>
+      <c r="R23" s="51"/>
+      <c r="S23" s="51"/>
+      <c r="T23" s="51"/>
+      <c r="U23" s="51"/>
+      <c r="V23" s="51"/>
+      <c r="W23" s="51"/>
+      <c r="X23" s="51"/>
+      <c r="Y23" s="51"/>
+      <c r="Z23" s="51"/>
+      <c r="AA23" s="51"/>
+      <c r="AB23" s="51"/>
+      <c r="AC23" s="51"/>
+      <c r="AD23" s="51"/>
+      <c r="AE23" s="51"/>
+      <c r="AF23" s="51"/>
+      <c r="AG23" s="51"/>
+      <c r="AH23" s="51"/>
+      <c r="AI23" s="51"/>
+      <c r="AJ23" s="51"/>
+      <c r="AK23" s="51"/>
+      <c r="AL23" s="51"/>
+      <c r="AM23" s="51"/>
+      <c r="AN23" s="52"/>
+      <c r="AO23" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="AP23" s="130"/>
+      <c r="AP23" s="74"/>
       <c r="AQ23" s="32"/>
       <c r="AR23" s="30"/>
     </row>
     <row r="24" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A24" s="117"/>
-      <c r="B24" s="117"/>
-      <c r="C24" s="124"/>
-      <c r="D24" s="125"/>
-      <c r="E24" s="126"/>
+      <c r="A24" s="58"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="67"/>
       <c r="F24" s="35"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="127"/>
-      <c r="I24" s="128"/>
-      <c r="J24" s="63"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="52"/>
-      <c r="M24" s="52"/>
-      <c r="N24" s="52"/>
-      <c r="O24" s="52"/>
-      <c r="P24" s="64"/>
-      <c r="Q24" s="64"/>
-      <c r="R24" s="52"/>
-      <c r="S24" s="52"/>
-      <c r="T24" s="52"/>
-      <c r="U24" s="52"/>
-      <c r="V24" s="52"/>
-      <c r="W24" s="64"/>
-      <c r="X24" s="64"/>
-      <c r="Y24" s="52"/>
-      <c r="Z24" s="52"/>
-      <c r="AA24" s="52"/>
-      <c r="AB24" s="52"/>
-      <c r="AC24" s="52"/>
-      <c r="AD24" s="64"/>
-      <c r="AE24" s="64"/>
-      <c r="AF24" s="52"/>
-      <c r="AG24" s="52"/>
-      <c r="AH24" s="52"/>
-      <c r="AI24" s="52"/>
-      <c r="AJ24" s="52"/>
-      <c r="AK24" s="64"/>
-      <c r="AL24" s="64"/>
-      <c r="AM24" s="52"/>
-      <c r="AN24" s="53"/>
-      <c r="AO24" s="129" t="s">
+      <c r="G24" s="35"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="131"/>
+      <c r="K24" s="51"/>
+      <c r="L24" s="51"/>
+      <c r="M24" s="51"/>
+      <c r="N24" s="51"/>
+      <c r="O24" s="51"/>
+      <c r="P24" s="51"/>
+      <c r="Q24" s="51"/>
+      <c r="R24" s="51"/>
+      <c r="S24" s="51"/>
+      <c r="T24" s="51"/>
+      <c r="U24" s="51"/>
+      <c r="V24" s="51"/>
+      <c r="W24" s="51"/>
+      <c r="X24" s="51"/>
+      <c r="Y24" s="51"/>
+      <c r="Z24" s="51"/>
+      <c r="AA24" s="51"/>
+      <c r="AB24" s="51"/>
+      <c r="AC24" s="51"/>
+      <c r="AD24" s="51"/>
+      <c r="AE24" s="51"/>
+      <c r="AF24" s="51"/>
+      <c r="AG24" s="51"/>
+      <c r="AH24" s="51"/>
+      <c r="AI24" s="51"/>
+      <c r="AJ24" s="51"/>
+      <c r="AK24" s="51"/>
+      <c r="AL24" s="51"/>
+      <c r="AM24" s="51"/>
+      <c r="AN24" s="52"/>
+      <c r="AO24" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="AP24" s="130"/>
-      <c r="AQ24" s="37"/>
+      <c r="AP24" s="74"/>
+      <c r="AQ24" s="36"/>
       <c r="AR24" s="34"/>
     </row>
     <row r="25" spans="1:44" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="118"/>
-      <c r="B25" s="118"/>
-      <c r="C25" s="134"/>
-      <c r="D25" s="135"/>
-      <c r="E25" s="136"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="127"/>
-      <c r="I25" s="128"/>
-      <c r="J25" s="65"/>
-      <c r="K25" s="51"/>
-      <c r="L25" s="51"/>
-      <c r="M25" s="51"/>
-      <c r="N25" s="51"/>
-      <c r="O25" s="51"/>
-      <c r="P25" s="66"/>
-      <c r="Q25" s="66"/>
-      <c r="R25" s="51"/>
-      <c r="S25" s="51"/>
-      <c r="T25" s="51"/>
-      <c r="U25" s="51"/>
-      <c r="V25" s="51"/>
-      <c r="W25" s="66"/>
-      <c r="X25" s="66"/>
-      <c r="Y25" s="51"/>
-      <c r="Z25" s="51"/>
-      <c r="AA25" s="51"/>
-      <c r="AB25" s="51"/>
-      <c r="AC25" s="51"/>
-      <c r="AD25" s="66"/>
-      <c r="AE25" s="66"/>
-      <c r="AF25" s="51"/>
-      <c r="AG25" s="51"/>
-      <c r="AH25" s="51"/>
-      <c r="AI25" s="51"/>
-      <c r="AJ25" s="51"/>
-      <c r="AK25" s="66"/>
-      <c r="AL25" s="66"/>
-      <c r="AM25" s="51"/>
-      <c r="AN25" s="51"/>
-      <c r="AO25" s="38" t="s">
+      <c r="A25" s="59"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="132"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="50"/>
+      <c r="P25" s="50"/>
+      <c r="Q25" s="50"/>
+      <c r="R25" s="50"/>
+      <c r="S25" s="50"/>
+      <c r="T25" s="50"/>
+      <c r="U25" s="50"/>
+      <c r="V25" s="50"/>
+      <c r="W25" s="50"/>
+      <c r="X25" s="50"/>
+      <c r="Y25" s="50"/>
+      <c r="Z25" s="50"/>
+      <c r="AA25" s="50"/>
+      <c r="AB25" s="50"/>
+      <c r="AC25" s="50"/>
+      <c r="AD25" s="50"/>
+      <c r="AE25" s="50"/>
+      <c r="AF25" s="50"/>
+      <c r="AG25" s="50"/>
+      <c r="AH25" s="50"/>
+      <c r="AI25" s="50"/>
+      <c r="AJ25" s="50"/>
+      <c r="AK25" s="50"/>
+      <c r="AL25" s="50"/>
+      <c r="AM25" s="50"/>
+      <c r="AN25" s="133"/>
+      <c r="AO25" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="AP25" s="39"/>
-      <c r="AQ25" s="40" t="s">
+      <c r="AP25" s="38"/>
+      <c r="AQ25" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="AR25" s="41"/>
+      <c r="AR25" s="40"/>
     </row>
     <row r="26" spans="1:44" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="116"/>
-      <c r="B26" s="116"/>
-      <c r="C26" s="119"/>
-      <c r="D26" s="120"/>
-      <c r="E26" s="121"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="122"/>
-      <c r="I26" s="123"/>
-      <c r="J26" s="60"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="49"/>
-      <c r="N26" s="49"/>
-      <c r="O26" s="49"/>
-      <c r="P26" s="61"/>
-      <c r="Q26" s="61"/>
-      <c r="R26" s="49"/>
-      <c r="S26" s="49"/>
-      <c r="T26" s="49"/>
-      <c r="U26" s="49"/>
-      <c r="V26" s="49"/>
-      <c r="W26" s="61"/>
-      <c r="X26" s="61"/>
-      <c r="Y26" s="49"/>
-      <c r="Z26" s="49"/>
-      <c r="AA26" s="49"/>
-      <c r="AB26" s="49"/>
-      <c r="AC26" s="49"/>
-      <c r="AD26" s="61"/>
-      <c r="AE26" s="61"/>
-      <c r="AF26" s="49"/>
-      <c r="AG26" s="49"/>
-      <c r="AH26" s="49"/>
-      <c r="AI26" s="49"/>
-      <c r="AJ26" s="49"/>
-      <c r="AK26" s="61"/>
-      <c r="AL26" s="61"/>
-      <c r="AM26" s="49"/>
-      <c r="AN26" s="49"/>
+      <c r="A26" s="57"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="127"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="48"/>
+      <c r="N26" s="48"/>
+      <c r="O26" s="48"/>
+      <c r="P26" s="48"/>
+      <c r="Q26" s="48"/>
+      <c r="R26" s="48"/>
+      <c r="S26" s="48"/>
+      <c r="T26" s="48"/>
+      <c r="U26" s="48"/>
+      <c r="V26" s="48"/>
+      <c r="W26" s="48"/>
+      <c r="X26" s="48"/>
+      <c r="Y26" s="48"/>
+      <c r="Z26" s="48"/>
+      <c r="AA26" s="48"/>
+      <c r="AB26" s="48"/>
+      <c r="AC26" s="48"/>
+      <c r="AD26" s="48"/>
+      <c r="AE26" s="48"/>
+      <c r="AF26" s="48"/>
+      <c r="AG26" s="48"/>
+      <c r="AH26" s="48"/>
+      <c r="AI26" s="48"/>
+      <c r="AJ26" s="48"/>
+      <c r="AK26" s="48"/>
+      <c r="AL26" s="48"/>
+      <c r="AM26" s="48"/>
+      <c r="AN26" s="128"/>
       <c r="AO26" s="27" t="s">
         <v>9</v>
       </c>
@@ -2761,94 +2727,94 @@
       <c r="AR26" s="30"/>
     </row>
     <row r="27" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A27" s="117"/>
-      <c r="B27" s="117"/>
-      <c r="C27" s="124"/>
-      <c r="D27" s="125"/>
-      <c r="E27" s="126"/>
+      <c r="A27" s="58"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="67"/>
       <c r="F27" s="35"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="127"/>
-      <c r="I27" s="128"/>
-      <c r="J27" s="62"/>
-      <c r="K27" s="50"/>
-      <c r="L27" s="50"/>
-      <c r="M27" s="50"/>
-      <c r="N27" s="50"/>
-      <c r="O27" s="50"/>
-      <c r="P27" s="62"/>
-      <c r="Q27" s="62"/>
-      <c r="R27" s="50"/>
-      <c r="S27" s="50"/>
-      <c r="T27" s="50"/>
-      <c r="U27" s="50"/>
-      <c r="V27" s="50"/>
-      <c r="W27" s="62"/>
-      <c r="X27" s="62"/>
-      <c r="Y27" s="50"/>
-      <c r="Z27" s="50"/>
-      <c r="AA27" s="50"/>
-      <c r="AB27" s="50"/>
-      <c r="AC27" s="50"/>
-      <c r="AD27" s="62"/>
-      <c r="AE27" s="62"/>
-      <c r="AF27" s="50"/>
-      <c r="AG27" s="50"/>
-      <c r="AH27" s="50"/>
-      <c r="AI27" s="50"/>
-      <c r="AJ27" s="50"/>
-      <c r="AK27" s="62"/>
-      <c r="AL27" s="62"/>
-      <c r="AM27" s="50"/>
-      <c r="AN27" s="50"/>
-      <c r="AO27" s="129" t="s">
+      <c r="G27" s="35"/>
+      <c r="H27" s="68"/>
+      <c r="I27" s="69"/>
+      <c r="J27" s="129"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="49"/>
+      <c r="N27" s="49"/>
+      <c r="O27" s="49"/>
+      <c r="P27" s="49"/>
+      <c r="Q27" s="49"/>
+      <c r="R27" s="49"/>
+      <c r="S27" s="49"/>
+      <c r="T27" s="49"/>
+      <c r="U27" s="49"/>
+      <c r="V27" s="49"/>
+      <c r="W27" s="49"/>
+      <c r="X27" s="49"/>
+      <c r="Y27" s="49"/>
+      <c r="Z27" s="49"/>
+      <c r="AA27" s="49"/>
+      <c r="AB27" s="49"/>
+      <c r="AC27" s="49"/>
+      <c r="AD27" s="49"/>
+      <c r="AE27" s="49"/>
+      <c r="AF27" s="49"/>
+      <c r="AG27" s="49"/>
+      <c r="AH27" s="49"/>
+      <c r="AI27" s="49"/>
+      <c r="AJ27" s="49"/>
+      <c r="AK27" s="49"/>
+      <c r="AL27" s="49"/>
+      <c r="AM27" s="49"/>
+      <c r="AN27" s="130"/>
+      <c r="AO27" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="AP27" s="130"/>
-      <c r="AQ27" s="130"/>
+      <c r="AP27" s="74"/>
+      <c r="AQ27" s="74"/>
       <c r="AR27" s="30"/>
     </row>
     <row r="28" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A28" s="117"/>
-      <c r="B28" s="117"/>
-      <c r="C28" s="124"/>
-      <c r="D28" s="125"/>
-      <c r="E28" s="126"/>
+      <c r="A28" s="58"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="67"/>
       <c r="F28" s="35"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="127"/>
-      <c r="I28" s="128"/>
-      <c r="J28" s="63"/>
-      <c r="K28" s="52"/>
-      <c r="L28" s="52"/>
-      <c r="M28" s="52"/>
-      <c r="N28" s="52"/>
-      <c r="O28" s="52"/>
-      <c r="P28" s="64"/>
-      <c r="Q28" s="64"/>
-      <c r="R28" s="52"/>
-      <c r="S28" s="52"/>
-      <c r="T28" s="52"/>
-      <c r="U28" s="52"/>
-      <c r="V28" s="52"/>
-      <c r="W28" s="64"/>
-      <c r="X28" s="64"/>
-      <c r="Y28" s="52"/>
-      <c r="Z28" s="52"/>
-      <c r="AA28" s="52"/>
-      <c r="AB28" s="52"/>
-      <c r="AC28" s="52"/>
-      <c r="AD28" s="64"/>
-      <c r="AE28" s="64"/>
-      <c r="AF28" s="52"/>
-      <c r="AG28" s="52"/>
-      <c r="AH28" s="52"/>
-      <c r="AI28" s="52"/>
-      <c r="AJ28" s="52"/>
-      <c r="AK28" s="64"/>
-      <c r="AL28" s="64"/>
-      <c r="AM28" s="52"/>
-      <c r="AN28" s="53"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="68"/>
+      <c r="I28" s="69"/>
+      <c r="J28" s="131"/>
+      <c r="K28" s="51"/>
+      <c r="L28" s="51"/>
+      <c r="M28" s="51"/>
+      <c r="N28" s="51"/>
+      <c r="O28" s="51"/>
+      <c r="P28" s="51"/>
+      <c r="Q28" s="51"/>
+      <c r="R28" s="51"/>
+      <c r="S28" s="51"/>
+      <c r="T28" s="51"/>
+      <c r="U28" s="51"/>
+      <c r="V28" s="51"/>
+      <c r="W28" s="51"/>
+      <c r="X28" s="51"/>
+      <c r="Y28" s="51"/>
+      <c r="Z28" s="51"/>
+      <c r="AA28" s="51"/>
+      <c r="AB28" s="51"/>
+      <c r="AC28" s="51"/>
+      <c r="AD28" s="51"/>
+      <c r="AE28" s="51"/>
+      <c r="AF28" s="51"/>
+      <c r="AG28" s="51"/>
+      <c r="AH28" s="51"/>
+      <c r="AI28" s="51"/>
+      <c r="AJ28" s="51"/>
+      <c r="AK28" s="51"/>
+      <c r="AL28" s="51"/>
+      <c r="AM28" s="51"/>
+      <c r="AN28" s="52"/>
       <c r="AO28" s="31" t="s">
         <v>11</v>
       </c>
@@ -2859,288 +2825,288 @@
       <c r="AR28" s="33"/>
     </row>
     <row r="29" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A29" s="117"/>
-      <c r="B29" s="117"/>
-      <c r="C29" s="124"/>
-      <c r="D29" s="125"/>
-      <c r="E29" s="126"/>
+      <c r="A29" s="58"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="67"/>
       <c r="F29" s="35"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="127"/>
-      <c r="I29" s="128"/>
-      <c r="J29" s="63"/>
-      <c r="K29" s="52"/>
-      <c r="L29" s="52"/>
-      <c r="M29" s="52"/>
-      <c r="N29" s="52"/>
-      <c r="O29" s="52"/>
-      <c r="P29" s="64"/>
-      <c r="Q29" s="64"/>
-      <c r="R29" s="52"/>
-      <c r="S29" s="52"/>
-      <c r="T29" s="52"/>
-      <c r="U29" s="52"/>
-      <c r="V29" s="52"/>
-      <c r="W29" s="64"/>
-      <c r="X29" s="64"/>
-      <c r="Y29" s="52"/>
-      <c r="Z29" s="52"/>
-      <c r="AA29" s="52"/>
-      <c r="AB29" s="52"/>
-      <c r="AC29" s="52"/>
-      <c r="AD29" s="64"/>
-      <c r="AE29" s="64"/>
-      <c r="AF29" s="52"/>
-      <c r="AG29" s="52"/>
-      <c r="AH29" s="52"/>
-      <c r="AI29" s="52"/>
-      <c r="AJ29" s="52"/>
-      <c r="AK29" s="64"/>
-      <c r="AL29" s="64"/>
-      <c r="AM29" s="52"/>
-      <c r="AN29" s="53"/>
-      <c r="AO29" s="129" t="s">
+      <c r="G29" s="35"/>
+      <c r="H29" s="68"/>
+      <c r="I29" s="69"/>
+      <c r="J29" s="131"/>
+      <c r="K29" s="51"/>
+      <c r="L29" s="51"/>
+      <c r="M29" s="51"/>
+      <c r="N29" s="51"/>
+      <c r="O29" s="51"/>
+      <c r="P29" s="51"/>
+      <c r="Q29" s="51"/>
+      <c r="R29" s="51"/>
+      <c r="S29" s="51"/>
+      <c r="T29" s="51"/>
+      <c r="U29" s="51"/>
+      <c r="V29" s="51"/>
+      <c r="W29" s="51"/>
+      <c r="X29" s="51"/>
+      <c r="Y29" s="51"/>
+      <c r="Z29" s="51"/>
+      <c r="AA29" s="51"/>
+      <c r="AB29" s="51"/>
+      <c r="AC29" s="51"/>
+      <c r="AD29" s="51"/>
+      <c r="AE29" s="51"/>
+      <c r="AF29" s="51"/>
+      <c r="AG29" s="51"/>
+      <c r="AH29" s="51"/>
+      <c r="AI29" s="51"/>
+      <c r="AJ29" s="51"/>
+      <c r="AK29" s="51"/>
+      <c r="AL29" s="51"/>
+      <c r="AM29" s="51"/>
+      <c r="AN29" s="52"/>
+      <c r="AO29" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="AP29" s="130"/>
+      <c r="AP29" s="74"/>
       <c r="AQ29" s="32"/>
       <c r="AR29" s="30"/>
     </row>
     <row r="30" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A30" s="117"/>
-      <c r="B30" s="117"/>
-      <c r="C30" s="131"/>
-      <c r="D30" s="132"/>
-      <c r="E30" s="133"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="127"/>
-      <c r="I30" s="128"/>
-      <c r="J30" s="63"/>
-      <c r="K30" s="52"/>
-      <c r="L30" s="52"/>
-      <c r="M30" s="52"/>
-      <c r="N30" s="52"/>
-      <c r="O30" s="52"/>
-      <c r="P30" s="64"/>
-      <c r="Q30" s="64"/>
-      <c r="R30" s="52"/>
-      <c r="S30" s="52"/>
-      <c r="T30" s="52"/>
-      <c r="U30" s="52"/>
-      <c r="V30" s="52"/>
-      <c r="W30" s="64"/>
-      <c r="X30" s="64"/>
-      <c r="Y30" s="52"/>
-      <c r="Z30" s="52"/>
-      <c r="AA30" s="52"/>
-      <c r="AB30" s="52"/>
-      <c r="AC30" s="52"/>
-      <c r="AD30" s="64"/>
-      <c r="AE30" s="64"/>
-      <c r="AF30" s="52"/>
-      <c r="AG30" s="52"/>
-      <c r="AH30" s="52"/>
-      <c r="AI30" s="52"/>
-      <c r="AJ30" s="52"/>
-      <c r="AK30" s="64"/>
-      <c r="AL30" s="64"/>
-      <c r="AM30" s="52"/>
-      <c r="AN30" s="53"/>
-      <c r="AO30" s="129" t="s">
+      <c r="A30" s="58"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="70"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="72"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="68"/>
+      <c r="I30" s="69"/>
+      <c r="J30" s="131"/>
+      <c r="K30" s="51"/>
+      <c r="L30" s="51"/>
+      <c r="M30" s="51"/>
+      <c r="N30" s="51"/>
+      <c r="O30" s="51"/>
+      <c r="P30" s="51"/>
+      <c r="Q30" s="51"/>
+      <c r="R30" s="51"/>
+      <c r="S30" s="51"/>
+      <c r="T30" s="51"/>
+      <c r="U30" s="51"/>
+      <c r="V30" s="51"/>
+      <c r="W30" s="51"/>
+      <c r="X30" s="51"/>
+      <c r="Y30" s="51"/>
+      <c r="Z30" s="51"/>
+      <c r="AA30" s="51"/>
+      <c r="AB30" s="51"/>
+      <c r="AC30" s="51"/>
+      <c r="AD30" s="51"/>
+      <c r="AE30" s="51"/>
+      <c r="AF30" s="51"/>
+      <c r="AG30" s="51"/>
+      <c r="AH30" s="51"/>
+      <c r="AI30" s="51"/>
+      <c r="AJ30" s="51"/>
+      <c r="AK30" s="51"/>
+      <c r="AL30" s="51"/>
+      <c r="AM30" s="51"/>
+      <c r="AN30" s="52"/>
+      <c r="AO30" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="AP30" s="130"/>
+      <c r="AP30" s="74"/>
       <c r="AQ30" s="32"/>
       <c r="AR30" s="34"/>
     </row>
     <row r="31" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A31" s="117"/>
-      <c r="B31" s="117"/>
-      <c r="C31" s="131"/>
-      <c r="D31" s="132"/>
-      <c r="E31" s="133"/>
-      <c r="F31" s="56"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="127"/>
-      <c r="I31" s="128"/>
-      <c r="J31" s="63"/>
-      <c r="K31" s="52"/>
-      <c r="L31" s="52"/>
-      <c r="M31" s="52"/>
-      <c r="N31" s="52"/>
-      <c r="O31" s="52"/>
-      <c r="P31" s="64"/>
-      <c r="Q31" s="64"/>
-      <c r="R31" s="52"/>
-      <c r="S31" s="52"/>
-      <c r="T31" s="52"/>
-      <c r="U31" s="52"/>
-      <c r="V31" s="52"/>
-      <c r="W31" s="64"/>
-      <c r="X31" s="64"/>
-      <c r="Y31" s="52"/>
-      <c r="Z31" s="52"/>
-      <c r="AA31" s="52"/>
-      <c r="AB31" s="52"/>
-      <c r="AC31" s="52"/>
-      <c r="AD31" s="64"/>
-      <c r="AE31" s="64"/>
-      <c r="AF31" s="52"/>
-      <c r="AG31" s="52"/>
-      <c r="AH31" s="52"/>
-      <c r="AI31" s="52"/>
-      <c r="AJ31" s="52"/>
-      <c r="AK31" s="64"/>
-      <c r="AL31" s="64"/>
-      <c r="AM31" s="52"/>
-      <c r="AN31" s="53"/>
-      <c r="AO31" s="129" t="s">
+      <c r="A31" s="58"/>
+      <c r="B31" s="58"/>
+      <c r="C31" s="70"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="68"/>
+      <c r="I31" s="69"/>
+      <c r="J31" s="131"/>
+      <c r="K31" s="51"/>
+      <c r="L31" s="51"/>
+      <c r="M31" s="51"/>
+      <c r="N31" s="51"/>
+      <c r="O31" s="51"/>
+      <c r="P31" s="51"/>
+      <c r="Q31" s="51"/>
+      <c r="R31" s="51"/>
+      <c r="S31" s="51"/>
+      <c r="T31" s="51"/>
+      <c r="U31" s="51"/>
+      <c r="V31" s="51"/>
+      <c r="W31" s="51"/>
+      <c r="X31" s="51"/>
+      <c r="Y31" s="51"/>
+      <c r="Z31" s="51"/>
+      <c r="AA31" s="51"/>
+      <c r="AB31" s="51"/>
+      <c r="AC31" s="51"/>
+      <c r="AD31" s="51"/>
+      <c r="AE31" s="51"/>
+      <c r="AF31" s="51"/>
+      <c r="AG31" s="51"/>
+      <c r="AH31" s="51"/>
+      <c r="AI31" s="51"/>
+      <c r="AJ31" s="51"/>
+      <c r="AK31" s="51"/>
+      <c r="AL31" s="51"/>
+      <c r="AM31" s="51"/>
+      <c r="AN31" s="52"/>
+      <c r="AO31" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="AP31" s="130"/>
+      <c r="AP31" s="74"/>
       <c r="AQ31" s="32"/>
       <c r="AR31" s="30"/>
     </row>
     <row r="32" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A32" s="117"/>
-      <c r="B32" s="117"/>
-      <c r="C32" s="124"/>
-      <c r="D32" s="125"/>
-      <c r="E32" s="126"/>
+      <c r="A32" s="58"/>
+      <c r="B32" s="58"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="67"/>
       <c r="F32" s="35"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="127"/>
-      <c r="I32" s="128"/>
-      <c r="J32" s="63"/>
-      <c r="K32" s="52"/>
-      <c r="L32" s="52"/>
-      <c r="M32" s="52"/>
-      <c r="N32" s="52"/>
-      <c r="O32" s="52"/>
-      <c r="P32" s="64"/>
-      <c r="Q32" s="64"/>
-      <c r="R32" s="52"/>
-      <c r="S32" s="52"/>
-      <c r="T32" s="52"/>
-      <c r="U32" s="52"/>
-      <c r="V32" s="52"/>
-      <c r="W32" s="64"/>
-      <c r="X32" s="64"/>
-      <c r="Y32" s="52"/>
-      <c r="Z32" s="52"/>
-      <c r="AA32" s="52"/>
-      <c r="AB32" s="52"/>
-      <c r="AC32" s="52"/>
-      <c r="AD32" s="64"/>
-      <c r="AE32" s="64"/>
-      <c r="AF32" s="52"/>
-      <c r="AG32" s="52"/>
-      <c r="AH32" s="52"/>
-      <c r="AI32" s="52"/>
-      <c r="AJ32" s="52"/>
-      <c r="AK32" s="64"/>
-      <c r="AL32" s="64"/>
-      <c r="AM32" s="52"/>
-      <c r="AN32" s="53"/>
-      <c r="AO32" s="129" t="s">
+      <c r="G32" s="35"/>
+      <c r="H32" s="68"/>
+      <c r="I32" s="69"/>
+      <c r="J32" s="131"/>
+      <c r="K32" s="51"/>
+      <c r="L32" s="51"/>
+      <c r="M32" s="51"/>
+      <c r="N32" s="51"/>
+      <c r="O32" s="51"/>
+      <c r="P32" s="51"/>
+      <c r="Q32" s="51"/>
+      <c r="R32" s="51"/>
+      <c r="S32" s="51"/>
+      <c r="T32" s="51"/>
+      <c r="U32" s="51"/>
+      <c r="V32" s="51"/>
+      <c r="W32" s="51"/>
+      <c r="X32" s="51"/>
+      <c r="Y32" s="51"/>
+      <c r="Z32" s="51"/>
+      <c r="AA32" s="51"/>
+      <c r="AB32" s="51"/>
+      <c r="AC32" s="51"/>
+      <c r="AD32" s="51"/>
+      <c r="AE32" s="51"/>
+      <c r="AF32" s="51"/>
+      <c r="AG32" s="51"/>
+      <c r="AH32" s="51"/>
+      <c r="AI32" s="51"/>
+      <c r="AJ32" s="51"/>
+      <c r="AK32" s="51"/>
+      <c r="AL32" s="51"/>
+      <c r="AM32" s="51"/>
+      <c r="AN32" s="52"/>
+      <c r="AO32" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="AP32" s="130"/>
-      <c r="AQ32" s="37"/>
+      <c r="AP32" s="74"/>
+      <c r="AQ32" s="36"/>
       <c r="AR32" s="34"/>
     </row>
     <row r="33" spans="1:44" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="118"/>
-      <c r="B33" s="118"/>
-      <c r="C33" s="134"/>
-      <c r="D33" s="135"/>
-      <c r="E33" s="136"/>
-      <c r="F33" s="57"/>
-      <c r="G33" s="58"/>
-      <c r="H33" s="127"/>
-      <c r="I33" s="128"/>
-      <c r="J33" s="65"/>
-      <c r="K33" s="51"/>
-      <c r="L33" s="51"/>
-      <c r="M33" s="51"/>
-      <c r="N33" s="51"/>
-      <c r="O33" s="51"/>
-      <c r="P33" s="66"/>
-      <c r="Q33" s="66"/>
-      <c r="R33" s="51"/>
-      <c r="S33" s="51"/>
-      <c r="T33" s="51"/>
-      <c r="U33" s="51"/>
-      <c r="V33" s="51"/>
-      <c r="W33" s="66"/>
-      <c r="X33" s="66"/>
-      <c r="Y33" s="51"/>
-      <c r="Z33" s="51"/>
-      <c r="AA33" s="51"/>
-      <c r="AB33" s="51"/>
-      <c r="AC33" s="51"/>
-      <c r="AD33" s="66"/>
-      <c r="AE33" s="66"/>
-      <c r="AF33" s="51"/>
-      <c r="AG33" s="51"/>
-      <c r="AH33" s="51"/>
-      <c r="AI33" s="51"/>
-      <c r="AJ33" s="51"/>
-      <c r="AK33" s="66"/>
-      <c r="AL33" s="66"/>
-      <c r="AM33" s="51"/>
-      <c r="AN33" s="51"/>
-      <c r="AO33" s="38" t="s">
+      <c r="A33" s="59"/>
+      <c r="B33" s="59"/>
+      <c r="C33" s="75"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="77"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="68"/>
+      <c r="I33" s="69"/>
+      <c r="J33" s="132"/>
+      <c r="K33" s="50"/>
+      <c r="L33" s="50"/>
+      <c r="M33" s="50"/>
+      <c r="N33" s="50"/>
+      <c r="O33" s="50"/>
+      <c r="P33" s="50"/>
+      <c r="Q33" s="50"/>
+      <c r="R33" s="50"/>
+      <c r="S33" s="50"/>
+      <c r="T33" s="50"/>
+      <c r="U33" s="50"/>
+      <c r="V33" s="50"/>
+      <c r="W33" s="50"/>
+      <c r="X33" s="50"/>
+      <c r="Y33" s="50"/>
+      <c r="Z33" s="50"/>
+      <c r="AA33" s="50"/>
+      <c r="AB33" s="50"/>
+      <c r="AC33" s="50"/>
+      <c r="AD33" s="50"/>
+      <c r="AE33" s="50"/>
+      <c r="AF33" s="50"/>
+      <c r="AG33" s="50"/>
+      <c r="AH33" s="50"/>
+      <c r="AI33" s="50"/>
+      <c r="AJ33" s="50"/>
+      <c r="AK33" s="50"/>
+      <c r="AL33" s="50"/>
+      <c r="AM33" s="50"/>
+      <c r="AN33" s="133"/>
+      <c r="AO33" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="AP33" s="39"/>
-      <c r="AQ33" s="40" t="s">
+      <c r="AP33" s="38"/>
+      <c r="AQ33" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="AR33" s="41"/>
+      <c r="AR33" s="40"/>
     </row>
     <row r="34" spans="1:44" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="116"/>
-      <c r="B34" s="116"/>
-      <c r="C34" s="119"/>
-      <c r="D34" s="120"/>
-      <c r="E34" s="121"/>
-      <c r="F34" s="54"/>
-      <c r="G34" s="55"/>
-      <c r="H34" s="122"/>
-      <c r="I34" s="123"/>
-      <c r="J34" s="60"/>
-      <c r="K34" s="49"/>
-      <c r="L34" s="49"/>
-      <c r="M34" s="49"/>
-      <c r="N34" s="49"/>
-      <c r="O34" s="49"/>
-      <c r="P34" s="61"/>
-      <c r="Q34" s="61"/>
-      <c r="R34" s="49"/>
-      <c r="S34" s="49"/>
-      <c r="T34" s="49"/>
-      <c r="U34" s="49"/>
-      <c r="V34" s="49"/>
-      <c r="W34" s="61"/>
-      <c r="X34" s="61"/>
-      <c r="Y34" s="49"/>
-      <c r="Z34" s="49"/>
-      <c r="AA34" s="49"/>
-      <c r="AB34" s="49"/>
-      <c r="AC34" s="49"/>
-      <c r="AD34" s="61"/>
-      <c r="AE34" s="61"/>
-      <c r="AF34" s="49"/>
-      <c r="AG34" s="49"/>
-      <c r="AH34" s="49"/>
-      <c r="AI34" s="49"/>
-      <c r="AJ34" s="49"/>
-      <c r="AK34" s="61"/>
-      <c r="AL34" s="61"/>
-      <c r="AM34" s="49"/>
-      <c r="AN34" s="49"/>
+      <c r="A34" s="57"/>
+      <c r="B34" s="57"/>
+      <c r="C34" s="60"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="64"/>
+      <c r="J34" s="127"/>
+      <c r="K34" s="48"/>
+      <c r="L34" s="48"/>
+      <c r="M34" s="48"/>
+      <c r="N34" s="48"/>
+      <c r="O34" s="48"/>
+      <c r="P34" s="48"/>
+      <c r="Q34" s="48"/>
+      <c r="R34" s="48"/>
+      <c r="S34" s="48"/>
+      <c r="T34" s="48"/>
+      <c r="U34" s="48"/>
+      <c r="V34" s="48"/>
+      <c r="W34" s="48"/>
+      <c r="X34" s="48"/>
+      <c r="Y34" s="48"/>
+      <c r="Z34" s="48"/>
+      <c r="AA34" s="48"/>
+      <c r="AB34" s="48"/>
+      <c r="AC34" s="48"/>
+      <c r="AD34" s="48"/>
+      <c r="AE34" s="48"/>
+      <c r="AF34" s="48"/>
+      <c r="AG34" s="48"/>
+      <c r="AH34" s="48"/>
+      <c r="AI34" s="48"/>
+      <c r="AJ34" s="48"/>
+      <c r="AK34" s="48"/>
+      <c r="AL34" s="48"/>
+      <c r="AM34" s="48"/>
+      <c r="AN34" s="128"/>
       <c r="AO34" s="27" t="s">
         <v>9</v>
       </c>
@@ -3149,94 +3115,94 @@
       <c r="AR34" s="30"/>
     </row>
     <row r="35" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A35" s="117"/>
-      <c r="B35" s="117"/>
-      <c r="C35" s="124"/>
-      <c r="D35" s="125"/>
-      <c r="E35" s="126"/>
+      <c r="A35" s="58"/>
+      <c r="B35" s="58"/>
+      <c r="C35" s="65"/>
+      <c r="D35" s="66"/>
+      <c r="E35" s="67"/>
       <c r="F35" s="35"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="127"/>
-      <c r="I35" s="128"/>
-      <c r="J35" s="62"/>
-      <c r="K35" s="50"/>
-      <c r="L35" s="50"/>
-      <c r="M35" s="50"/>
-      <c r="N35" s="50"/>
-      <c r="O35" s="50"/>
-      <c r="P35" s="62"/>
-      <c r="Q35" s="62"/>
-      <c r="R35" s="50"/>
-      <c r="S35" s="50"/>
-      <c r="T35" s="50"/>
-      <c r="U35" s="50"/>
-      <c r="V35" s="50"/>
-      <c r="W35" s="62"/>
-      <c r="X35" s="62"/>
-      <c r="Y35" s="50"/>
-      <c r="Z35" s="50"/>
-      <c r="AA35" s="50"/>
-      <c r="AB35" s="50"/>
-      <c r="AC35" s="50"/>
-      <c r="AD35" s="62"/>
-      <c r="AE35" s="62"/>
-      <c r="AF35" s="50"/>
-      <c r="AG35" s="50"/>
-      <c r="AH35" s="50"/>
-      <c r="AI35" s="50"/>
-      <c r="AJ35" s="50"/>
-      <c r="AK35" s="62"/>
-      <c r="AL35" s="62"/>
-      <c r="AM35" s="50"/>
-      <c r="AN35" s="50"/>
-      <c r="AO35" s="129" t="s">
+      <c r="G35" s="35"/>
+      <c r="H35" s="68"/>
+      <c r="I35" s="69"/>
+      <c r="J35" s="129"/>
+      <c r="K35" s="49"/>
+      <c r="L35" s="49"/>
+      <c r="M35" s="49"/>
+      <c r="N35" s="49"/>
+      <c r="O35" s="49"/>
+      <c r="P35" s="49"/>
+      <c r="Q35" s="49"/>
+      <c r="R35" s="49"/>
+      <c r="S35" s="49"/>
+      <c r="T35" s="49"/>
+      <c r="U35" s="49"/>
+      <c r="V35" s="49"/>
+      <c r="W35" s="49"/>
+      <c r="X35" s="49"/>
+      <c r="Y35" s="49"/>
+      <c r="Z35" s="49"/>
+      <c r="AA35" s="49"/>
+      <c r="AB35" s="49"/>
+      <c r="AC35" s="49"/>
+      <c r="AD35" s="49"/>
+      <c r="AE35" s="49"/>
+      <c r="AF35" s="49"/>
+      <c r="AG35" s="49"/>
+      <c r="AH35" s="49"/>
+      <c r="AI35" s="49"/>
+      <c r="AJ35" s="49"/>
+      <c r="AK35" s="49"/>
+      <c r="AL35" s="49"/>
+      <c r="AM35" s="49"/>
+      <c r="AN35" s="130"/>
+      <c r="AO35" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="AP35" s="130"/>
-      <c r="AQ35" s="130"/>
+      <c r="AP35" s="74"/>
+      <c r="AQ35" s="74"/>
       <c r="AR35" s="30"/>
     </row>
     <row r="36" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A36" s="117"/>
-      <c r="B36" s="117"/>
-      <c r="C36" s="124"/>
-      <c r="D36" s="125"/>
-      <c r="E36" s="126"/>
+      <c r="A36" s="58"/>
+      <c r="B36" s="58"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="67"/>
       <c r="F36" s="35"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="127"/>
-      <c r="I36" s="128"/>
-      <c r="J36" s="63"/>
-      <c r="K36" s="52"/>
-      <c r="L36" s="52"/>
-      <c r="M36" s="52"/>
-      <c r="N36" s="52"/>
-      <c r="O36" s="52"/>
-      <c r="P36" s="64"/>
-      <c r="Q36" s="64"/>
-      <c r="R36" s="52"/>
-      <c r="S36" s="52"/>
-      <c r="T36" s="52"/>
-      <c r="U36" s="52"/>
-      <c r="V36" s="52"/>
-      <c r="W36" s="64"/>
-      <c r="X36" s="64"/>
-      <c r="Y36" s="52"/>
-      <c r="Z36" s="52"/>
-      <c r="AA36" s="52"/>
-      <c r="AB36" s="52"/>
-      <c r="AC36" s="52"/>
-      <c r="AD36" s="64"/>
-      <c r="AE36" s="64"/>
-      <c r="AF36" s="52"/>
-      <c r="AG36" s="52"/>
-      <c r="AH36" s="52"/>
-      <c r="AI36" s="52"/>
-      <c r="AJ36" s="52"/>
-      <c r="AK36" s="64"/>
-      <c r="AL36" s="64"/>
-      <c r="AM36" s="52"/>
-      <c r="AN36" s="53"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="68"/>
+      <c r="I36" s="69"/>
+      <c r="J36" s="131"/>
+      <c r="K36" s="51"/>
+      <c r="L36" s="51"/>
+      <c r="M36" s="51"/>
+      <c r="N36" s="51"/>
+      <c r="O36" s="51"/>
+      <c r="P36" s="51"/>
+      <c r="Q36" s="51"/>
+      <c r="R36" s="51"/>
+      <c r="S36" s="51"/>
+      <c r="T36" s="51"/>
+      <c r="U36" s="51"/>
+      <c r="V36" s="51"/>
+      <c r="W36" s="51"/>
+      <c r="X36" s="51"/>
+      <c r="Y36" s="51"/>
+      <c r="Z36" s="51"/>
+      <c r="AA36" s="51"/>
+      <c r="AB36" s="51"/>
+      <c r="AC36" s="51"/>
+      <c r="AD36" s="51"/>
+      <c r="AE36" s="51"/>
+      <c r="AF36" s="51"/>
+      <c r="AG36" s="51"/>
+      <c r="AH36" s="51"/>
+      <c r="AI36" s="51"/>
+      <c r="AJ36" s="51"/>
+      <c r="AK36" s="51"/>
+      <c r="AL36" s="51"/>
+      <c r="AM36" s="51"/>
+      <c r="AN36" s="52"/>
       <c r="AO36" s="31" t="s">
         <v>11</v>
       </c>
@@ -3247,288 +3213,288 @@
       <c r="AR36" s="33"/>
     </row>
     <row r="37" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A37" s="117"/>
-      <c r="B37" s="117"/>
-      <c r="C37" s="124"/>
-      <c r="D37" s="125"/>
-      <c r="E37" s="126"/>
+      <c r="A37" s="58"/>
+      <c r="B37" s="58"/>
+      <c r="C37" s="65"/>
+      <c r="D37" s="66"/>
+      <c r="E37" s="67"/>
       <c r="F37" s="35"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="127"/>
-      <c r="I37" s="128"/>
-      <c r="J37" s="63"/>
-      <c r="K37" s="52"/>
-      <c r="L37" s="52"/>
-      <c r="M37" s="52"/>
-      <c r="N37" s="52"/>
-      <c r="O37" s="52"/>
-      <c r="P37" s="64"/>
-      <c r="Q37" s="64"/>
-      <c r="R37" s="52"/>
-      <c r="S37" s="52"/>
-      <c r="T37" s="52"/>
-      <c r="U37" s="52"/>
-      <c r="V37" s="52"/>
-      <c r="W37" s="64"/>
-      <c r="X37" s="64"/>
-      <c r="Y37" s="52"/>
-      <c r="Z37" s="52"/>
-      <c r="AA37" s="52"/>
-      <c r="AB37" s="52"/>
-      <c r="AC37" s="52"/>
-      <c r="AD37" s="64"/>
-      <c r="AE37" s="64"/>
-      <c r="AF37" s="52"/>
-      <c r="AG37" s="52"/>
-      <c r="AH37" s="52"/>
-      <c r="AI37" s="52"/>
-      <c r="AJ37" s="52"/>
-      <c r="AK37" s="64"/>
-      <c r="AL37" s="64"/>
-      <c r="AM37" s="52"/>
-      <c r="AN37" s="53"/>
-      <c r="AO37" s="129" t="s">
+      <c r="G37" s="35"/>
+      <c r="H37" s="68"/>
+      <c r="I37" s="69"/>
+      <c r="J37" s="131"/>
+      <c r="K37" s="51"/>
+      <c r="L37" s="51"/>
+      <c r="M37" s="51"/>
+      <c r="N37" s="51"/>
+      <c r="O37" s="51"/>
+      <c r="P37" s="51"/>
+      <c r="Q37" s="51"/>
+      <c r="R37" s="51"/>
+      <c r="S37" s="51"/>
+      <c r="T37" s="51"/>
+      <c r="U37" s="51"/>
+      <c r="V37" s="51"/>
+      <c r="W37" s="51"/>
+      <c r="X37" s="51"/>
+      <c r="Y37" s="51"/>
+      <c r="Z37" s="51"/>
+      <c r="AA37" s="51"/>
+      <c r="AB37" s="51"/>
+      <c r="AC37" s="51"/>
+      <c r="AD37" s="51"/>
+      <c r="AE37" s="51"/>
+      <c r="AF37" s="51"/>
+      <c r="AG37" s="51"/>
+      <c r="AH37" s="51"/>
+      <c r="AI37" s="51"/>
+      <c r="AJ37" s="51"/>
+      <c r="AK37" s="51"/>
+      <c r="AL37" s="51"/>
+      <c r="AM37" s="51"/>
+      <c r="AN37" s="52"/>
+      <c r="AO37" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="AP37" s="130"/>
+      <c r="AP37" s="74"/>
       <c r="AQ37" s="32"/>
       <c r="AR37" s="30"/>
     </row>
     <row r="38" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A38" s="117"/>
-      <c r="B38" s="117"/>
-      <c r="C38" s="131"/>
-      <c r="D38" s="132"/>
-      <c r="E38" s="133"/>
-      <c r="F38" s="56"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="127"/>
-      <c r="I38" s="128"/>
-      <c r="J38" s="63"/>
-      <c r="K38" s="52"/>
-      <c r="L38" s="52"/>
-      <c r="M38" s="52"/>
-      <c r="N38" s="52"/>
-      <c r="O38" s="52"/>
-      <c r="P38" s="64"/>
-      <c r="Q38" s="64"/>
-      <c r="R38" s="52"/>
-      <c r="S38" s="52"/>
-      <c r="T38" s="52"/>
-      <c r="U38" s="52"/>
-      <c r="V38" s="52"/>
-      <c r="W38" s="64"/>
-      <c r="X38" s="64"/>
-      <c r="Y38" s="52"/>
-      <c r="Z38" s="52"/>
-      <c r="AA38" s="52"/>
-      <c r="AB38" s="52"/>
-      <c r="AC38" s="52"/>
-      <c r="AD38" s="64"/>
-      <c r="AE38" s="64"/>
-      <c r="AF38" s="52"/>
-      <c r="AG38" s="52"/>
-      <c r="AH38" s="52"/>
-      <c r="AI38" s="52"/>
-      <c r="AJ38" s="52"/>
-      <c r="AK38" s="64"/>
-      <c r="AL38" s="64"/>
-      <c r="AM38" s="52"/>
-      <c r="AN38" s="53"/>
-      <c r="AO38" s="129" t="s">
+      <c r="A38" s="58"/>
+      <c r="B38" s="58"/>
+      <c r="C38" s="70"/>
+      <c r="D38" s="71"/>
+      <c r="E38" s="72"/>
+      <c r="F38" s="54"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="68"/>
+      <c r="I38" s="69"/>
+      <c r="J38" s="131"/>
+      <c r="K38" s="51"/>
+      <c r="L38" s="51"/>
+      <c r="M38" s="51"/>
+      <c r="N38" s="51"/>
+      <c r="O38" s="51"/>
+      <c r="P38" s="51"/>
+      <c r="Q38" s="51"/>
+      <c r="R38" s="51"/>
+      <c r="S38" s="51"/>
+      <c r="T38" s="51"/>
+      <c r="U38" s="51"/>
+      <c r="V38" s="51"/>
+      <c r="W38" s="51"/>
+      <c r="X38" s="51"/>
+      <c r="Y38" s="51"/>
+      <c r="Z38" s="51"/>
+      <c r="AA38" s="51"/>
+      <c r="AB38" s="51"/>
+      <c r="AC38" s="51"/>
+      <c r="AD38" s="51"/>
+      <c r="AE38" s="51"/>
+      <c r="AF38" s="51"/>
+      <c r="AG38" s="51"/>
+      <c r="AH38" s="51"/>
+      <c r="AI38" s="51"/>
+      <c r="AJ38" s="51"/>
+      <c r="AK38" s="51"/>
+      <c r="AL38" s="51"/>
+      <c r="AM38" s="51"/>
+      <c r="AN38" s="52"/>
+      <c r="AO38" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="AP38" s="130"/>
+      <c r="AP38" s="74"/>
       <c r="AQ38" s="32"/>
       <c r="AR38" s="34"/>
     </row>
     <row r="39" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A39" s="117"/>
-      <c r="B39" s="117"/>
-      <c r="C39" s="131"/>
-      <c r="D39" s="132"/>
-      <c r="E39" s="133"/>
-      <c r="F39" s="56"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="127"/>
-      <c r="I39" s="128"/>
-      <c r="J39" s="63"/>
-      <c r="K39" s="52"/>
-      <c r="L39" s="52"/>
-      <c r="M39" s="52"/>
-      <c r="N39" s="52"/>
-      <c r="O39" s="52"/>
-      <c r="P39" s="64"/>
-      <c r="Q39" s="64"/>
-      <c r="R39" s="52"/>
-      <c r="S39" s="52"/>
-      <c r="T39" s="52"/>
-      <c r="U39" s="52"/>
-      <c r="V39" s="52"/>
-      <c r="W39" s="64"/>
-      <c r="X39" s="64"/>
-      <c r="Y39" s="52"/>
-      <c r="Z39" s="52"/>
-      <c r="AA39" s="52"/>
-      <c r="AB39" s="52"/>
-      <c r="AC39" s="52"/>
-      <c r="AD39" s="64"/>
-      <c r="AE39" s="64"/>
-      <c r="AF39" s="52"/>
-      <c r="AG39" s="52"/>
-      <c r="AH39" s="52"/>
-      <c r="AI39" s="52"/>
-      <c r="AJ39" s="52"/>
-      <c r="AK39" s="64"/>
-      <c r="AL39" s="64"/>
-      <c r="AM39" s="52"/>
-      <c r="AN39" s="53"/>
-      <c r="AO39" s="129" t="s">
+      <c r="A39" s="58"/>
+      <c r="B39" s="58"/>
+      <c r="C39" s="70"/>
+      <c r="D39" s="71"/>
+      <c r="E39" s="72"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="68"/>
+      <c r="I39" s="69"/>
+      <c r="J39" s="131"/>
+      <c r="K39" s="51"/>
+      <c r="L39" s="51"/>
+      <c r="M39" s="51"/>
+      <c r="N39" s="51"/>
+      <c r="O39" s="51"/>
+      <c r="P39" s="51"/>
+      <c r="Q39" s="51"/>
+      <c r="R39" s="51"/>
+      <c r="S39" s="51"/>
+      <c r="T39" s="51"/>
+      <c r="U39" s="51"/>
+      <c r="V39" s="51"/>
+      <c r="W39" s="51"/>
+      <c r="X39" s="51"/>
+      <c r="Y39" s="51"/>
+      <c r="Z39" s="51"/>
+      <c r="AA39" s="51"/>
+      <c r="AB39" s="51"/>
+      <c r="AC39" s="51"/>
+      <c r="AD39" s="51"/>
+      <c r="AE39" s="51"/>
+      <c r="AF39" s="51"/>
+      <c r="AG39" s="51"/>
+      <c r="AH39" s="51"/>
+      <c r="AI39" s="51"/>
+      <c r="AJ39" s="51"/>
+      <c r="AK39" s="51"/>
+      <c r="AL39" s="51"/>
+      <c r="AM39" s="51"/>
+      <c r="AN39" s="52"/>
+      <c r="AO39" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="AP39" s="130"/>
+      <c r="AP39" s="74"/>
       <c r="AQ39" s="32"/>
       <c r="AR39" s="30"/>
     </row>
     <row r="40" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A40" s="117"/>
-      <c r="B40" s="117"/>
-      <c r="C40" s="124"/>
-      <c r="D40" s="125"/>
-      <c r="E40" s="126"/>
+      <c r="A40" s="58"/>
+      <c r="B40" s="58"/>
+      <c r="C40" s="65"/>
+      <c r="D40" s="66"/>
+      <c r="E40" s="67"/>
       <c r="F40" s="35"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="127"/>
-      <c r="I40" s="128"/>
-      <c r="J40" s="63"/>
-      <c r="K40" s="52"/>
-      <c r="L40" s="52"/>
-      <c r="M40" s="52"/>
-      <c r="N40" s="52"/>
-      <c r="O40" s="52"/>
-      <c r="P40" s="64"/>
-      <c r="Q40" s="64"/>
-      <c r="R40" s="52"/>
-      <c r="S40" s="52"/>
-      <c r="T40" s="52"/>
-      <c r="U40" s="52"/>
-      <c r="V40" s="52"/>
-      <c r="W40" s="64"/>
-      <c r="X40" s="64"/>
-      <c r="Y40" s="52"/>
-      <c r="Z40" s="52"/>
-      <c r="AA40" s="52"/>
-      <c r="AB40" s="52"/>
-      <c r="AC40" s="52"/>
-      <c r="AD40" s="64"/>
-      <c r="AE40" s="64"/>
-      <c r="AF40" s="52"/>
-      <c r="AG40" s="52"/>
-      <c r="AH40" s="52"/>
-      <c r="AI40" s="52"/>
-      <c r="AJ40" s="52"/>
-      <c r="AK40" s="64"/>
-      <c r="AL40" s="64"/>
-      <c r="AM40" s="52"/>
-      <c r="AN40" s="53"/>
-      <c r="AO40" s="129" t="s">
+      <c r="G40" s="35"/>
+      <c r="H40" s="68"/>
+      <c r="I40" s="69"/>
+      <c r="J40" s="131"/>
+      <c r="K40" s="51"/>
+      <c r="L40" s="51"/>
+      <c r="M40" s="51"/>
+      <c r="N40" s="51"/>
+      <c r="O40" s="51"/>
+      <c r="P40" s="51"/>
+      <c r="Q40" s="51"/>
+      <c r="R40" s="51"/>
+      <c r="S40" s="51"/>
+      <c r="T40" s="51"/>
+      <c r="U40" s="51"/>
+      <c r="V40" s="51"/>
+      <c r="W40" s="51"/>
+      <c r="X40" s="51"/>
+      <c r="Y40" s="51"/>
+      <c r="Z40" s="51"/>
+      <c r="AA40" s="51"/>
+      <c r="AB40" s="51"/>
+      <c r="AC40" s="51"/>
+      <c r="AD40" s="51"/>
+      <c r="AE40" s="51"/>
+      <c r="AF40" s="51"/>
+      <c r="AG40" s="51"/>
+      <c r="AH40" s="51"/>
+      <c r="AI40" s="51"/>
+      <c r="AJ40" s="51"/>
+      <c r="AK40" s="51"/>
+      <c r="AL40" s="51"/>
+      <c r="AM40" s="51"/>
+      <c r="AN40" s="52"/>
+      <c r="AO40" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="AP40" s="130"/>
-      <c r="AQ40" s="37"/>
+      <c r="AP40" s="74"/>
+      <c r="AQ40" s="36"/>
       <c r="AR40" s="34"/>
     </row>
     <row r="41" spans="1:44" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="118"/>
-      <c r="B41" s="118"/>
-      <c r="C41" s="134"/>
-      <c r="D41" s="135"/>
-      <c r="E41" s="136"/>
-      <c r="F41" s="57"/>
-      <c r="G41" s="58"/>
-      <c r="H41" s="127"/>
-      <c r="I41" s="128"/>
-      <c r="J41" s="65"/>
-      <c r="K41" s="51"/>
-      <c r="L41" s="51"/>
-      <c r="M41" s="51"/>
-      <c r="N41" s="51"/>
-      <c r="O41" s="51"/>
-      <c r="P41" s="66"/>
-      <c r="Q41" s="66"/>
-      <c r="R41" s="51"/>
-      <c r="S41" s="51"/>
-      <c r="T41" s="51"/>
-      <c r="U41" s="51"/>
-      <c r="V41" s="51"/>
-      <c r="W41" s="66"/>
-      <c r="X41" s="66"/>
-      <c r="Y41" s="51"/>
-      <c r="Z41" s="51"/>
-      <c r="AA41" s="51"/>
-      <c r="AB41" s="51"/>
-      <c r="AC41" s="51"/>
-      <c r="AD41" s="66"/>
-      <c r="AE41" s="66"/>
-      <c r="AF41" s="51"/>
-      <c r="AG41" s="51"/>
-      <c r="AH41" s="51"/>
-      <c r="AI41" s="51"/>
-      <c r="AJ41" s="51"/>
-      <c r="AK41" s="66"/>
-      <c r="AL41" s="66"/>
-      <c r="AM41" s="51"/>
-      <c r="AN41" s="51"/>
-      <c r="AO41" s="38" t="s">
+      <c r="A41" s="59"/>
+      <c r="B41" s="59"/>
+      <c r="C41" s="75"/>
+      <c r="D41" s="76"/>
+      <c r="E41" s="77"/>
+      <c r="F41" s="55"/>
+      <c r="G41" s="55"/>
+      <c r="H41" s="68"/>
+      <c r="I41" s="69"/>
+      <c r="J41" s="132"/>
+      <c r="K41" s="50"/>
+      <c r="L41" s="50"/>
+      <c r="M41" s="50"/>
+      <c r="N41" s="50"/>
+      <c r="O41" s="50"/>
+      <c r="P41" s="50"/>
+      <c r="Q41" s="50"/>
+      <c r="R41" s="50"/>
+      <c r="S41" s="50"/>
+      <c r="T41" s="50"/>
+      <c r="U41" s="50"/>
+      <c r="V41" s="50"/>
+      <c r="W41" s="50"/>
+      <c r="X41" s="50"/>
+      <c r="Y41" s="50"/>
+      <c r="Z41" s="50"/>
+      <c r="AA41" s="50"/>
+      <c r="AB41" s="50"/>
+      <c r="AC41" s="50"/>
+      <c r="AD41" s="50"/>
+      <c r="AE41" s="50"/>
+      <c r="AF41" s="50"/>
+      <c r="AG41" s="50"/>
+      <c r="AH41" s="50"/>
+      <c r="AI41" s="50"/>
+      <c r="AJ41" s="50"/>
+      <c r="AK41" s="50"/>
+      <c r="AL41" s="50"/>
+      <c r="AM41" s="50"/>
+      <c r="AN41" s="133"/>
+      <c r="AO41" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="AP41" s="39"/>
-      <c r="AQ41" s="40" t="s">
+      <c r="AP41" s="38"/>
+      <c r="AQ41" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="AR41" s="41"/>
+      <c r="AR41" s="40"/>
     </row>
     <row r="42" spans="1:44" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="116"/>
-      <c r="B42" s="116"/>
-      <c r="C42" s="119"/>
-      <c r="D42" s="120"/>
-      <c r="E42" s="121"/>
-      <c r="F42" s="54"/>
-      <c r="G42" s="55"/>
-      <c r="H42" s="122"/>
-      <c r="I42" s="123"/>
-      <c r="J42" s="60"/>
-      <c r="K42" s="49"/>
-      <c r="L42" s="49"/>
-      <c r="M42" s="49"/>
-      <c r="N42" s="49"/>
-      <c r="O42" s="49"/>
-      <c r="P42" s="61"/>
-      <c r="Q42" s="61"/>
-      <c r="R42" s="49"/>
-      <c r="S42" s="49"/>
-      <c r="T42" s="49"/>
-      <c r="U42" s="49"/>
-      <c r="V42" s="49"/>
-      <c r="W42" s="61"/>
-      <c r="X42" s="61"/>
-      <c r="Y42" s="49"/>
-      <c r="Z42" s="49"/>
-      <c r="AA42" s="49"/>
-      <c r="AB42" s="49"/>
-      <c r="AC42" s="49"/>
-      <c r="AD42" s="61"/>
-      <c r="AE42" s="61"/>
-      <c r="AF42" s="49"/>
-      <c r="AG42" s="49"/>
-      <c r="AH42" s="49"/>
-      <c r="AI42" s="49"/>
-      <c r="AJ42" s="49"/>
-      <c r="AK42" s="61"/>
-      <c r="AL42" s="61"/>
-      <c r="AM42" s="49"/>
-      <c r="AN42" s="49"/>
+      <c r="A42" s="57"/>
+      <c r="B42" s="57"/>
+      <c r="C42" s="60"/>
+      <c r="D42" s="61"/>
+      <c r="E42" s="62"/>
+      <c r="F42" s="53"/>
+      <c r="G42" s="56"/>
+      <c r="H42" s="63"/>
+      <c r="I42" s="64"/>
+      <c r="J42" s="127"/>
+      <c r="K42" s="48"/>
+      <c r="L42" s="48"/>
+      <c r="M42" s="48"/>
+      <c r="N42" s="48"/>
+      <c r="O42" s="48"/>
+      <c r="P42" s="48"/>
+      <c r="Q42" s="48"/>
+      <c r="R42" s="48"/>
+      <c r="S42" s="48"/>
+      <c r="T42" s="48"/>
+      <c r="U42" s="48"/>
+      <c r="V42" s="48"/>
+      <c r="W42" s="48"/>
+      <c r="X42" s="48"/>
+      <c r="Y42" s="48"/>
+      <c r="Z42" s="48"/>
+      <c r="AA42" s="48"/>
+      <c r="AB42" s="48"/>
+      <c r="AC42" s="48"/>
+      <c r="AD42" s="48"/>
+      <c r="AE42" s="48"/>
+      <c r="AF42" s="48"/>
+      <c r="AG42" s="48"/>
+      <c r="AH42" s="48"/>
+      <c r="AI42" s="48"/>
+      <c r="AJ42" s="48"/>
+      <c r="AK42" s="48"/>
+      <c r="AL42" s="48"/>
+      <c r="AM42" s="48"/>
+      <c r="AN42" s="128"/>
       <c r="AO42" s="27" t="s">
         <v>9</v>
       </c>
@@ -3537,94 +3503,94 @@
       <c r="AR42" s="30"/>
     </row>
     <row r="43" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A43" s="117"/>
-      <c r="B43" s="117"/>
-      <c r="C43" s="124"/>
-      <c r="D43" s="125"/>
-      <c r="E43" s="126"/>
+      <c r="A43" s="58"/>
+      <c r="B43" s="58"/>
+      <c r="C43" s="65"/>
+      <c r="D43" s="66"/>
+      <c r="E43" s="67"/>
       <c r="F43" s="35"/>
-      <c r="G43" s="36"/>
-      <c r="H43" s="127"/>
-      <c r="I43" s="128"/>
-      <c r="J43" s="62"/>
-      <c r="K43" s="50"/>
-      <c r="L43" s="50"/>
-      <c r="M43" s="50"/>
-      <c r="N43" s="50"/>
-      <c r="O43" s="50"/>
-      <c r="P43" s="62"/>
-      <c r="Q43" s="62"/>
-      <c r="R43" s="50"/>
-      <c r="S43" s="50"/>
-      <c r="T43" s="50"/>
-      <c r="U43" s="50"/>
-      <c r="V43" s="50"/>
-      <c r="W43" s="62"/>
-      <c r="X43" s="62"/>
-      <c r="Y43" s="50"/>
-      <c r="Z43" s="50"/>
-      <c r="AA43" s="50"/>
-      <c r="AB43" s="50"/>
-      <c r="AC43" s="50"/>
-      <c r="AD43" s="62"/>
-      <c r="AE43" s="62"/>
-      <c r="AF43" s="50"/>
-      <c r="AG43" s="50"/>
-      <c r="AH43" s="50"/>
-      <c r="AI43" s="50"/>
-      <c r="AJ43" s="50"/>
-      <c r="AK43" s="62"/>
-      <c r="AL43" s="62"/>
-      <c r="AM43" s="50"/>
-      <c r="AN43" s="50"/>
-      <c r="AO43" s="129" t="s">
+      <c r="G43" s="35"/>
+      <c r="H43" s="68"/>
+      <c r="I43" s="69"/>
+      <c r="J43" s="129"/>
+      <c r="K43" s="49"/>
+      <c r="L43" s="49"/>
+      <c r="M43" s="49"/>
+      <c r="N43" s="49"/>
+      <c r="O43" s="49"/>
+      <c r="P43" s="49"/>
+      <c r="Q43" s="49"/>
+      <c r="R43" s="49"/>
+      <c r="S43" s="49"/>
+      <c r="T43" s="49"/>
+      <c r="U43" s="49"/>
+      <c r="V43" s="49"/>
+      <c r="W43" s="49"/>
+      <c r="X43" s="49"/>
+      <c r="Y43" s="49"/>
+      <c r="Z43" s="49"/>
+      <c r="AA43" s="49"/>
+      <c r="AB43" s="49"/>
+      <c r="AC43" s="49"/>
+      <c r="AD43" s="49"/>
+      <c r="AE43" s="49"/>
+      <c r="AF43" s="49"/>
+      <c r="AG43" s="49"/>
+      <c r="AH43" s="49"/>
+      <c r="AI43" s="49"/>
+      <c r="AJ43" s="49"/>
+      <c r="AK43" s="49"/>
+      <c r="AL43" s="49"/>
+      <c r="AM43" s="49"/>
+      <c r="AN43" s="130"/>
+      <c r="AO43" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="AP43" s="130"/>
-      <c r="AQ43" s="130"/>
+      <c r="AP43" s="74"/>
+      <c r="AQ43" s="74"/>
       <c r="AR43" s="30"/>
     </row>
     <row r="44" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A44" s="117"/>
-      <c r="B44" s="117"/>
-      <c r="C44" s="124"/>
-      <c r="D44" s="125"/>
-      <c r="E44" s="126"/>
+      <c r="A44" s="58"/>
+      <c r="B44" s="58"/>
+      <c r="C44" s="65"/>
+      <c r="D44" s="66"/>
+      <c r="E44" s="67"/>
       <c r="F44" s="35"/>
-      <c r="G44" s="36"/>
-      <c r="H44" s="127"/>
-      <c r="I44" s="128"/>
-      <c r="J44" s="63"/>
-      <c r="K44" s="52"/>
-      <c r="L44" s="52"/>
-      <c r="M44" s="52"/>
-      <c r="N44" s="52"/>
-      <c r="O44" s="52"/>
-      <c r="P44" s="64"/>
-      <c r="Q44" s="64"/>
-      <c r="R44" s="52"/>
-      <c r="S44" s="52"/>
-      <c r="T44" s="52"/>
-      <c r="U44" s="52"/>
-      <c r="V44" s="52"/>
-      <c r="W44" s="64"/>
-      <c r="X44" s="64"/>
-      <c r="Y44" s="52"/>
-      <c r="Z44" s="52"/>
-      <c r="AA44" s="52"/>
-      <c r="AB44" s="52"/>
-      <c r="AC44" s="52"/>
-      <c r="AD44" s="64"/>
-      <c r="AE44" s="64"/>
-      <c r="AF44" s="52"/>
-      <c r="AG44" s="52"/>
-      <c r="AH44" s="52"/>
-      <c r="AI44" s="52"/>
-      <c r="AJ44" s="52"/>
-      <c r="AK44" s="64"/>
-      <c r="AL44" s="64"/>
-      <c r="AM44" s="52"/>
-      <c r="AN44" s="53"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="68"/>
+      <c r="I44" s="69"/>
+      <c r="J44" s="131"/>
+      <c r="K44" s="51"/>
+      <c r="L44" s="51"/>
+      <c r="M44" s="51"/>
+      <c r="N44" s="51"/>
+      <c r="O44" s="51"/>
+      <c r="P44" s="51"/>
+      <c r="Q44" s="51"/>
+      <c r="R44" s="51"/>
+      <c r="S44" s="51"/>
+      <c r="T44" s="51"/>
+      <c r="U44" s="51"/>
+      <c r="V44" s="51"/>
+      <c r="W44" s="51"/>
+      <c r="X44" s="51"/>
+      <c r="Y44" s="51"/>
+      <c r="Z44" s="51"/>
+      <c r="AA44" s="51"/>
+      <c r="AB44" s="51"/>
+      <c r="AC44" s="51"/>
+      <c r="AD44" s="51"/>
+      <c r="AE44" s="51"/>
+      <c r="AF44" s="51"/>
+      <c r="AG44" s="51"/>
+      <c r="AH44" s="51"/>
+      <c r="AI44" s="51"/>
+      <c r="AJ44" s="51"/>
+      <c r="AK44" s="51"/>
+      <c r="AL44" s="51"/>
+      <c r="AM44" s="51"/>
+      <c r="AN44" s="52"/>
       <c r="AO44" s="31" t="s">
         <v>11</v>
       </c>
@@ -3635,262 +3601,262 @@
       <c r="AR44" s="33"/>
     </row>
     <row r="45" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A45" s="117"/>
-      <c r="B45" s="117"/>
-      <c r="C45" s="124"/>
-      <c r="D45" s="125"/>
-      <c r="E45" s="126"/>
+      <c r="A45" s="58"/>
+      <c r="B45" s="58"/>
+      <c r="C45" s="65"/>
+      <c r="D45" s="66"/>
+      <c r="E45" s="67"/>
       <c r="F45" s="35"/>
-      <c r="G45" s="36"/>
-      <c r="H45" s="127"/>
-      <c r="I45" s="128"/>
-      <c r="J45" s="63"/>
-      <c r="K45" s="52"/>
-      <c r="L45" s="52"/>
-      <c r="M45" s="52"/>
-      <c r="N45" s="52"/>
-      <c r="O45" s="52"/>
-      <c r="P45" s="64"/>
-      <c r="Q45" s="64"/>
-      <c r="R45" s="52"/>
-      <c r="S45" s="52"/>
-      <c r="T45" s="52"/>
-      <c r="U45" s="52"/>
-      <c r="V45" s="52"/>
-      <c r="W45" s="64"/>
-      <c r="X45" s="64"/>
-      <c r="Y45" s="52"/>
-      <c r="Z45" s="52"/>
-      <c r="AA45" s="52"/>
-      <c r="AB45" s="52"/>
-      <c r="AC45" s="52"/>
-      <c r="AD45" s="64"/>
-      <c r="AE45" s="64"/>
-      <c r="AF45" s="52"/>
-      <c r="AG45" s="52"/>
-      <c r="AH45" s="52"/>
-      <c r="AI45" s="52"/>
-      <c r="AJ45" s="52"/>
-      <c r="AK45" s="64"/>
-      <c r="AL45" s="64"/>
-      <c r="AM45" s="52"/>
-      <c r="AN45" s="53"/>
-      <c r="AO45" s="129" t="s">
+      <c r="G45" s="35"/>
+      <c r="H45" s="68"/>
+      <c r="I45" s="69"/>
+      <c r="J45" s="131"/>
+      <c r="K45" s="51"/>
+      <c r="L45" s="51"/>
+      <c r="M45" s="51"/>
+      <c r="N45" s="51"/>
+      <c r="O45" s="51"/>
+      <c r="P45" s="51"/>
+      <c r="Q45" s="51"/>
+      <c r="R45" s="51"/>
+      <c r="S45" s="51"/>
+      <c r="T45" s="51"/>
+      <c r="U45" s="51"/>
+      <c r="V45" s="51"/>
+      <c r="W45" s="51"/>
+      <c r="X45" s="51"/>
+      <c r="Y45" s="51"/>
+      <c r="Z45" s="51"/>
+      <c r="AA45" s="51"/>
+      <c r="AB45" s="51"/>
+      <c r="AC45" s="51"/>
+      <c r="AD45" s="51"/>
+      <c r="AE45" s="51"/>
+      <c r="AF45" s="51"/>
+      <c r="AG45" s="51"/>
+      <c r="AH45" s="51"/>
+      <c r="AI45" s="51"/>
+      <c r="AJ45" s="51"/>
+      <c r="AK45" s="51"/>
+      <c r="AL45" s="51"/>
+      <c r="AM45" s="51"/>
+      <c r="AN45" s="52"/>
+      <c r="AO45" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="AP45" s="130"/>
+      <c r="AP45" s="74"/>
       <c r="AQ45" s="32"/>
       <c r="AR45" s="30"/>
     </row>
     <row r="46" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A46" s="117"/>
-      <c r="B46" s="117"/>
-      <c r="C46" s="131"/>
-      <c r="D46" s="132"/>
-      <c r="E46" s="133"/>
-      <c r="F46" s="56"/>
-      <c r="G46" s="36"/>
-      <c r="H46" s="127"/>
-      <c r="I46" s="128"/>
-      <c r="J46" s="63"/>
-      <c r="K46" s="52"/>
-      <c r="L46" s="52"/>
-      <c r="M46" s="52"/>
-      <c r="N46" s="52"/>
-      <c r="O46" s="52"/>
-      <c r="P46" s="64"/>
-      <c r="Q46" s="64"/>
-      <c r="R46" s="52"/>
-      <c r="S46" s="52"/>
-      <c r="T46" s="52"/>
-      <c r="U46" s="52"/>
-      <c r="V46" s="52"/>
-      <c r="W46" s="64"/>
-      <c r="X46" s="64"/>
-      <c r="Y46" s="52"/>
-      <c r="Z46" s="52"/>
-      <c r="AA46" s="52"/>
-      <c r="AB46" s="52"/>
-      <c r="AC46" s="52"/>
-      <c r="AD46" s="64"/>
-      <c r="AE46" s="64"/>
-      <c r="AF46" s="52"/>
-      <c r="AG46" s="52"/>
-      <c r="AH46" s="52"/>
-      <c r="AI46" s="52"/>
-      <c r="AJ46" s="52"/>
-      <c r="AK46" s="64"/>
-      <c r="AL46" s="64"/>
-      <c r="AM46" s="52"/>
-      <c r="AN46" s="53"/>
-      <c r="AO46" s="129" t="s">
+      <c r="A46" s="58"/>
+      <c r="B46" s="58"/>
+      <c r="C46" s="70"/>
+      <c r="D46" s="71"/>
+      <c r="E46" s="72"/>
+      <c r="F46" s="54"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="68"/>
+      <c r="I46" s="69"/>
+      <c r="J46" s="131"/>
+      <c r="K46" s="51"/>
+      <c r="L46" s="51"/>
+      <c r="M46" s="51"/>
+      <c r="N46" s="51"/>
+      <c r="O46" s="51"/>
+      <c r="P46" s="51"/>
+      <c r="Q46" s="51"/>
+      <c r="R46" s="51"/>
+      <c r="S46" s="51"/>
+      <c r="T46" s="51"/>
+      <c r="U46" s="51"/>
+      <c r="V46" s="51"/>
+      <c r="W46" s="51"/>
+      <c r="X46" s="51"/>
+      <c r="Y46" s="51"/>
+      <c r="Z46" s="51"/>
+      <c r="AA46" s="51"/>
+      <c r="AB46" s="51"/>
+      <c r="AC46" s="51"/>
+      <c r="AD46" s="51"/>
+      <c r="AE46" s="51"/>
+      <c r="AF46" s="51"/>
+      <c r="AG46" s="51"/>
+      <c r="AH46" s="51"/>
+      <c r="AI46" s="51"/>
+      <c r="AJ46" s="51"/>
+      <c r="AK46" s="51"/>
+      <c r="AL46" s="51"/>
+      <c r="AM46" s="51"/>
+      <c r="AN46" s="52"/>
+      <c r="AO46" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="AP46" s="130"/>
+      <c r="AP46" s="74"/>
       <c r="AQ46" s="32"/>
       <c r="AR46" s="34"/>
     </row>
     <row r="47" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A47" s="117"/>
-      <c r="B47" s="117"/>
-      <c r="C47" s="131"/>
-      <c r="D47" s="132"/>
-      <c r="E47" s="133"/>
-      <c r="F47" s="56"/>
-      <c r="G47" s="36"/>
-      <c r="H47" s="127"/>
-      <c r="I47" s="128"/>
-      <c r="J47" s="63"/>
-      <c r="K47" s="52"/>
-      <c r="L47" s="52"/>
-      <c r="M47" s="52"/>
-      <c r="N47" s="52"/>
-      <c r="O47" s="52"/>
-      <c r="P47" s="64"/>
-      <c r="Q47" s="64"/>
-      <c r="R47" s="52"/>
-      <c r="S47" s="52"/>
-      <c r="T47" s="52"/>
-      <c r="U47" s="52"/>
-      <c r="V47" s="52"/>
-      <c r="W47" s="64"/>
-      <c r="X47" s="64"/>
-      <c r="Y47" s="52"/>
-      <c r="Z47" s="52"/>
-      <c r="AA47" s="52"/>
-      <c r="AB47" s="52"/>
-      <c r="AC47" s="52"/>
-      <c r="AD47" s="64"/>
-      <c r="AE47" s="64"/>
-      <c r="AF47" s="52"/>
-      <c r="AG47" s="52"/>
-      <c r="AH47" s="52"/>
-      <c r="AI47" s="52"/>
-      <c r="AJ47" s="52"/>
-      <c r="AK47" s="64"/>
-      <c r="AL47" s="64"/>
-      <c r="AM47" s="52"/>
-      <c r="AN47" s="53"/>
-      <c r="AO47" s="129" t="s">
+      <c r="A47" s="58"/>
+      <c r="B47" s="58"/>
+      <c r="C47" s="70"/>
+      <c r="D47" s="71"/>
+      <c r="E47" s="72"/>
+      <c r="F47" s="54"/>
+      <c r="G47" s="35"/>
+      <c r="H47" s="68"/>
+      <c r="I47" s="69"/>
+      <c r="J47" s="131"/>
+      <c r="K47" s="51"/>
+      <c r="L47" s="51"/>
+      <c r="M47" s="51"/>
+      <c r="N47" s="51"/>
+      <c r="O47" s="51"/>
+      <c r="P47" s="51"/>
+      <c r="Q47" s="51"/>
+      <c r="R47" s="51"/>
+      <c r="S47" s="51"/>
+      <c r="T47" s="51"/>
+      <c r="U47" s="51"/>
+      <c r="V47" s="51"/>
+      <c r="W47" s="51"/>
+      <c r="X47" s="51"/>
+      <c r="Y47" s="51"/>
+      <c r="Z47" s="51"/>
+      <c r="AA47" s="51"/>
+      <c r="AB47" s="51"/>
+      <c r="AC47" s="51"/>
+      <c r="AD47" s="51"/>
+      <c r="AE47" s="51"/>
+      <c r="AF47" s="51"/>
+      <c r="AG47" s="51"/>
+      <c r="AH47" s="51"/>
+      <c r="AI47" s="51"/>
+      <c r="AJ47" s="51"/>
+      <c r="AK47" s="51"/>
+      <c r="AL47" s="51"/>
+      <c r="AM47" s="51"/>
+      <c r="AN47" s="52"/>
+      <c r="AO47" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="AP47" s="130"/>
+      <c r="AP47" s="74"/>
       <c r="AQ47" s="32"/>
       <c r="AR47" s="30"/>
     </row>
     <row r="48" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A48" s="117"/>
-      <c r="B48" s="117"/>
-      <c r="C48" s="124"/>
-      <c r="D48" s="125"/>
-      <c r="E48" s="126"/>
+      <c r="A48" s="58"/>
+      <c r="B48" s="58"/>
+      <c r="C48" s="65"/>
+      <c r="D48" s="66"/>
+      <c r="E48" s="67"/>
       <c r="F48" s="35"/>
-      <c r="G48" s="36"/>
-      <c r="H48" s="127"/>
-      <c r="I48" s="128"/>
-      <c r="J48" s="63"/>
-      <c r="K48" s="52"/>
-      <c r="L48" s="52"/>
-      <c r="M48" s="52"/>
-      <c r="N48" s="52"/>
-      <c r="O48" s="52"/>
-      <c r="P48" s="64"/>
-      <c r="Q48" s="64"/>
-      <c r="R48" s="52"/>
-      <c r="S48" s="52"/>
-      <c r="T48" s="52"/>
-      <c r="U48" s="52"/>
-      <c r="V48" s="52"/>
-      <c r="W48" s="64"/>
-      <c r="X48" s="64"/>
-      <c r="Y48" s="52"/>
-      <c r="Z48" s="52"/>
-      <c r="AA48" s="52"/>
-      <c r="AB48" s="52"/>
-      <c r="AC48" s="52"/>
-      <c r="AD48" s="64"/>
-      <c r="AE48" s="64"/>
-      <c r="AF48" s="52"/>
-      <c r="AG48" s="52"/>
-      <c r="AH48" s="52"/>
-      <c r="AI48" s="52"/>
-      <c r="AJ48" s="52"/>
-      <c r="AK48" s="64"/>
-      <c r="AL48" s="64"/>
-      <c r="AM48" s="52"/>
-      <c r="AN48" s="53"/>
-      <c r="AO48" s="129" t="s">
+      <c r="G48" s="35"/>
+      <c r="H48" s="68"/>
+      <c r="I48" s="69"/>
+      <c r="J48" s="131"/>
+      <c r="K48" s="51"/>
+      <c r="L48" s="51"/>
+      <c r="M48" s="51"/>
+      <c r="N48" s="51"/>
+      <c r="O48" s="51"/>
+      <c r="P48" s="51"/>
+      <c r="Q48" s="51"/>
+      <c r="R48" s="51"/>
+      <c r="S48" s="51"/>
+      <c r="T48" s="51"/>
+      <c r="U48" s="51"/>
+      <c r="V48" s="51"/>
+      <c r="W48" s="51"/>
+      <c r="X48" s="51"/>
+      <c r="Y48" s="51"/>
+      <c r="Z48" s="51"/>
+      <c r="AA48" s="51"/>
+      <c r="AB48" s="51"/>
+      <c r="AC48" s="51"/>
+      <c r="AD48" s="51"/>
+      <c r="AE48" s="51"/>
+      <c r="AF48" s="51"/>
+      <c r="AG48" s="51"/>
+      <c r="AH48" s="51"/>
+      <c r="AI48" s="51"/>
+      <c r="AJ48" s="51"/>
+      <c r="AK48" s="51"/>
+      <c r="AL48" s="51"/>
+      <c r="AM48" s="51"/>
+      <c r="AN48" s="52"/>
+      <c r="AO48" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="AP48" s="130"/>
-      <c r="AQ48" s="37"/>
+      <c r="AP48" s="74"/>
+      <c r="AQ48" s="36"/>
       <c r="AR48" s="34"/>
     </row>
     <row r="49" spans="1:44" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="118"/>
-      <c r="B49" s="118"/>
-      <c r="C49" s="134"/>
-      <c r="D49" s="135"/>
-      <c r="E49" s="136"/>
-      <c r="F49" s="57"/>
-      <c r="G49" s="58"/>
-      <c r="H49" s="137"/>
-      <c r="I49" s="138"/>
-      <c r="J49" s="65"/>
-      <c r="K49" s="51"/>
-      <c r="L49" s="51"/>
-      <c r="M49" s="51"/>
-      <c r="N49" s="51"/>
-      <c r="O49" s="51"/>
-      <c r="P49" s="66"/>
-      <c r="Q49" s="66"/>
-      <c r="R49" s="51"/>
-      <c r="S49" s="51"/>
-      <c r="T49" s="51"/>
-      <c r="U49" s="51"/>
-      <c r="V49" s="51"/>
-      <c r="W49" s="66"/>
-      <c r="X49" s="66"/>
-      <c r="Y49" s="51"/>
-      <c r="Z49" s="51"/>
-      <c r="AA49" s="51"/>
-      <c r="AB49" s="51"/>
-      <c r="AC49" s="51"/>
-      <c r="AD49" s="66"/>
-      <c r="AE49" s="66"/>
-      <c r="AF49" s="51"/>
-      <c r="AG49" s="51"/>
-      <c r="AH49" s="51"/>
-      <c r="AI49" s="51"/>
-      <c r="AJ49" s="51"/>
-      <c r="AK49" s="66"/>
-      <c r="AL49" s="66"/>
-      <c r="AM49" s="51"/>
-      <c r="AN49" s="51"/>
-      <c r="AO49" s="38" t="s">
+      <c r="A49" s="59"/>
+      <c r="B49" s="59"/>
+      <c r="C49" s="75"/>
+      <c r="D49" s="76"/>
+      <c r="E49" s="77"/>
+      <c r="F49" s="55"/>
+      <c r="G49" s="55"/>
+      <c r="H49" s="78"/>
+      <c r="I49" s="79"/>
+      <c r="J49" s="132"/>
+      <c r="K49" s="50"/>
+      <c r="L49" s="50"/>
+      <c r="M49" s="50"/>
+      <c r="N49" s="50"/>
+      <c r="O49" s="50"/>
+      <c r="P49" s="50"/>
+      <c r="Q49" s="50"/>
+      <c r="R49" s="50"/>
+      <c r="S49" s="50"/>
+      <c r="T49" s="50"/>
+      <c r="U49" s="50"/>
+      <c r="V49" s="50"/>
+      <c r="W49" s="50"/>
+      <c r="X49" s="50"/>
+      <c r="Y49" s="50"/>
+      <c r="Z49" s="50"/>
+      <c r="AA49" s="50"/>
+      <c r="AB49" s="50"/>
+      <c r="AC49" s="50"/>
+      <c r="AD49" s="50"/>
+      <c r="AE49" s="50"/>
+      <c r="AF49" s="50"/>
+      <c r="AG49" s="50"/>
+      <c r="AH49" s="50"/>
+      <c r="AI49" s="50"/>
+      <c r="AJ49" s="50"/>
+      <c r="AK49" s="50"/>
+      <c r="AL49" s="50"/>
+      <c r="AM49" s="50"/>
+      <c r="AN49" s="133"/>
+      <c r="AO49" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="AP49" s="39"/>
-      <c r="AQ49" s="40" t="s">
+      <c r="AP49" s="38"/>
+      <c r="AQ49" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="AR49" s="41"/>
+      <c r="AR49" s="40"/>
     </row>
     <row r="50" spans="1:44" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="G50" s="42"/>
-      <c r="J50" s="43"/>
-      <c r="K50" s="43"/>
-      <c r="L50" s="43"/>
-      <c r="M50" s="43"/>
-      <c r="N50" s="43"/>
-      <c r="O50" s="43"/>
-      <c r="P50" s="43"/>
-      <c r="Q50" s="43"/>
-      <c r="R50" s="43"/>
-      <c r="S50" s="43"/>
-      <c r="T50" s="43"/>
-      <c r="U50" s="43"/>
-      <c r="V50" s="43"/>
+      <c r="G50" s="41"/>
+      <c r="J50" s="42"/>
+      <c r="K50" s="42"/>
+      <c r="L50" s="42"/>
+      <c r="M50" s="42"/>
+      <c r="N50" s="42"/>
+      <c r="O50" s="42"/>
+      <c r="P50" s="42"/>
+      <c r="Q50" s="42"/>
+      <c r="R50" s="42"/>
+      <c r="S50" s="42"/>
+      <c r="T50" s="42"/>
+      <c r="U50" s="42"/>
+      <c r="V50" s="42"/>
       <c r="W50" s="6"/>
       <c r="X50" s="6"/>
       <c r="Y50" s="6"/>
@@ -3909,26 +3875,26 @@
       <c r="AL50" s="6"/>
       <c r="AM50" s="6"/>
       <c r="AN50" s="6"/>
-      <c r="AO50" s="44"/>
-      <c r="AP50" s="44"/>
-      <c r="AQ50" s="44"/>
-      <c r="AR50" s="44"/>
+      <c r="AO50" s="43"/>
+      <c r="AP50" s="43"/>
+      <c r="AQ50" s="43"/>
+      <c r="AR50" s="43"/>
     </row>
     <row r="51" spans="1:44" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="G51" s="42"/>
-      <c r="J51" s="43"/>
-      <c r="K51" s="43"/>
-      <c r="L51" s="43"/>
-      <c r="M51" s="43"/>
-      <c r="N51" s="43"/>
-      <c r="O51" s="43"/>
-      <c r="P51" s="43"/>
-      <c r="Q51" s="43"/>
-      <c r="R51" s="43"/>
-      <c r="S51" s="43"/>
-      <c r="T51" s="43"/>
-      <c r="U51" s="43"/>
-      <c r="V51" s="43"/>
+      <c r="G51" s="41"/>
+      <c r="J51" s="42"/>
+      <c r="K51" s="42"/>
+      <c r="L51" s="42"/>
+      <c r="M51" s="42"/>
+      <c r="N51" s="42"/>
+      <c r="O51" s="42"/>
+      <c r="P51" s="42"/>
+      <c r="Q51" s="42"/>
+      <c r="R51" s="42"/>
+      <c r="S51" s="42"/>
+      <c r="T51" s="42"/>
+      <c r="U51" s="42"/>
+      <c r="V51" s="42"/>
       <c r="W51" s="6"/>
       <c r="X51" s="6"/>
       <c r="Y51" s="6"/>
@@ -3947,26 +3913,26 @@
       <c r="AL51" s="6"/>
       <c r="AM51" s="6"/>
       <c r="AN51" s="6"/>
-      <c r="AO51" s="44"/>
-      <c r="AP51" s="44"/>
-      <c r="AQ51" s="44"/>
-      <c r="AR51" s="44"/>
+      <c r="AO51" s="43"/>
+      <c r="AP51" s="43"/>
+      <c r="AQ51" s="43"/>
+      <c r="AR51" s="43"/>
     </row>
     <row r="52" spans="1:44" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="G52" s="42"/>
-      <c r="J52" s="43"/>
-      <c r="K52" s="43"/>
-      <c r="L52" s="43"/>
-      <c r="M52" s="43"/>
-      <c r="N52" s="43"/>
-      <c r="O52" s="43"/>
-      <c r="P52" s="43"/>
-      <c r="Q52" s="43"/>
-      <c r="R52" s="43"/>
-      <c r="S52" s="43"/>
-      <c r="T52" s="43"/>
-      <c r="U52" s="43"/>
-      <c r="V52" s="43"/>
+      <c r="G52" s="41"/>
+      <c r="J52" s="42"/>
+      <c r="K52" s="42"/>
+      <c r="L52" s="42"/>
+      <c r="M52" s="42"/>
+      <c r="N52" s="42"/>
+      <c r="O52" s="42"/>
+      <c r="P52" s="42"/>
+      <c r="Q52" s="42"/>
+      <c r="R52" s="42"/>
+      <c r="S52" s="42"/>
+      <c r="T52" s="42"/>
+      <c r="U52" s="42"/>
+      <c r="V52" s="42"/>
       <c r="W52" s="6"/>
       <c r="X52" s="6"/>
       <c r="Y52" s="6"/>
@@ -3985,121 +3951,121 @@
       <c r="AL52" s="6"/>
       <c r="AM52" s="6"/>
       <c r="AN52" s="6"/>
-      <c r="AO52" s="44"/>
-      <c r="AP52" s="44"/>
-      <c r="AQ52" s="44"/>
-      <c r="AR52" s="44"/>
+      <c r="AO52" s="43"/>
+      <c r="AP52" s="43"/>
+      <c r="AQ52" s="43"/>
+      <c r="AR52" s="43"/>
     </row>
     <row r="53" spans="1:44" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="G53" s="42"/>
-      <c r="J53" s="43"/>
-      <c r="K53" s="43"/>
-      <c r="L53" s="43"/>
-      <c r="M53" s="43"/>
-      <c r="N53" s="43"/>
-      <c r="O53" s="43"/>
-      <c r="P53" s="43"/>
-      <c r="Q53" s="43"/>
-      <c r="R53" s="43"/>
-      <c r="S53" s="43"/>
-      <c r="T53" s="43"/>
-      <c r="U53" s="43"/>
-      <c r="V53" s="43"/>
-      <c r="W53" s="43"/>
-      <c r="X53" s="43"/>
-      <c r="Y53" s="43"/>
-      <c r="Z53" s="43"/>
-      <c r="AA53" s="43"/>
-      <c r="AB53" s="43"/>
-      <c r="AC53" s="43"/>
-      <c r="AD53" s="43"/>
-      <c r="AE53" s="43"/>
-      <c r="AF53" s="43"/>
-      <c r="AG53" s="43"/>
-      <c r="AH53" s="43"/>
-      <c r="AI53" s="43"/>
-      <c r="AJ53" s="43"/>
-      <c r="AK53" s="43"/>
-      <c r="AL53" s="43"/>
-      <c r="AM53" s="43"/>
-      <c r="AN53" s="43"/>
+      <c r="G53" s="41"/>
+      <c r="J53" s="42"/>
+      <c r="K53" s="42"/>
+      <c r="L53" s="42"/>
+      <c r="M53" s="42"/>
+      <c r="N53" s="42"/>
+      <c r="O53" s="42"/>
+      <c r="P53" s="42"/>
+      <c r="Q53" s="42"/>
+      <c r="R53" s="42"/>
+      <c r="S53" s="42"/>
+      <c r="T53" s="42"/>
+      <c r="U53" s="42"/>
+      <c r="V53" s="42"/>
+      <c r="W53" s="42"/>
+      <c r="X53" s="42"/>
+      <c r="Y53" s="42"/>
+      <c r="Z53" s="42"/>
+      <c r="AA53" s="42"/>
+      <c r="AB53" s="42"/>
+      <c r="AC53" s="42"/>
+      <c r="AD53" s="42"/>
+      <c r="AE53" s="42"/>
+      <c r="AF53" s="42"/>
+      <c r="AG53" s="42"/>
+      <c r="AH53" s="42"/>
+      <c r="AI53" s="42"/>
+      <c r="AJ53" s="42"/>
+      <c r="AK53" s="42"/>
+      <c r="AL53" s="42"/>
+      <c r="AM53" s="42"/>
+      <c r="AN53" s="42"/>
     </row>
     <row r="54" spans="1:44" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="G54" s="42"/>
-      <c r="J54" s="45"/>
-      <c r="K54" s="45"/>
-      <c r="L54" s="45"/>
-      <c r="M54" s="45"/>
-      <c r="N54" s="45"/>
-      <c r="O54" s="45"/>
-      <c r="P54" s="45"/>
-      <c r="Q54" s="45"/>
-      <c r="R54" s="45"/>
-      <c r="S54" s="45"/>
-      <c r="T54" s="46"/>
-      <c r="U54" s="46"/>
-      <c r="V54" s="46"/>
-      <c r="W54" s="46"/>
-      <c r="X54" s="46"/>
-      <c r="Y54" s="47"/>
-      <c r="Z54" s="47"/>
-      <c r="AA54" s="47"/>
-      <c r="AB54" s="47"/>
-      <c r="AC54" s="45"/>
-      <c r="AD54" s="43"/>
-      <c r="AE54" s="43"/>
-      <c r="AF54" s="43"/>
-      <c r="AG54" s="43"/>
-      <c r="AH54" s="43"/>
-      <c r="AI54" s="43"/>
-      <c r="AJ54" s="43"/>
-      <c r="AK54" s="43"/>
-      <c r="AL54" s="43"/>
-      <c r="AM54" s="43"/>
-      <c r="AN54" s="43"/>
+      <c r="G54" s="41"/>
+      <c r="J54" s="44"/>
+      <c r="K54" s="44"/>
+      <c r="L54" s="44"/>
+      <c r="M54" s="44"/>
+      <c r="N54" s="44"/>
+      <c r="O54" s="44"/>
+      <c r="P54" s="44"/>
+      <c r="Q54" s="44"/>
+      <c r="R54" s="44"/>
+      <c r="S54" s="44"/>
+      <c r="T54" s="45"/>
+      <c r="U54" s="45"/>
+      <c r="V54" s="45"/>
+      <c r="W54" s="45"/>
+      <c r="X54" s="45"/>
+      <c r="Y54" s="46"/>
+      <c r="Z54" s="46"/>
+      <c r="AA54" s="46"/>
+      <c r="AB54" s="46"/>
+      <c r="AC54" s="44"/>
+      <c r="AD54" s="42"/>
+      <c r="AE54" s="42"/>
+      <c r="AF54" s="42"/>
+      <c r="AG54" s="42"/>
+      <c r="AH54" s="42"/>
+      <c r="AI54" s="42"/>
+      <c r="AJ54" s="42"/>
+      <c r="AK54" s="42"/>
+      <c r="AL54" s="42"/>
+      <c r="AM54" s="42"/>
+      <c r="AN54" s="42"/>
     </row>
     <row r="55" spans="1:44" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="44"/>
-      <c r="B55" s="44"/>
-      <c r="C55" s="44"/>
-      <c r="D55" s="44"/>
-      <c r="E55" s="44"/>
-      <c r="F55" s="44"/>
+      <c r="A55" s="43"/>
+      <c r="B55" s="43"/>
+      <c r="C55" s="43"/>
+      <c r="D55" s="43"/>
+      <c r="E55" s="43"/>
+      <c r="F55" s="43"/>
       <c r="G55" s="4"/>
-      <c r="H55" s="44"/>
-      <c r="I55" s="44"/>
-      <c r="J55" s="45"/>
-      <c r="K55" s="45"/>
-      <c r="L55" s="45"/>
-      <c r="M55" s="45"/>
-      <c r="N55" s="45"/>
-      <c r="O55" s="45"/>
-      <c r="P55" s="45"/>
-      <c r="Q55" s="45"/>
-      <c r="R55" s="45"/>
-      <c r="S55" s="45"/>
-      <c r="T55" s="46"/>
-      <c r="U55" s="46"/>
-      <c r="V55" s="46"/>
-      <c r="W55" s="46"/>
-      <c r="X55" s="46"/>
-      <c r="Y55" s="47"/>
-      <c r="Z55" s="47"/>
-      <c r="AA55" s="47"/>
-      <c r="AB55" s="47"/>
-      <c r="AC55" s="45"/>
-      <c r="AD55" s="43"/>
-      <c r="AE55" s="43"/>
-      <c r="AF55" s="43"/>
-      <c r="AG55" s="43"/>
-      <c r="AH55" s="43"/>
-      <c r="AI55" s="43"/>
-      <c r="AJ55" s="43"/>
-      <c r="AK55" s="43"/>
-      <c r="AL55" s="43"/>
-      <c r="AM55" s="43"/>
-      <c r="AN55" s="43"/>
-      <c r="AR55" s="48"/>
+      <c r="H55" s="43"/>
+      <c r="I55" s="43"/>
+      <c r="J55" s="44"/>
+      <c r="K55" s="44"/>
+      <c r="L55" s="44"/>
+      <c r="M55" s="44"/>
+      <c r="N55" s="44"/>
+      <c r="O55" s="44"/>
+      <c r="P55" s="44"/>
+      <c r="Q55" s="44"/>
+      <c r="R55" s="44"/>
+      <c r="S55" s="44"/>
+      <c r="T55" s="45"/>
+      <c r="U55" s="45"/>
+      <c r="V55" s="45"/>
+      <c r="W55" s="45"/>
+      <c r="X55" s="45"/>
+      <c r="Y55" s="46"/>
+      <c r="Z55" s="46"/>
+      <c r="AA55" s="46"/>
+      <c r="AB55" s="46"/>
+      <c r="AC55" s="44"/>
+      <c r="AD55" s="42"/>
+      <c r="AE55" s="42"/>
+      <c r="AF55" s="42"/>
+      <c r="AG55" s="42"/>
+      <c r="AH55" s="42"/>
+      <c r="AI55" s="42"/>
+      <c r="AJ55" s="42"/>
+      <c r="AK55" s="42"/>
+      <c r="AL55" s="42"/>
+      <c r="AM55" s="42"/>
+      <c r="AN55" s="42"/>
+      <c r="AR55" s="47"/>
     </row>
     <row r="56" spans="1:44" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="57" spans="1:44" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -37704,98 +37670,48 @@
     </row>
   </sheetData>
   <mergeCells count="158">
-    <mergeCell ref="A42:A49"/>
-    <mergeCell ref="B42:B49"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="AO43:AQ43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="AO45:AP45"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="AO46:AP46"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="AO47:AP47"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="AO48:AP48"/>
-    <mergeCell ref="A34:A41"/>
-    <mergeCell ref="B34:B41"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="AO35:AQ35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="AO37:AP37"/>
-    <mergeCell ref="AO38:AP38"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="AO39:AP39"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="AO40:AP40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="A26:A33"/>
-    <mergeCell ref="B26:B33"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="AO27:AQ27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="AO29:AP29"/>
-    <mergeCell ref="AO30:AP30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="AO31:AP31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="AO32:AP32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="A18:A25"/>
-    <mergeCell ref="B18:B25"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="AO19:AQ19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="AO21:AP21"/>
-    <mergeCell ref="AO22:AP22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="AO23:AP23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="AO24:AP24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="C5:E8"/>
+    <mergeCell ref="F5:F8"/>
+    <mergeCell ref="G5:G8"/>
+    <mergeCell ref="H5:I8"/>
+    <mergeCell ref="J5:AN6"/>
+    <mergeCell ref="AO5:AR8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="W7:W8"/>
+    <mergeCell ref="X7:X8"/>
+    <mergeCell ref="AH7:AH8"/>
+    <mergeCell ref="AI7:AI8"/>
+    <mergeCell ref="AJ7:AJ8"/>
+    <mergeCell ref="AK7:AK8"/>
+    <mergeCell ref="AL7:AL8"/>
+    <mergeCell ref="AM7:AM8"/>
+    <mergeCell ref="AN7:AN8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="Y7:Y8"/>
+    <mergeCell ref="Z7:Z8"/>
+    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="AB7:AB8"/>
+    <mergeCell ref="AC7:AC8"/>
+    <mergeCell ref="AD7:AD8"/>
+    <mergeCell ref="AE7:AE8"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AG7:AG8"/>
     <mergeCell ref="AO9:AR9"/>
     <mergeCell ref="A10:A17"/>
     <mergeCell ref="B10:B17"/>
@@ -37820,48 +37736,98 @@
     <mergeCell ref="AO16:AP16"/>
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="H17:I17"/>
-    <mergeCell ref="AH7:AH8"/>
-    <mergeCell ref="AI7:AI8"/>
-    <mergeCell ref="AJ7:AJ8"/>
-    <mergeCell ref="AK7:AK8"/>
-    <mergeCell ref="AL7:AL8"/>
-    <mergeCell ref="AM7:AM8"/>
-    <mergeCell ref="AN7:AN8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="Y7:Y8"/>
-    <mergeCell ref="Z7:Z8"/>
-    <mergeCell ref="AA7:AA8"/>
-    <mergeCell ref="AB7:AB8"/>
-    <mergeCell ref="AC7:AC8"/>
-    <mergeCell ref="AD7:AD8"/>
-    <mergeCell ref="AE7:AE8"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="C5:E8"/>
-    <mergeCell ref="F5:F8"/>
-    <mergeCell ref="G5:G8"/>
-    <mergeCell ref="H5:I8"/>
-    <mergeCell ref="J5:AN6"/>
-    <mergeCell ref="AO5:AR8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="V7:V8"/>
-    <mergeCell ref="W7:W8"/>
-    <mergeCell ref="X7:X8"/>
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="AO19:AQ19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="AO21:AP21"/>
+    <mergeCell ref="AO22:AP22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="AO23:AP23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="AO24:AP24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="A26:A33"/>
+    <mergeCell ref="B26:B33"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="AO27:AQ27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="AO29:AP29"/>
+    <mergeCell ref="AO30:AP30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="AO31:AP31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="AO32:AP32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="A34:A41"/>
+    <mergeCell ref="B34:B41"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="AO35:AQ35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="AO37:AP37"/>
+    <mergeCell ref="AO38:AP38"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="AO39:AP39"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="AO40:AP40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="A42:A49"/>
+    <mergeCell ref="B42:B49"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="AO43:AQ43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="AO45:AP45"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="AO46:AP46"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="AO47:AP47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="AO48:AP48"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0" top="0" bottom="0.125" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="60" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>

--- a/dist/a4.xlsx
+++ b/dist/a4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Projects\Test\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C85E575-347B-4D39-8038-07013B76B775}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A36F3B10-080F-4FA0-8ECD-17BB75F9D83D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -768,95 +768,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -978,26 +909,95 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1314,6 +1314,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:AR1316"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" view="pageBreakPreview" zoomScale="82" zoomScaleNormal="82" zoomScaleSheetLayoutView="82" zoomScalePageLayoutView="60" workbookViewId="0">
@@ -1384,11 +1387,11 @@
     </row>
     <row r="2" spans="1:44" s="11" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
       <c r="E2" s="13"/>
       <c r="F2" s="1"/>
       <c r="G2" s="4"/>
@@ -1519,266 +1522,266 @@
       <c r="AR4" s="15"/>
     </row>
     <row r="5" spans="1:44" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="88" t="s">
+      <c r="A5" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="88" t="s">
+      <c r="B5" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="91" t="s">
+      <c r="C5" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="92"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="100" t="s">
+      <c r="D5" s="69"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="103" t="s">
+      <c r="G5" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="106" t="s">
+      <c r="H5" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="107"/>
-      <c r="J5" s="112" t="s">
+      <c r="I5" s="84"/>
+      <c r="J5" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="113"/>
-      <c r="L5" s="113"/>
-      <c r="M5" s="113"/>
-      <c r="N5" s="113"/>
-      <c r="O5" s="113"/>
-      <c r="P5" s="113"/>
-      <c r="Q5" s="113"/>
-      <c r="R5" s="113"/>
-      <c r="S5" s="113"/>
-      <c r="T5" s="113"/>
-      <c r="U5" s="113"/>
-      <c r="V5" s="113"/>
-      <c r="W5" s="113"/>
-      <c r="X5" s="113"/>
-      <c r="Y5" s="113"/>
-      <c r="Z5" s="113"/>
-      <c r="AA5" s="113"/>
-      <c r="AB5" s="113"/>
-      <c r="AC5" s="113"/>
-      <c r="AD5" s="113"/>
-      <c r="AE5" s="113"/>
-      <c r="AF5" s="113"/>
-      <c r="AG5" s="113"/>
-      <c r="AH5" s="113"/>
-      <c r="AI5" s="113"/>
-      <c r="AJ5" s="113"/>
-      <c r="AK5" s="113"/>
-      <c r="AL5" s="113"/>
-      <c r="AM5" s="113"/>
-      <c r="AN5" s="114"/>
-      <c r="AO5" s="118" t="s">
+      <c r="K5" s="90"/>
+      <c r="L5" s="90"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="90"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="90"/>
+      <c r="R5" s="90"/>
+      <c r="S5" s="90"/>
+      <c r="T5" s="90"/>
+      <c r="U5" s="90"/>
+      <c r="V5" s="90"/>
+      <c r="W5" s="90"/>
+      <c r="X5" s="90"/>
+      <c r="Y5" s="90"/>
+      <c r="Z5" s="90"/>
+      <c r="AA5" s="90"/>
+      <c r="AB5" s="90"/>
+      <c r="AC5" s="90"/>
+      <c r="AD5" s="90"/>
+      <c r="AE5" s="90"/>
+      <c r="AF5" s="90"/>
+      <c r="AG5" s="90"/>
+      <c r="AH5" s="90"/>
+      <c r="AI5" s="90"/>
+      <c r="AJ5" s="90"/>
+      <c r="AK5" s="90"/>
+      <c r="AL5" s="90"/>
+      <c r="AM5" s="90"/>
+      <c r="AN5" s="91"/>
+      <c r="AO5" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="AP5" s="119"/>
-      <c r="AQ5" s="119"/>
-      <c r="AR5" s="120"/>
+      <c r="AP5" s="96"/>
+      <c r="AQ5" s="96"/>
+      <c r="AR5" s="97"/>
     </row>
     <row r="6" spans="1:44" s="17" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="89"/>
-      <c r="B6" s="89"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="104"/>
-      <c r="H6" s="108"/>
-      <c r="I6" s="109"/>
-      <c r="J6" s="115"/>
-      <c r="K6" s="116"/>
-      <c r="L6" s="116"/>
-      <c r="M6" s="116"/>
-      <c r="N6" s="116"/>
-      <c r="O6" s="116"/>
-      <c r="P6" s="116"/>
-      <c r="Q6" s="116"/>
-      <c r="R6" s="116"/>
-      <c r="S6" s="116"/>
-      <c r="T6" s="116"/>
-      <c r="U6" s="116"/>
-      <c r="V6" s="116"/>
-      <c r="W6" s="116"/>
-      <c r="X6" s="116"/>
-      <c r="Y6" s="116"/>
-      <c r="Z6" s="116"/>
-      <c r="AA6" s="116"/>
-      <c r="AB6" s="116"/>
-      <c r="AC6" s="116"/>
-      <c r="AD6" s="116"/>
-      <c r="AE6" s="116"/>
-      <c r="AF6" s="116"/>
-      <c r="AG6" s="116"/>
-      <c r="AH6" s="116"/>
-      <c r="AI6" s="116"/>
-      <c r="AJ6" s="116"/>
-      <c r="AK6" s="116"/>
-      <c r="AL6" s="116"/>
-      <c r="AM6" s="116"/>
-      <c r="AN6" s="117"/>
-      <c r="AO6" s="121"/>
-      <c r="AP6" s="122"/>
-      <c r="AQ6" s="122"/>
-      <c r="AR6" s="123"/>
+      <c r="A6" s="66"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="92"/>
+      <c r="K6" s="93"/>
+      <c r="L6" s="93"/>
+      <c r="M6" s="93"/>
+      <c r="N6" s="93"/>
+      <c r="O6" s="93"/>
+      <c r="P6" s="93"/>
+      <c r="Q6" s="93"/>
+      <c r="R6" s="93"/>
+      <c r="S6" s="93"/>
+      <c r="T6" s="93"/>
+      <c r="U6" s="93"/>
+      <c r="V6" s="93"/>
+      <c r="W6" s="93"/>
+      <c r="X6" s="93"/>
+      <c r="Y6" s="93"/>
+      <c r="Z6" s="93"/>
+      <c r="AA6" s="93"/>
+      <c r="AB6" s="93"/>
+      <c r="AC6" s="93"/>
+      <c r="AD6" s="93"/>
+      <c r="AE6" s="93"/>
+      <c r="AF6" s="93"/>
+      <c r="AG6" s="93"/>
+      <c r="AH6" s="93"/>
+      <c r="AI6" s="93"/>
+      <c r="AJ6" s="93"/>
+      <c r="AK6" s="93"/>
+      <c r="AL6" s="93"/>
+      <c r="AM6" s="93"/>
+      <c r="AN6" s="94"/>
+      <c r="AO6" s="98"/>
+      <c r="AP6" s="99"/>
+      <c r="AQ6" s="99"/>
+      <c r="AR6" s="100"/>
     </row>
     <row r="7" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="89"/>
-      <c r="B7" s="89"/>
-      <c r="C7" s="94"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="104"/>
-      <c r="H7" s="108"/>
-      <c r="I7" s="109"/>
-      <c r="J7" s="83">
+      <c r="A7" s="66"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="104">
         <v>1</v>
       </c>
-      <c r="K7" s="83">
+      <c r="K7" s="104">
         <v>2</v>
       </c>
-      <c r="L7" s="83">
+      <c r="L7" s="104">
         <v>3</v>
       </c>
-      <c r="M7" s="83">
+      <c r="M7" s="104">
         <v>4</v>
       </c>
-      <c r="N7" s="83">
+      <c r="N7" s="104">
         <v>5</v>
       </c>
-      <c r="O7" s="83">
+      <c r="O7" s="104">
         <v>6</v>
       </c>
-      <c r="P7" s="83">
+      <c r="P7" s="104">
         <v>7</v>
       </c>
-      <c r="Q7" s="83">
+      <c r="Q7" s="104">
         <v>8</v>
       </c>
-      <c r="R7" s="83">
+      <c r="R7" s="104">
         <v>9</v>
       </c>
-      <c r="S7" s="83">
+      <c r="S7" s="104">
         <v>10</v>
       </c>
-      <c r="T7" s="83">
+      <c r="T7" s="104">
         <v>11</v>
       </c>
-      <c r="U7" s="83">
+      <c r="U7" s="104">
         <v>12</v>
       </c>
-      <c r="V7" s="83">
+      <c r="V7" s="104">
         <v>13</v>
       </c>
-      <c r="W7" s="83">
+      <c r="W7" s="104">
         <v>14</v>
       </c>
-      <c r="X7" s="83">
+      <c r="X7" s="104">
         <v>15</v>
       </c>
-      <c r="Y7" s="83">
+      <c r="Y7" s="104">
         <v>16</v>
       </c>
-      <c r="Z7" s="83">
+      <c r="Z7" s="104">
         <v>17</v>
       </c>
-      <c r="AA7" s="83">
+      <c r="AA7" s="104">
         <v>18</v>
       </c>
-      <c r="AB7" s="83">
+      <c r="AB7" s="104">
         <v>19</v>
       </c>
-      <c r="AC7" s="83">
+      <c r="AC7" s="104">
         <v>20</v>
       </c>
-      <c r="AD7" s="83">
+      <c r="AD7" s="104">
         <v>21</v>
       </c>
-      <c r="AE7" s="83">
+      <c r="AE7" s="104">
         <v>22</v>
       </c>
-      <c r="AF7" s="83">
+      <c r="AF7" s="104">
         <v>23</v>
       </c>
-      <c r="AG7" s="83">
+      <c r="AG7" s="104">
         <v>24</v>
       </c>
-      <c r="AH7" s="83">
+      <c r="AH7" s="104">
         <v>25</v>
       </c>
-      <c r="AI7" s="83">
+      <c r="AI7" s="104">
         <v>26</v>
       </c>
-      <c r="AJ7" s="83">
+      <c r="AJ7" s="104">
         <v>27</v>
       </c>
-      <c r="AK7" s="83">
+      <c r="AK7" s="104">
         <v>28</v>
       </c>
-      <c r="AL7" s="83">
+      <c r="AL7" s="104">
         <v>29</v>
       </c>
-      <c r="AM7" s="83">
+      <c r="AM7" s="104">
         <v>30</v>
       </c>
-      <c r="AN7" s="83">
+      <c r="AN7" s="104">
         <v>31</v>
       </c>
-      <c r="AO7" s="121"/>
-      <c r="AP7" s="122"/>
-      <c r="AQ7" s="122"/>
-      <c r="AR7" s="123"/>
+      <c r="AO7" s="98"/>
+      <c r="AP7" s="99"/>
+      <c r="AQ7" s="99"/>
+      <c r="AR7" s="100"/>
     </row>
     <row r="8" spans="1:44" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="90"/>
-      <c r="B8" s="90"/>
-      <c r="C8" s="97"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="110"/>
-      <c r="I8" s="111"/>
-      <c r="J8" s="84"/>
-      <c r="K8" s="84"/>
-      <c r="L8" s="84"/>
-      <c r="M8" s="84"/>
-      <c r="N8" s="84"/>
-      <c r="O8" s="84"/>
-      <c r="P8" s="84"/>
-      <c r="Q8" s="84"/>
-      <c r="R8" s="84"/>
-      <c r="S8" s="84"/>
-      <c r="T8" s="84"/>
-      <c r="U8" s="84"/>
-      <c r="V8" s="84"/>
-      <c r="W8" s="84"/>
-      <c r="X8" s="84"/>
-      <c r="Y8" s="84"/>
-      <c r="Z8" s="84"/>
-      <c r="AA8" s="84"/>
-      <c r="AB8" s="84"/>
-      <c r="AC8" s="84"/>
-      <c r="AD8" s="84"/>
-      <c r="AE8" s="84"/>
-      <c r="AF8" s="84"/>
-      <c r="AG8" s="84"/>
-      <c r="AH8" s="84"/>
-      <c r="AI8" s="84"/>
-      <c r="AJ8" s="84"/>
-      <c r="AK8" s="84"/>
-      <c r="AL8" s="84"/>
-      <c r="AM8" s="84"/>
-      <c r="AN8" s="84"/>
-      <c r="AO8" s="124"/>
-      <c r="AP8" s="125"/>
-      <c r="AQ8" s="125"/>
-      <c r="AR8" s="126"/>
+      <c r="A8" s="67"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="105"/>
+      <c r="K8" s="105"/>
+      <c r="L8" s="105"/>
+      <c r="M8" s="105"/>
+      <c r="N8" s="105"/>
+      <c r="O8" s="105"/>
+      <c r="P8" s="105"/>
+      <c r="Q8" s="105"/>
+      <c r="R8" s="105"/>
+      <c r="S8" s="105"/>
+      <c r="T8" s="105"/>
+      <c r="U8" s="105"/>
+      <c r="V8" s="105"/>
+      <c r="W8" s="105"/>
+      <c r="X8" s="105"/>
+      <c r="Y8" s="105"/>
+      <c r="Z8" s="105"/>
+      <c r="AA8" s="105"/>
+      <c r="AB8" s="105"/>
+      <c r="AC8" s="105"/>
+      <c r="AD8" s="105"/>
+      <c r="AE8" s="105"/>
+      <c r="AF8" s="105"/>
+      <c r="AG8" s="105"/>
+      <c r="AH8" s="105"/>
+      <c r="AI8" s="105"/>
+      <c r="AJ8" s="105"/>
+      <c r="AK8" s="105"/>
+      <c r="AL8" s="105"/>
+      <c r="AM8" s="105"/>
+      <c r="AN8" s="105"/>
+      <c r="AO8" s="101"/>
+      <c r="AP8" s="102"/>
+      <c r="AQ8" s="102"/>
+      <c r="AR8" s="103"/>
     </row>
     <row r="9" spans="1:44" s="26" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="18">
@@ -1787,21 +1790,21 @@
       <c r="B9" s="19">
         <v>2</v>
       </c>
-      <c r="C9" s="80">
+      <c r="C9" s="106">
         <v>3</v>
       </c>
-      <c r="D9" s="81"/>
-      <c r="E9" s="82"/>
+      <c r="D9" s="107"/>
+      <c r="E9" s="108"/>
       <c r="F9" s="20">
         <v>4</v>
       </c>
       <c r="G9" s="21">
         <v>5</v>
       </c>
-      <c r="H9" s="85">
+      <c r="H9" s="109">
         <v>6</v>
       </c>
-      <c r="I9" s="86"/>
+      <c r="I9" s="110"/>
       <c r="J9" s="22">
         <v>7</v>
       </c>
@@ -1895,24 +1898,24 @@
       <c r="AN9" s="25">
         <v>37</v>
       </c>
-      <c r="AO9" s="80">
+      <c r="AO9" s="106">
         <v>38</v>
       </c>
-      <c r="AP9" s="81"/>
-      <c r="AQ9" s="81"/>
-      <c r="AR9" s="82"/>
+      <c r="AP9" s="107"/>
+      <c r="AQ9" s="107"/>
+      <c r="AR9" s="108"/>
     </row>
     <row r="10" spans="1:44" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="57"/>
-      <c r="B10" s="57"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="62"/>
+      <c r="A10" s="111"/>
+      <c r="B10" s="111"/>
+      <c r="C10" s="114"/>
+      <c r="D10" s="115"/>
+      <c r="E10" s="116"/>
       <c r="F10" s="53"/>
       <c r="G10" s="56"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="127"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="118"/>
+      <c r="J10" s="57"/>
       <c r="K10" s="48"/>
       <c r="L10" s="48"/>
       <c r="M10" s="48"/>
@@ -1942,7 +1945,7 @@
       <c r="AK10" s="48"/>
       <c r="AL10" s="48"/>
       <c r="AM10" s="48"/>
-      <c r="AN10" s="128"/>
+      <c r="AN10" s="58"/>
       <c r="AO10" s="27" t="s">
         <v>9</v>
       </c>
@@ -1951,16 +1954,16 @@
       <c r="AR10" s="30"/>
     </row>
     <row r="11" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A11" s="58"/>
-      <c r="B11" s="58"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="67"/>
+      <c r="A11" s="112"/>
+      <c r="B11" s="112"/>
+      <c r="C11" s="119"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="121"/>
       <c r="F11" s="35"/>
       <c r="G11" s="35"/>
-      <c r="H11" s="68"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="129"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="123"/>
+      <c r="J11" s="59"/>
       <c r="K11" s="49"/>
       <c r="L11" s="49"/>
       <c r="M11" s="49"/>
@@ -1990,25 +1993,25 @@
       <c r="AK11" s="49"/>
       <c r="AL11" s="49"/>
       <c r="AM11" s="49"/>
-      <c r="AN11" s="130"/>
-      <c r="AO11" s="73" t="s">
+      <c r="AN11" s="60"/>
+      <c r="AO11" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="AP11" s="74"/>
-      <c r="AQ11" s="74"/>
+      <c r="AP11" s="125"/>
+      <c r="AQ11" s="125"/>
       <c r="AR11" s="30"/>
     </row>
     <row r="12" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A12" s="58"/>
-      <c r="B12" s="58"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="67"/>
+      <c r="A12" s="112"/>
+      <c r="B12" s="112"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="121"/>
       <c r="F12" s="35"/>
       <c r="G12" s="35"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="131"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="123"/>
+      <c r="J12" s="61"/>
       <c r="K12" s="51"/>
       <c r="L12" s="51"/>
       <c r="M12" s="51"/>
@@ -2049,16 +2052,16 @@
       <c r="AR12" s="33"/>
     </row>
     <row r="13" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A13" s="58"/>
-      <c r="B13" s="58"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="67"/>
+      <c r="A13" s="112"/>
+      <c r="B13" s="112"/>
+      <c r="C13" s="119"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="121"/>
       <c r="F13" s="35"/>
       <c r="G13" s="35"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="131"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="123"/>
+      <c r="J13" s="61"/>
       <c r="K13" s="51"/>
       <c r="L13" s="51"/>
       <c r="M13" s="51"/>
@@ -2089,24 +2092,24 @@
       <c r="AL13" s="51"/>
       <c r="AM13" s="51"/>
       <c r="AN13" s="52"/>
-      <c r="AO13" s="73" t="s">
+      <c r="AO13" s="124" t="s">
         <v>13</v>
       </c>
-      <c r="AP13" s="74"/>
+      <c r="AP13" s="125"/>
       <c r="AQ13" s="32"/>
       <c r="AR13" s="30"/>
     </row>
     <row r="14" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A14" s="58"/>
-      <c r="B14" s="58"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="72"/>
+      <c r="A14" s="112"/>
+      <c r="B14" s="112"/>
+      <c r="C14" s="126"/>
+      <c r="D14" s="127"/>
+      <c r="E14" s="128"/>
       <c r="F14" s="54"/>
       <c r="G14" s="35"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="131"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="123"/>
+      <c r="J14" s="61"/>
       <c r="K14" s="51"/>
       <c r="L14" s="51"/>
       <c r="M14" s="51"/>
@@ -2137,24 +2140,24 @@
       <c r="AL14" s="51"/>
       <c r="AM14" s="51"/>
       <c r="AN14" s="52"/>
-      <c r="AO14" s="73" t="s">
+      <c r="AO14" s="124" t="s">
         <v>14</v>
       </c>
-      <c r="AP14" s="74"/>
+      <c r="AP14" s="125"/>
       <c r="AQ14" s="32"/>
       <c r="AR14" s="34"/>
     </row>
     <row r="15" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A15" s="58"/>
-      <c r="B15" s="58"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="72"/>
+      <c r="A15" s="112"/>
+      <c r="B15" s="112"/>
+      <c r="C15" s="126"/>
+      <c r="D15" s="127"/>
+      <c r="E15" s="128"/>
       <c r="F15" s="54"/>
       <c r="G15" s="35"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="131"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="123"/>
+      <c r="J15" s="61"/>
       <c r="K15" s="51"/>
       <c r="L15" s="51"/>
       <c r="M15" s="51"/>
@@ -2185,24 +2188,24 @@
       <c r="AL15" s="51"/>
       <c r="AM15" s="51"/>
       <c r="AN15" s="52"/>
-      <c r="AO15" s="73" t="s">
+      <c r="AO15" s="124" t="s">
         <v>15</v>
       </c>
-      <c r="AP15" s="74"/>
+      <c r="AP15" s="125"/>
       <c r="AQ15" s="32"/>
       <c r="AR15" s="30"/>
     </row>
     <row r="16" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A16" s="58"/>
-      <c r="B16" s="58"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="67"/>
+      <c r="A16" s="112"/>
+      <c r="B16" s="112"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="121"/>
       <c r="F16" s="35"/>
       <c r="G16" s="35"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="131"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="123"/>
+      <c r="J16" s="61"/>
       <c r="K16" s="51"/>
       <c r="L16" s="51"/>
       <c r="M16" s="51"/>
@@ -2233,24 +2236,24 @@
       <c r="AL16" s="51"/>
       <c r="AM16" s="51"/>
       <c r="AN16" s="52"/>
-      <c r="AO16" s="73" t="s">
+      <c r="AO16" s="124" t="s">
         <v>16</v>
       </c>
-      <c r="AP16" s="74"/>
+      <c r="AP16" s="125"/>
       <c r="AQ16" s="36"/>
       <c r="AR16" s="34"/>
     </row>
     <row r="17" spans="1:44" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="59"/>
-      <c r="B17" s="59"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="77"/>
+      <c r="A17" s="113"/>
+      <c r="B17" s="113"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="130"/>
+      <c r="E17" s="131"/>
       <c r="F17" s="55"/>
       <c r="G17" s="55"/>
-      <c r="H17" s="68"/>
-      <c r="I17" s="69"/>
-      <c r="J17" s="132"/>
+      <c r="H17" s="122"/>
+      <c r="I17" s="123"/>
+      <c r="J17" s="62"/>
       <c r="K17" s="50"/>
       <c r="L17" s="50"/>
       <c r="M17" s="50"/>
@@ -2280,7 +2283,7 @@
       <c r="AK17" s="50"/>
       <c r="AL17" s="50"/>
       <c r="AM17" s="50"/>
-      <c r="AN17" s="133"/>
+      <c r="AN17" s="63"/>
       <c r="AO17" s="37" t="s">
         <v>17</v>
       </c>
@@ -2291,16 +2294,16 @@
       <c r="AR17" s="40"/>
     </row>
     <row r="18" spans="1:44" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="57"/>
-      <c r="B18" s="57"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="62"/>
+      <c r="A18" s="111"/>
+      <c r="B18" s="111"/>
+      <c r="C18" s="114"/>
+      <c r="D18" s="115"/>
+      <c r="E18" s="116"/>
       <c r="F18" s="53"/>
       <c r="G18" s="56"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="64"/>
-      <c r="J18" s="127"/>
+      <c r="H18" s="117"/>
+      <c r="I18" s="118"/>
+      <c r="J18" s="57"/>
       <c r="K18" s="48"/>
       <c r="L18" s="48"/>
       <c r="M18" s="48"/>
@@ -2330,7 +2333,7 @@
       <c r="AK18" s="48"/>
       <c r="AL18" s="48"/>
       <c r="AM18" s="48"/>
-      <c r="AN18" s="128"/>
+      <c r="AN18" s="58"/>
       <c r="AO18" s="27" t="s">
         <v>9</v>
       </c>
@@ -2339,16 +2342,16 @@
       <c r="AR18" s="30"/>
     </row>
     <row r="19" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A19" s="58"/>
-      <c r="B19" s="58"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="67"/>
+      <c r="A19" s="112"/>
+      <c r="B19" s="112"/>
+      <c r="C19" s="119"/>
+      <c r="D19" s="120"/>
+      <c r="E19" s="121"/>
       <c r="F19" s="35"/>
       <c r="G19" s="35"/>
-      <c r="H19" s="68"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="129"/>
+      <c r="H19" s="122"/>
+      <c r="I19" s="123"/>
+      <c r="J19" s="59"/>
       <c r="K19" s="49"/>
       <c r="L19" s="49"/>
       <c r="M19" s="49"/>
@@ -2378,25 +2381,25 @@
       <c r="AK19" s="49"/>
       <c r="AL19" s="49"/>
       <c r="AM19" s="49"/>
-      <c r="AN19" s="130"/>
-      <c r="AO19" s="73" t="s">
+      <c r="AN19" s="60"/>
+      <c r="AO19" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="AP19" s="74"/>
-      <c r="AQ19" s="74"/>
+      <c r="AP19" s="125"/>
+      <c r="AQ19" s="125"/>
       <c r="AR19" s="30"/>
     </row>
     <row r="20" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A20" s="58"/>
-      <c r="B20" s="58"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="67"/>
+      <c r="A20" s="112"/>
+      <c r="B20" s="112"/>
+      <c r="C20" s="119"/>
+      <c r="D20" s="120"/>
+      <c r="E20" s="121"/>
       <c r="F20" s="35"/>
       <c r="G20" s="35"/>
-      <c r="H20" s="68"/>
-      <c r="I20" s="69"/>
-      <c r="J20" s="131"/>
+      <c r="H20" s="122"/>
+      <c r="I20" s="123"/>
+      <c r="J20" s="61"/>
       <c r="K20" s="51"/>
       <c r="L20" s="51"/>
       <c r="M20" s="51"/>
@@ -2437,16 +2440,16 @@
       <c r="AR20" s="33"/>
     </row>
     <row r="21" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A21" s="58"/>
-      <c r="B21" s="58"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="67"/>
+      <c r="A21" s="112"/>
+      <c r="B21" s="112"/>
+      <c r="C21" s="119"/>
+      <c r="D21" s="120"/>
+      <c r="E21" s="121"/>
       <c r="F21" s="35"/>
       <c r="G21" s="35"/>
-      <c r="H21" s="68"/>
-      <c r="I21" s="69"/>
-      <c r="J21" s="131"/>
+      <c r="H21" s="122"/>
+      <c r="I21" s="123"/>
+      <c r="J21" s="61"/>
       <c r="K21" s="51"/>
       <c r="L21" s="51"/>
       <c r="M21" s="51"/>
@@ -2477,24 +2480,24 @@
       <c r="AL21" s="51"/>
       <c r="AM21" s="51"/>
       <c r="AN21" s="52"/>
-      <c r="AO21" s="73" t="s">
+      <c r="AO21" s="124" t="s">
         <v>13</v>
       </c>
-      <c r="AP21" s="74"/>
+      <c r="AP21" s="125"/>
       <c r="AQ21" s="32"/>
       <c r="AR21" s="30"/>
     </row>
     <row r="22" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A22" s="58"/>
-      <c r="B22" s="58"/>
-      <c r="C22" s="70"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="72"/>
+      <c r="A22" s="112"/>
+      <c r="B22" s="112"/>
+      <c r="C22" s="126"/>
+      <c r="D22" s="127"/>
+      <c r="E22" s="128"/>
       <c r="F22" s="54"/>
       <c r="G22" s="35"/>
-      <c r="H22" s="68"/>
-      <c r="I22" s="69"/>
-      <c r="J22" s="131"/>
+      <c r="H22" s="122"/>
+      <c r="I22" s="123"/>
+      <c r="J22" s="61"/>
       <c r="K22" s="51"/>
       <c r="L22" s="51"/>
       <c r="M22" s="51"/>
@@ -2525,24 +2528,24 @@
       <c r="AL22" s="51"/>
       <c r="AM22" s="51"/>
       <c r="AN22" s="52"/>
-      <c r="AO22" s="73" t="s">
+      <c r="AO22" s="124" t="s">
         <v>14</v>
       </c>
-      <c r="AP22" s="74"/>
+      <c r="AP22" s="125"/>
       <c r="AQ22" s="32"/>
       <c r="AR22" s="34"/>
     </row>
     <row r="23" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A23" s="58"/>
-      <c r="B23" s="58"/>
-      <c r="C23" s="70"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="72"/>
+      <c r="A23" s="112"/>
+      <c r="B23" s="112"/>
+      <c r="C23" s="126"/>
+      <c r="D23" s="127"/>
+      <c r="E23" s="128"/>
       <c r="F23" s="54"/>
       <c r="G23" s="35"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="131"/>
+      <c r="H23" s="122"/>
+      <c r="I23" s="123"/>
+      <c r="J23" s="61"/>
       <c r="K23" s="51"/>
       <c r="L23" s="51"/>
       <c r="M23" s="51"/>
@@ -2573,24 +2576,24 @@
       <c r="AL23" s="51"/>
       <c r="AM23" s="51"/>
       <c r="AN23" s="52"/>
-      <c r="AO23" s="73" t="s">
+      <c r="AO23" s="124" t="s">
         <v>15</v>
       </c>
-      <c r="AP23" s="74"/>
+      <c r="AP23" s="125"/>
       <c r="AQ23" s="32"/>
       <c r="AR23" s="30"/>
     </row>
     <row r="24" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A24" s="58"/>
-      <c r="B24" s="58"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="67"/>
+      <c r="A24" s="112"/>
+      <c r="B24" s="112"/>
+      <c r="C24" s="119"/>
+      <c r="D24" s="120"/>
+      <c r="E24" s="121"/>
       <c r="F24" s="35"/>
       <c r="G24" s="35"/>
-      <c r="H24" s="68"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="131"/>
+      <c r="H24" s="122"/>
+      <c r="I24" s="123"/>
+      <c r="J24" s="61"/>
       <c r="K24" s="51"/>
       <c r="L24" s="51"/>
       <c r="M24" s="51"/>
@@ -2621,24 +2624,24 @@
       <c r="AL24" s="51"/>
       <c r="AM24" s="51"/>
       <c r="AN24" s="52"/>
-      <c r="AO24" s="73" t="s">
+      <c r="AO24" s="124" t="s">
         <v>16</v>
       </c>
-      <c r="AP24" s="74"/>
+      <c r="AP24" s="125"/>
       <c r="AQ24" s="36"/>
       <c r="AR24" s="34"/>
     </row>
     <row r="25" spans="1:44" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="59"/>
-      <c r="B25" s="59"/>
-      <c r="C25" s="75"/>
-      <c r="D25" s="76"/>
-      <c r="E25" s="77"/>
+      <c r="A25" s="113"/>
+      <c r="B25" s="113"/>
+      <c r="C25" s="129"/>
+      <c r="D25" s="130"/>
+      <c r="E25" s="131"/>
       <c r="F25" s="55"/>
       <c r="G25" s="55"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="132"/>
+      <c r="H25" s="122"/>
+      <c r="I25" s="123"/>
+      <c r="J25" s="62"/>
       <c r="K25" s="50"/>
       <c r="L25" s="50"/>
       <c r="M25" s="50"/>
@@ -2668,7 +2671,7 @@
       <c r="AK25" s="50"/>
       <c r="AL25" s="50"/>
       <c r="AM25" s="50"/>
-      <c r="AN25" s="133"/>
+      <c r="AN25" s="63"/>
       <c r="AO25" s="37" t="s">
         <v>17</v>
       </c>
@@ -2679,16 +2682,16 @@
       <c r="AR25" s="40"/>
     </row>
     <row r="26" spans="1:44" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="57"/>
-      <c r="B26" s="57"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="62"/>
+      <c r="A26" s="111"/>
+      <c r="B26" s="111"/>
+      <c r="C26" s="114"/>
+      <c r="D26" s="115"/>
+      <c r="E26" s="116"/>
       <c r="F26" s="53"/>
       <c r="G26" s="56"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="64"/>
-      <c r="J26" s="127"/>
+      <c r="H26" s="117"/>
+      <c r="I26" s="118"/>
+      <c r="J26" s="57"/>
       <c r="K26" s="48"/>
       <c r="L26" s="48"/>
       <c r="M26" s="48"/>
@@ -2718,7 +2721,7 @@
       <c r="AK26" s="48"/>
       <c r="AL26" s="48"/>
       <c r="AM26" s="48"/>
-      <c r="AN26" s="128"/>
+      <c r="AN26" s="58"/>
       <c r="AO26" s="27" t="s">
         <v>9</v>
       </c>
@@ -2727,16 +2730,16 @@
       <c r="AR26" s="30"/>
     </row>
     <row r="27" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A27" s="58"/>
-      <c r="B27" s="58"/>
-      <c r="C27" s="65"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="67"/>
+      <c r="A27" s="112"/>
+      <c r="B27" s="112"/>
+      <c r="C27" s="119"/>
+      <c r="D27" s="120"/>
+      <c r="E27" s="121"/>
       <c r="F27" s="35"/>
       <c r="G27" s="35"/>
-      <c r="H27" s="68"/>
-      <c r="I27" s="69"/>
-      <c r="J27" s="129"/>
+      <c r="H27" s="122"/>
+      <c r="I27" s="123"/>
+      <c r="J27" s="59"/>
       <c r="K27" s="49"/>
       <c r="L27" s="49"/>
       <c r="M27" s="49"/>
@@ -2766,25 +2769,25 @@
       <c r="AK27" s="49"/>
       <c r="AL27" s="49"/>
       <c r="AM27" s="49"/>
-      <c r="AN27" s="130"/>
-      <c r="AO27" s="73" t="s">
+      <c r="AN27" s="60"/>
+      <c r="AO27" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="AP27" s="74"/>
-      <c r="AQ27" s="74"/>
+      <c r="AP27" s="125"/>
+      <c r="AQ27" s="125"/>
       <c r="AR27" s="30"/>
     </row>
     <row r="28" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A28" s="58"/>
-      <c r="B28" s="58"/>
-      <c r="C28" s="65"/>
-      <c r="D28" s="66"/>
-      <c r="E28" s="67"/>
+      <c r="A28" s="112"/>
+      <c r="B28" s="112"/>
+      <c r="C28" s="119"/>
+      <c r="D28" s="120"/>
+      <c r="E28" s="121"/>
       <c r="F28" s="35"/>
       <c r="G28" s="35"/>
-      <c r="H28" s="68"/>
-      <c r="I28" s="69"/>
-      <c r="J28" s="131"/>
+      <c r="H28" s="122"/>
+      <c r="I28" s="123"/>
+      <c r="J28" s="61"/>
       <c r="K28" s="51"/>
       <c r="L28" s="51"/>
       <c r="M28" s="51"/>
@@ -2825,16 +2828,16 @@
       <c r="AR28" s="33"/>
     </row>
     <row r="29" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A29" s="58"/>
-      <c r="B29" s="58"/>
-      <c r="C29" s="65"/>
-      <c r="D29" s="66"/>
-      <c r="E29" s="67"/>
+      <c r="A29" s="112"/>
+      <c r="B29" s="112"/>
+      <c r="C29" s="119"/>
+      <c r="D29" s="120"/>
+      <c r="E29" s="121"/>
       <c r="F29" s="35"/>
       <c r="G29" s="35"/>
-      <c r="H29" s="68"/>
-      <c r="I29" s="69"/>
-      <c r="J29" s="131"/>
+      <c r="H29" s="122"/>
+      <c r="I29" s="123"/>
+      <c r="J29" s="61"/>
       <c r="K29" s="51"/>
       <c r="L29" s="51"/>
       <c r="M29" s="51"/>
@@ -2865,24 +2868,24 @@
       <c r="AL29" s="51"/>
       <c r="AM29" s="51"/>
       <c r="AN29" s="52"/>
-      <c r="AO29" s="73" t="s">
+      <c r="AO29" s="124" t="s">
         <v>13</v>
       </c>
-      <c r="AP29" s="74"/>
+      <c r="AP29" s="125"/>
       <c r="AQ29" s="32"/>
       <c r="AR29" s="30"/>
     </row>
     <row r="30" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A30" s="58"/>
-      <c r="B30" s="58"/>
-      <c r="C30" s="70"/>
-      <c r="D30" s="71"/>
-      <c r="E30" s="72"/>
+      <c r="A30" s="112"/>
+      <c r="B30" s="112"/>
+      <c r="C30" s="126"/>
+      <c r="D30" s="127"/>
+      <c r="E30" s="128"/>
       <c r="F30" s="54"/>
       <c r="G30" s="35"/>
-      <c r="H30" s="68"/>
-      <c r="I30" s="69"/>
-      <c r="J30" s="131"/>
+      <c r="H30" s="122"/>
+      <c r="I30" s="123"/>
+      <c r="J30" s="61"/>
       <c r="K30" s="51"/>
       <c r="L30" s="51"/>
       <c r="M30" s="51"/>
@@ -2913,24 +2916,24 @@
       <c r="AL30" s="51"/>
       <c r="AM30" s="51"/>
       <c r="AN30" s="52"/>
-      <c r="AO30" s="73" t="s">
+      <c r="AO30" s="124" t="s">
         <v>14</v>
       </c>
-      <c r="AP30" s="74"/>
+      <c r="AP30" s="125"/>
       <c r="AQ30" s="32"/>
       <c r="AR30" s="34"/>
     </row>
     <row r="31" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A31" s="58"/>
-      <c r="B31" s="58"/>
-      <c r="C31" s="70"/>
-      <c r="D31" s="71"/>
-      <c r="E31" s="72"/>
+      <c r="A31" s="112"/>
+      <c r="B31" s="112"/>
+      <c r="C31" s="126"/>
+      <c r="D31" s="127"/>
+      <c r="E31" s="128"/>
       <c r="F31" s="54"/>
       <c r="G31" s="35"/>
-      <c r="H31" s="68"/>
-      <c r="I31" s="69"/>
-      <c r="J31" s="131"/>
+      <c r="H31" s="122"/>
+      <c r="I31" s="123"/>
+      <c r="J31" s="61"/>
       <c r="K31" s="51"/>
       <c r="L31" s="51"/>
       <c r="M31" s="51"/>
@@ -2961,24 +2964,24 @@
       <c r="AL31" s="51"/>
       <c r="AM31" s="51"/>
       <c r="AN31" s="52"/>
-      <c r="AO31" s="73" t="s">
+      <c r="AO31" s="124" t="s">
         <v>15</v>
       </c>
-      <c r="AP31" s="74"/>
+      <c r="AP31" s="125"/>
       <c r="AQ31" s="32"/>
       <c r="AR31" s="30"/>
     </row>
     <row r="32" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A32" s="58"/>
-      <c r="B32" s="58"/>
-      <c r="C32" s="65"/>
-      <c r="D32" s="66"/>
-      <c r="E32" s="67"/>
+      <c r="A32" s="112"/>
+      <c r="B32" s="112"/>
+      <c r="C32" s="119"/>
+      <c r="D32" s="120"/>
+      <c r="E32" s="121"/>
       <c r="F32" s="35"/>
       <c r="G32" s="35"/>
-      <c r="H32" s="68"/>
-      <c r="I32" s="69"/>
-      <c r="J32" s="131"/>
+      <c r="H32" s="122"/>
+      <c r="I32" s="123"/>
+      <c r="J32" s="61"/>
       <c r="K32" s="51"/>
       <c r="L32" s="51"/>
       <c r="M32" s="51"/>
@@ -3009,24 +3012,24 @@
       <c r="AL32" s="51"/>
       <c r="AM32" s="51"/>
       <c r="AN32" s="52"/>
-      <c r="AO32" s="73" t="s">
+      <c r="AO32" s="124" t="s">
         <v>16</v>
       </c>
-      <c r="AP32" s="74"/>
+      <c r="AP32" s="125"/>
       <c r="AQ32" s="36"/>
       <c r="AR32" s="34"/>
     </row>
     <row r="33" spans="1:44" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="59"/>
-      <c r="B33" s="59"/>
-      <c r="C33" s="75"/>
-      <c r="D33" s="76"/>
-      <c r="E33" s="77"/>
+      <c r="A33" s="113"/>
+      <c r="B33" s="113"/>
+      <c r="C33" s="129"/>
+      <c r="D33" s="130"/>
+      <c r="E33" s="131"/>
       <c r="F33" s="55"/>
       <c r="G33" s="55"/>
-      <c r="H33" s="68"/>
-      <c r="I33" s="69"/>
-      <c r="J33" s="132"/>
+      <c r="H33" s="122"/>
+      <c r="I33" s="123"/>
+      <c r="J33" s="62"/>
       <c r="K33" s="50"/>
       <c r="L33" s="50"/>
       <c r="M33" s="50"/>
@@ -3056,7 +3059,7 @@
       <c r="AK33" s="50"/>
       <c r="AL33" s="50"/>
       <c r="AM33" s="50"/>
-      <c r="AN33" s="133"/>
+      <c r="AN33" s="63"/>
       <c r="AO33" s="37" t="s">
         <v>17</v>
       </c>
@@ -3067,16 +3070,16 @@
       <c r="AR33" s="40"/>
     </row>
     <row r="34" spans="1:44" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="57"/>
-      <c r="B34" s="57"/>
-      <c r="C34" s="60"/>
-      <c r="D34" s="61"/>
-      <c r="E34" s="62"/>
+      <c r="A34" s="111"/>
+      <c r="B34" s="111"/>
+      <c r="C34" s="114"/>
+      <c r="D34" s="115"/>
+      <c r="E34" s="116"/>
       <c r="F34" s="53"/>
       <c r="G34" s="56"/>
-      <c r="H34" s="63"/>
-      <c r="I34" s="64"/>
-      <c r="J34" s="127"/>
+      <c r="H34" s="117"/>
+      <c r="I34" s="118"/>
+      <c r="J34" s="57"/>
       <c r="K34" s="48"/>
       <c r="L34" s="48"/>
       <c r="M34" s="48"/>
@@ -3106,7 +3109,7 @@
       <c r="AK34" s="48"/>
       <c r="AL34" s="48"/>
       <c r="AM34" s="48"/>
-      <c r="AN34" s="128"/>
+      <c r="AN34" s="58"/>
       <c r="AO34" s="27" t="s">
         <v>9</v>
       </c>
@@ -3115,16 +3118,16 @@
       <c r="AR34" s="30"/>
     </row>
     <row r="35" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A35" s="58"/>
-      <c r="B35" s="58"/>
-      <c r="C35" s="65"/>
-      <c r="D35" s="66"/>
-      <c r="E35" s="67"/>
+      <c r="A35" s="112"/>
+      <c r="B35" s="112"/>
+      <c r="C35" s="119"/>
+      <c r="D35" s="120"/>
+      <c r="E35" s="121"/>
       <c r="F35" s="35"/>
       <c r="G35" s="35"/>
-      <c r="H35" s="68"/>
-      <c r="I35" s="69"/>
-      <c r="J35" s="129"/>
+      <c r="H35" s="122"/>
+      <c r="I35" s="123"/>
+      <c r="J35" s="59"/>
       <c r="K35" s="49"/>
       <c r="L35" s="49"/>
       <c r="M35" s="49"/>
@@ -3154,25 +3157,25 @@
       <c r="AK35" s="49"/>
       <c r="AL35" s="49"/>
       <c r="AM35" s="49"/>
-      <c r="AN35" s="130"/>
-      <c r="AO35" s="73" t="s">
+      <c r="AN35" s="60"/>
+      <c r="AO35" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="AP35" s="74"/>
-      <c r="AQ35" s="74"/>
+      <c r="AP35" s="125"/>
+      <c r="AQ35" s="125"/>
       <c r="AR35" s="30"/>
     </row>
     <row r="36" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A36" s="58"/>
-      <c r="B36" s="58"/>
-      <c r="C36" s="65"/>
-      <c r="D36" s="66"/>
-      <c r="E36" s="67"/>
+      <c r="A36" s="112"/>
+      <c r="B36" s="112"/>
+      <c r="C36" s="119"/>
+      <c r="D36" s="120"/>
+      <c r="E36" s="121"/>
       <c r="F36" s="35"/>
       <c r="G36" s="35"/>
-      <c r="H36" s="68"/>
-      <c r="I36" s="69"/>
-      <c r="J36" s="131"/>
+      <c r="H36" s="122"/>
+      <c r="I36" s="123"/>
+      <c r="J36" s="61"/>
       <c r="K36" s="51"/>
       <c r="L36" s="51"/>
       <c r="M36" s="51"/>
@@ -3213,16 +3216,16 @@
       <c r="AR36" s="33"/>
     </row>
     <row r="37" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A37" s="58"/>
-      <c r="B37" s="58"/>
-      <c r="C37" s="65"/>
-      <c r="D37" s="66"/>
-      <c r="E37" s="67"/>
+      <c r="A37" s="112"/>
+      <c r="B37" s="112"/>
+      <c r="C37" s="119"/>
+      <c r="D37" s="120"/>
+      <c r="E37" s="121"/>
       <c r="F37" s="35"/>
       <c r="G37" s="35"/>
-      <c r="H37" s="68"/>
-      <c r="I37" s="69"/>
-      <c r="J37" s="131"/>
+      <c r="H37" s="122"/>
+      <c r="I37" s="123"/>
+      <c r="J37" s="61"/>
       <c r="K37" s="51"/>
       <c r="L37" s="51"/>
       <c r="M37" s="51"/>
@@ -3253,24 +3256,24 @@
       <c r="AL37" s="51"/>
       <c r="AM37" s="51"/>
       <c r="AN37" s="52"/>
-      <c r="AO37" s="73" t="s">
+      <c r="AO37" s="124" t="s">
         <v>13</v>
       </c>
-      <c r="AP37" s="74"/>
+      <c r="AP37" s="125"/>
       <c r="AQ37" s="32"/>
       <c r="AR37" s="30"/>
     </row>
     <row r="38" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A38" s="58"/>
-      <c r="B38" s="58"/>
-      <c r="C38" s="70"/>
-      <c r="D38" s="71"/>
-      <c r="E38" s="72"/>
+      <c r="A38" s="112"/>
+      <c r="B38" s="112"/>
+      <c r="C38" s="126"/>
+      <c r="D38" s="127"/>
+      <c r="E38" s="128"/>
       <c r="F38" s="54"/>
       <c r="G38" s="35"/>
-      <c r="H38" s="68"/>
-      <c r="I38" s="69"/>
-      <c r="J38" s="131"/>
+      <c r="H38" s="122"/>
+      <c r="I38" s="123"/>
+      <c r="J38" s="61"/>
       <c r="K38" s="51"/>
       <c r="L38" s="51"/>
       <c r="M38" s="51"/>
@@ -3301,24 +3304,24 @@
       <c r="AL38" s="51"/>
       <c r="AM38" s="51"/>
       <c r="AN38" s="52"/>
-      <c r="AO38" s="73" t="s">
+      <c r="AO38" s="124" t="s">
         <v>14</v>
       </c>
-      <c r="AP38" s="74"/>
+      <c r="AP38" s="125"/>
       <c r="AQ38" s="32"/>
       <c r="AR38" s="34"/>
     </row>
     <row r="39" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A39" s="58"/>
-      <c r="B39" s="58"/>
-      <c r="C39" s="70"/>
-      <c r="D39" s="71"/>
-      <c r="E39" s="72"/>
+      <c r="A39" s="112"/>
+      <c r="B39" s="112"/>
+      <c r="C39" s="126"/>
+      <c r="D39" s="127"/>
+      <c r="E39" s="128"/>
       <c r="F39" s="54"/>
       <c r="G39" s="35"/>
-      <c r="H39" s="68"/>
-      <c r="I39" s="69"/>
-      <c r="J39" s="131"/>
+      <c r="H39" s="122"/>
+      <c r="I39" s="123"/>
+      <c r="J39" s="61"/>
       <c r="K39" s="51"/>
       <c r="L39" s="51"/>
       <c r="M39" s="51"/>
@@ -3349,24 +3352,24 @@
       <c r="AL39" s="51"/>
       <c r="AM39" s="51"/>
       <c r="AN39" s="52"/>
-      <c r="AO39" s="73" t="s">
+      <c r="AO39" s="124" t="s">
         <v>15</v>
       </c>
-      <c r="AP39" s="74"/>
+      <c r="AP39" s="125"/>
       <c r="AQ39" s="32"/>
       <c r="AR39" s="30"/>
     </row>
     <row r="40" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A40" s="58"/>
-      <c r="B40" s="58"/>
-      <c r="C40" s="65"/>
-      <c r="D40" s="66"/>
-      <c r="E40" s="67"/>
+      <c r="A40" s="112"/>
+      <c r="B40" s="112"/>
+      <c r="C40" s="119"/>
+      <c r="D40" s="120"/>
+      <c r="E40" s="121"/>
       <c r="F40" s="35"/>
       <c r="G40" s="35"/>
-      <c r="H40" s="68"/>
-      <c r="I40" s="69"/>
-      <c r="J40" s="131"/>
+      <c r="H40" s="122"/>
+      <c r="I40" s="123"/>
+      <c r="J40" s="61"/>
       <c r="K40" s="51"/>
       <c r="L40" s="51"/>
       <c r="M40" s="51"/>
@@ -3397,24 +3400,24 @@
       <c r="AL40" s="51"/>
       <c r="AM40" s="51"/>
       <c r="AN40" s="52"/>
-      <c r="AO40" s="73" t="s">
+      <c r="AO40" s="124" t="s">
         <v>16</v>
       </c>
-      <c r="AP40" s="74"/>
+      <c r="AP40" s="125"/>
       <c r="AQ40" s="36"/>
       <c r="AR40" s="34"/>
     </row>
     <row r="41" spans="1:44" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="59"/>
-      <c r="B41" s="59"/>
-      <c r="C41" s="75"/>
-      <c r="D41" s="76"/>
-      <c r="E41" s="77"/>
+      <c r="A41" s="113"/>
+      <c r="B41" s="113"/>
+      <c r="C41" s="129"/>
+      <c r="D41" s="130"/>
+      <c r="E41" s="131"/>
       <c r="F41" s="55"/>
       <c r="G41" s="55"/>
-      <c r="H41" s="68"/>
-      <c r="I41" s="69"/>
-      <c r="J41" s="132"/>
+      <c r="H41" s="122"/>
+      <c r="I41" s="123"/>
+      <c r="J41" s="62"/>
       <c r="K41" s="50"/>
       <c r="L41" s="50"/>
       <c r="M41" s="50"/>
@@ -3444,7 +3447,7 @@
       <c r="AK41" s="50"/>
       <c r="AL41" s="50"/>
       <c r="AM41" s="50"/>
-      <c r="AN41" s="133"/>
+      <c r="AN41" s="63"/>
       <c r="AO41" s="37" t="s">
         <v>17</v>
       </c>
@@ -3455,16 +3458,16 @@
       <c r="AR41" s="40"/>
     </row>
     <row r="42" spans="1:44" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="57"/>
-      <c r="B42" s="57"/>
-      <c r="C42" s="60"/>
-      <c r="D42" s="61"/>
-      <c r="E42" s="62"/>
+      <c r="A42" s="111"/>
+      <c r="B42" s="111"/>
+      <c r="C42" s="114"/>
+      <c r="D42" s="115"/>
+      <c r="E42" s="116"/>
       <c r="F42" s="53"/>
       <c r="G42" s="56"/>
-      <c r="H42" s="63"/>
-      <c r="I42" s="64"/>
-      <c r="J42" s="127"/>
+      <c r="H42" s="117"/>
+      <c r="I42" s="118"/>
+      <c r="J42" s="57"/>
       <c r="K42" s="48"/>
       <c r="L42" s="48"/>
       <c r="M42" s="48"/>
@@ -3494,7 +3497,7 @@
       <c r="AK42" s="48"/>
       <c r="AL42" s="48"/>
       <c r="AM42" s="48"/>
-      <c r="AN42" s="128"/>
+      <c r="AN42" s="58"/>
       <c r="AO42" s="27" t="s">
         <v>9</v>
       </c>
@@ -3503,16 +3506,16 @@
       <c r="AR42" s="30"/>
     </row>
     <row r="43" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A43" s="58"/>
-      <c r="B43" s="58"/>
-      <c r="C43" s="65"/>
-      <c r="D43" s="66"/>
-      <c r="E43" s="67"/>
+      <c r="A43" s="112"/>
+      <c r="B43" s="112"/>
+      <c r="C43" s="119"/>
+      <c r="D43" s="120"/>
+      <c r="E43" s="121"/>
       <c r="F43" s="35"/>
       <c r="G43" s="35"/>
-      <c r="H43" s="68"/>
-      <c r="I43" s="69"/>
-      <c r="J43" s="129"/>
+      <c r="H43" s="122"/>
+      <c r="I43" s="123"/>
+      <c r="J43" s="59"/>
       <c r="K43" s="49"/>
       <c r="L43" s="49"/>
       <c r="M43" s="49"/>
@@ -3542,25 +3545,25 @@
       <c r="AK43" s="49"/>
       <c r="AL43" s="49"/>
       <c r="AM43" s="49"/>
-      <c r="AN43" s="130"/>
-      <c r="AO43" s="73" t="s">
+      <c r="AN43" s="60"/>
+      <c r="AO43" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="AP43" s="74"/>
-      <c r="AQ43" s="74"/>
+      <c r="AP43" s="125"/>
+      <c r="AQ43" s="125"/>
       <c r="AR43" s="30"/>
     </row>
     <row r="44" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A44" s="58"/>
-      <c r="B44" s="58"/>
-      <c r="C44" s="65"/>
-      <c r="D44" s="66"/>
-      <c r="E44" s="67"/>
+      <c r="A44" s="112"/>
+      <c r="B44" s="112"/>
+      <c r="C44" s="119"/>
+      <c r="D44" s="120"/>
+      <c r="E44" s="121"/>
       <c r="F44" s="35"/>
       <c r="G44" s="35"/>
-      <c r="H44" s="68"/>
-      <c r="I44" s="69"/>
-      <c r="J44" s="131"/>
+      <c r="H44" s="122"/>
+      <c r="I44" s="123"/>
+      <c r="J44" s="61"/>
       <c r="K44" s="51"/>
       <c r="L44" s="51"/>
       <c r="M44" s="51"/>
@@ -3601,16 +3604,16 @@
       <c r="AR44" s="33"/>
     </row>
     <row r="45" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A45" s="58"/>
-      <c r="B45" s="58"/>
-      <c r="C45" s="65"/>
-      <c r="D45" s="66"/>
-      <c r="E45" s="67"/>
+      <c r="A45" s="112"/>
+      <c r="B45" s="112"/>
+      <c r="C45" s="119"/>
+      <c r="D45" s="120"/>
+      <c r="E45" s="121"/>
       <c r="F45" s="35"/>
       <c r="G45" s="35"/>
-      <c r="H45" s="68"/>
-      <c r="I45" s="69"/>
-      <c r="J45" s="131"/>
+      <c r="H45" s="122"/>
+      <c r="I45" s="123"/>
+      <c r="J45" s="61"/>
       <c r="K45" s="51"/>
       <c r="L45" s="51"/>
       <c r="M45" s="51"/>
@@ -3641,24 +3644,24 @@
       <c r="AL45" s="51"/>
       <c r="AM45" s="51"/>
       <c r="AN45" s="52"/>
-      <c r="AO45" s="73" t="s">
+      <c r="AO45" s="124" t="s">
         <v>13</v>
       </c>
-      <c r="AP45" s="74"/>
+      <c r="AP45" s="125"/>
       <c r="AQ45" s="32"/>
       <c r="AR45" s="30"/>
     </row>
     <row r="46" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A46" s="58"/>
-      <c r="B46" s="58"/>
-      <c r="C46" s="70"/>
-      <c r="D46" s="71"/>
-      <c r="E46" s="72"/>
+      <c r="A46" s="112"/>
+      <c r="B46" s="112"/>
+      <c r="C46" s="126"/>
+      <c r="D46" s="127"/>
+      <c r="E46" s="128"/>
       <c r="F46" s="54"/>
       <c r="G46" s="35"/>
-      <c r="H46" s="68"/>
-      <c r="I46" s="69"/>
-      <c r="J46" s="131"/>
+      <c r="H46" s="122"/>
+      <c r="I46" s="123"/>
+      <c r="J46" s="61"/>
       <c r="K46" s="51"/>
       <c r="L46" s="51"/>
       <c r="M46" s="51"/>
@@ -3689,24 +3692,24 @@
       <c r="AL46" s="51"/>
       <c r="AM46" s="51"/>
       <c r="AN46" s="52"/>
-      <c r="AO46" s="73" t="s">
+      <c r="AO46" s="124" t="s">
         <v>14</v>
       </c>
-      <c r="AP46" s="74"/>
+      <c r="AP46" s="125"/>
       <c r="AQ46" s="32"/>
       <c r="AR46" s="34"/>
     </row>
     <row r="47" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A47" s="58"/>
-      <c r="B47" s="58"/>
-      <c r="C47" s="70"/>
-      <c r="D47" s="71"/>
-      <c r="E47" s="72"/>
+      <c r="A47" s="112"/>
+      <c r="B47" s="112"/>
+      <c r="C47" s="126"/>
+      <c r="D47" s="127"/>
+      <c r="E47" s="128"/>
       <c r="F47" s="54"/>
       <c r="G47" s="35"/>
-      <c r="H47" s="68"/>
-      <c r="I47" s="69"/>
-      <c r="J47" s="131"/>
+      <c r="H47" s="122"/>
+      <c r="I47" s="123"/>
+      <c r="J47" s="61"/>
       <c r="K47" s="51"/>
       <c r="L47" s="51"/>
       <c r="M47" s="51"/>
@@ -3737,24 +3740,24 @@
       <c r="AL47" s="51"/>
       <c r="AM47" s="51"/>
       <c r="AN47" s="52"/>
-      <c r="AO47" s="73" t="s">
+      <c r="AO47" s="124" t="s">
         <v>15</v>
       </c>
-      <c r="AP47" s="74"/>
+      <c r="AP47" s="125"/>
       <c r="AQ47" s="32"/>
       <c r="AR47" s="30"/>
     </row>
     <row r="48" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A48" s="58"/>
-      <c r="B48" s="58"/>
-      <c r="C48" s="65"/>
-      <c r="D48" s="66"/>
-      <c r="E48" s="67"/>
+      <c r="A48" s="112"/>
+      <c r="B48" s="112"/>
+      <c r="C48" s="119"/>
+      <c r="D48" s="120"/>
+      <c r="E48" s="121"/>
       <c r="F48" s="35"/>
       <c r="G48" s="35"/>
-      <c r="H48" s="68"/>
-      <c r="I48" s="69"/>
-      <c r="J48" s="131"/>
+      <c r="H48" s="122"/>
+      <c r="I48" s="123"/>
+      <c r="J48" s="61"/>
       <c r="K48" s="51"/>
       <c r="L48" s="51"/>
       <c r="M48" s="51"/>
@@ -3785,24 +3788,24 @@
       <c r="AL48" s="51"/>
       <c r="AM48" s="51"/>
       <c r="AN48" s="52"/>
-      <c r="AO48" s="73" t="s">
+      <c r="AO48" s="124" t="s">
         <v>16</v>
       </c>
-      <c r="AP48" s="74"/>
+      <c r="AP48" s="125"/>
       <c r="AQ48" s="36"/>
       <c r="AR48" s="34"/>
     </row>
     <row r="49" spans="1:44" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="59"/>
-      <c r="B49" s="59"/>
-      <c r="C49" s="75"/>
-      <c r="D49" s="76"/>
-      <c r="E49" s="77"/>
+      <c r="A49" s="113"/>
+      <c r="B49" s="113"/>
+      <c r="C49" s="129"/>
+      <c r="D49" s="130"/>
+      <c r="E49" s="131"/>
       <c r="F49" s="55"/>
       <c r="G49" s="55"/>
-      <c r="H49" s="78"/>
-      <c r="I49" s="79"/>
-      <c r="J49" s="132"/>
+      <c r="H49" s="132"/>
+      <c r="I49" s="133"/>
+      <c r="J49" s="62"/>
       <c r="K49" s="50"/>
       <c r="L49" s="50"/>
       <c r="M49" s="50"/>
@@ -3832,7 +3835,7 @@
       <c r="AK49" s="50"/>
       <c r="AL49" s="50"/>
       <c r="AM49" s="50"/>
-      <c r="AN49" s="133"/>
+      <c r="AN49" s="63"/>
       <c r="AO49" s="37" t="s">
         <v>17</v>
       </c>
@@ -37670,6 +37673,140 @@
     </row>
   </sheetData>
   <mergeCells count="158">
+    <mergeCell ref="A42:A49"/>
+    <mergeCell ref="B42:B49"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="AO43:AQ43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="AO45:AP45"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="AO46:AP46"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="AO47:AP47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="AO48:AP48"/>
+    <mergeCell ref="A34:A41"/>
+    <mergeCell ref="B34:B41"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="AO35:AQ35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="AO37:AP37"/>
+    <mergeCell ref="AO38:AP38"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="AO39:AP39"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="AO40:AP40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="A26:A33"/>
+    <mergeCell ref="B26:B33"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="AO27:AQ27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="AO29:AP29"/>
+    <mergeCell ref="AO30:AP30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="AO31:AP31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="AO32:AP32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="AO19:AQ19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="AO21:AP21"/>
+    <mergeCell ref="AO22:AP22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="AO23:AP23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="AO24:AP24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="AO9:AR9"/>
+    <mergeCell ref="A10:A17"/>
+    <mergeCell ref="B10:B17"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="AO11:AQ11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="AO13:AP13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="AO14:AP14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="AO15:AP15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="AO16:AP16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="AH7:AH8"/>
+    <mergeCell ref="AI7:AI8"/>
+    <mergeCell ref="AJ7:AJ8"/>
+    <mergeCell ref="AK7:AK8"/>
+    <mergeCell ref="AL7:AL8"/>
+    <mergeCell ref="AM7:AM8"/>
+    <mergeCell ref="AN7:AN8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="Y7:Y8"/>
+    <mergeCell ref="Z7:Z8"/>
+    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="AB7:AB8"/>
+    <mergeCell ref="AC7:AC8"/>
+    <mergeCell ref="AD7:AD8"/>
+    <mergeCell ref="AE7:AE8"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AG7:AG8"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="A5:A8"/>
     <mergeCell ref="B5:B8"/>
@@ -37694,143 +37831,9 @@
     <mergeCell ref="V7:V8"/>
     <mergeCell ref="W7:W8"/>
     <mergeCell ref="X7:X8"/>
-    <mergeCell ref="AH7:AH8"/>
-    <mergeCell ref="AI7:AI8"/>
-    <mergeCell ref="AJ7:AJ8"/>
-    <mergeCell ref="AK7:AK8"/>
-    <mergeCell ref="AL7:AL8"/>
-    <mergeCell ref="AM7:AM8"/>
-    <mergeCell ref="AN7:AN8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="Y7:Y8"/>
-    <mergeCell ref="Z7:Z8"/>
-    <mergeCell ref="AA7:AA8"/>
-    <mergeCell ref="AB7:AB8"/>
-    <mergeCell ref="AC7:AC8"/>
-    <mergeCell ref="AD7:AD8"/>
-    <mergeCell ref="AE7:AE8"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="AO9:AR9"/>
-    <mergeCell ref="A10:A17"/>
-    <mergeCell ref="B10:B17"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="AO11:AQ11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="AO13:AP13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="AO14:AP14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="AO15:AP15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="AO16:AP16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="A18:A25"/>
-    <mergeCell ref="B18:B25"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="AO19:AQ19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="AO21:AP21"/>
-    <mergeCell ref="AO22:AP22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="AO23:AP23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="AO24:AP24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="A26:A33"/>
-    <mergeCell ref="B26:B33"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="AO27:AQ27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="AO29:AP29"/>
-    <mergeCell ref="AO30:AP30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="AO31:AP31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="AO32:AP32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="A34:A41"/>
-    <mergeCell ref="B34:B41"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="AO35:AQ35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="AO37:AP37"/>
-    <mergeCell ref="AO38:AP38"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="AO39:AP39"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="AO40:AP40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="A42:A49"/>
-    <mergeCell ref="B42:B49"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="AO43:AQ43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="AO45:AP45"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="AO46:AP46"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="AO47:AP47"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="AO48:AP48"/>
   </mergeCells>
-  <pageMargins left="0.78740157480314965" right="0" top="0" bottom="0.125" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="60" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="58" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
     <brk id="220" max="16383" man="1"/>

--- a/dist/a4.xlsx
+++ b/dist/a4.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Projects\Test\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A36F3B10-080F-4FA0-8ECD-17BB75F9D83D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA778E2B-ADF7-407E-95EF-D81CC9E9C3AB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Page 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
@@ -55,12 +55,6 @@
     <t>Продолжительность работы:</t>
   </si>
   <si>
-    <t xml:space="preserve">1 смена -  </t>
-  </si>
-  <si>
-    <t>2 смена -</t>
-  </si>
-  <si>
     <t xml:space="preserve">Выезд из парка </t>
   </si>
   <si>
@@ -73,7 +67,13 @@
     <t>Время обеда:</t>
   </si>
   <si>
-    <t>1 смена -</t>
+    <t xml:space="preserve">1 смена  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 смена </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 смена </t>
   </si>
 </sst>
 </file>
@@ -83,7 +83,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -132,13 +132,6 @@
       <sz val="14"/>
       <name val="Verdana"/>
       <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="9"/>
-      <name val="Arial Cyr"/>
       <charset val="204"/>
     </font>
     <font>
@@ -646,7 +639,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -656,22 +649,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -685,77 +678,48 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -768,167 +732,53 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -969,12 +819,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -998,6 +842,147 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1320,7 +1305,7 @@
   <dimension ref="A1:AR1316"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" view="pageBreakPreview" zoomScale="82" zoomScaleNormal="82" zoomScaleSheetLayoutView="82" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+      <selection activeCell="AJ39" sqref="AJ39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -1330,12 +1315,12 @@
     <col min="3" max="4" width="5.6640625" style="17" customWidth="1"/>
     <col min="5" max="5" width="12.5546875" style="17" customWidth="1"/>
     <col min="6" max="6" width="9" style="17" customWidth="1"/>
-    <col min="7" max="7" width="7.109375" style="41" customWidth="1"/>
+    <col min="7" max="7" width="7.109375" style="28" customWidth="1"/>
     <col min="8" max="8" width="5.6640625" style="17" customWidth="1"/>
     <col min="9" max="9" width="3.44140625" style="17" customWidth="1"/>
-    <col min="10" max="29" width="4.33203125" style="42" customWidth="1"/>
-    <col min="30" max="30" width="4.44140625" style="42" customWidth="1"/>
-    <col min="31" max="40" width="4.33203125" style="42" customWidth="1"/>
+    <col min="10" max="29" width="4.33203125" style="29" customWidth="1"/>
+    <col min="30" max="30" width="4.44140625" style="29" customWidth="1"/>
+    <col min="31" max="40" width="4.33203125" style="29" customWidth="1"/>
     <col min="41" max="43" width="9.109375" style="17" customWidth="1"/>
     <col min="44" max="44" width="5.88671875" style="17" customWidth="1"/>
   </cols>
@@ -1381,17 +1366,15 @@
       <c r="AL1" s="7"/>
       <c r="AM1" s="7"/>
       <c r="AN1" s="10"/>
-      <c r="AR1" s="12">
-        <v>1</v>
-      </c>
+      <c r="AR1" s="12"/>
     </row>
     <row r="2" spans="1:44" s="11" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
       <c r="E2" s="13"/>
       <c r="F2" s="1"/>
       <c r="G2" s="4"/>
@@ -1522,266 +1505,266 @@
       <c r="AR4" s="15"/>
     </row>
     <row r="5" spans="1:44" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="68" t="s">
+      <c r="C5" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="69"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="77" t="s">
+      <c r="D5" s="93"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="80" t="s">
+      <c r="G5" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="83" t="s">
+      <c r="H5" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="84"/>
-      <c r="J5" s="89" t="s">
+      <c r="I5" s="108"/>
+      <c r="J5" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="90"/>
-      <c r="L5" s="90"/>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="90"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="90"/>
-      <c r="R5" s="90"/>
-      <c r="S5" s="90"/>
-      <c r="T5" s="90"/>
-      <c r="U5" s="90"/>
-      <c r="V5" s="90"/>
-      <c r="W5" s="90"/>
-      <c r="X5" s="90"/>
-      <c r="Y5" s="90"/>
-      <c r="Z5" s="90"/>
-      <c r="AA5" s="90"/>
-      <c r="AB5" s="90"/>
-      <c r="AC5" s="90"/>
-      <c r="AD5" s="90"/>
-      <c r="AE5" s="90"/>
-      <c r="AF5" s="90"/>
-      <c r="AG5" s="90"/>
-      <c r="AH5" s="90"/>
-      <c r="AI5" s="90"/>
-      <c r="AJ5" s="90"/>
-      <c r="AK5" s="90"/>
-      <c r="AL5" s="90"/>
-      <c r="AM5" s="90"/>
-      <c r="AN5" s="91"/>
-      <c r="AO5" s="95" t="s">
+      <c r="K5" s="114"/>
+      <c r="L5" s="114"/>
+      <c r="M5" s="114"/>
+      <c r="N5" s="114"/>
+      <c r="O5" s="114"/>
+      <c r="P5" s="114"/>
+      <c r="Q5" s="114"/>
+      <c r="R5" s="114"/>
+      <c r="S5" s="114"/>
+      <c r="T5" s="114"/>
+      <c r="U5" s="114"/>
+      <c r="V5" s="114"/>
+      <c r="W5" s="114"/>
+      <c r="X5" s="114"/>
+      <c r="Y5" s="114"/>
+      <c r="Z5" s="114"/>
+      <c r="AA5" s="114"/>
+      <c r="AB5" s="114"/>
+      <c r="AC5" s="114"/>
+      <c r="AD5" s="114"/>
+      <c r="AE5" s="114"/>
+      <c r="AF5" s="114"/>
+      <c r="AG5" s="114"/>
+      <c r="AH5" s="114"/>
+      <c r="AI5" s="114"/>
+      <c r="AJ5" s="114"/>
+      <c r="AK5" s="114"/>
+      <c r="AL5" s="114"/>
+      <c r="AM5" s="114"/>
+      <c r="AN5" s="115"/>
+      <c r="AO5" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="AP5" s="96"/>
-      <c r="AQ5" s="96"/>
-      <c r="AR5" s="97"/>
+      <c r="AP5" s="120"/>
+      <c r="AQ5" s="120"/>
+      <c r="AR5" s="121"/>
     </row>
     <row r="6" spans="1:44" s="17" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="66"/>
-      <c r="B6" s="66"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="92"/>
-      <c r="K6" s="93"/>
-      <c r="L6" s="93"/>
-      <c r="M6" s="93"/>
-      <c r="N6" s="93"/>
-      <c r="O6" s="93"/>
-      <c r="P6" s="93"/>
-      <c r="Q6" s="93"/>
-      <c r="R6" s="93"/>
-      <c r="S6" s="93"/>
-      <c r="T6" s="93"/>
-      <c r="U6" s="93"/>
-      <c r="V6" s="93"/>
-      <c r="W6" s="93"/>
-      <c r="X6" s="93"/>
-      <c r="Y6" s="93"/>
-      <c r="Z6" s="93"/>
-      <c r="AA6" s="93"/>
-      <c r="AB6" s="93"/>
-      <c r="AC6" s="93"/>
-      <c r="AD6" s="93"/>
-      <c r="AE6" s="93"/>
-      <c r="AF6" s="93"/>
-      <c r="AG6" s="93"/>
-      <c r="AH6" s="93"/>
-      <c r="AI6" s="93"/>
-      <c r="AJ6" s="93"/>
-      <c r="AK6" s="93"/>
-      <c r="AL6" s="93"/>
-      <c r="AM6" s="93"/>
-      <c r="AN6" s="94"/>
-      <c r="AO6" s="98"/>
-      <c r="AP6" s="99"/>
-      <c r="AQ6" s="99"/>
-      <c r="AR6" s="100"/>
+      <c r="A6" s="90"/>
+      <c r="B6" s="90"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="110"/>
+      <c r="J6" s="116"/>
+      <c r="K6" s="117"/>
+      <c r="L6" s="117"/>
+      <c r="M6" s="117"/>
+      <c r="N6" s="117"/>
+      <c r="O6" s="117"/>
+      <c r="P6" s="117"/>
+      <c r="Q6" s="117"/>
+      <c r="R6" s="117"/>
+      <c r="S6" s="117"/>
+      <c r="T6" s="117"/>
+      <c r="U6" s="117"/>
+      <c r="V6" s="117"/>
+      <c r="W6" s="117"/>
+      <c r="X6" s="117"/>
+      <c r="Y6" s="117"/>
+      <c r="Z6" s="117"/>
+      <c r="AA6" s="117"/>
+      <c r="AB6" s="117"/>
+      <c r="AC6" s="117"/>
+      <c r="AD6" s="117"/>
+      <c r="AE6" s="117"/>
+      <c r="AF6" s="117"/>
+      <c r="AG6" s="117"/>
+      <c r="AH6" s="117"/>
+      <c r="AI6" s="117"/>
+      <c r="AJ6" s="117"/>
+      <c r="AK6" s="117"/>
+      <c r="AL6" s="117"/>
+      <c r="AM6" s="117"/>
+      <c r="AN6" s="118"/>
+      <c r="AO6" s="122"/>
+      <c r="AP6" s="123"/>
+      <c r="AQ6" s="123"/>
+      <c r="AR6" s="124"/>
     </row>
     <row r="7" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="66"/>
-      <c r="B7" s="66"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="85"/>
-      <c r="I7" s="86"/>
-      <c r="J7" s="104">
+      <c r="A7" s="90"/>
+      <c r="B7" s="90"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="109"/>
+      <c r="I7" s="110"/>
+      <c r="J7" s="84">
         <v>1</v>
       </c>
-      <c r="K7" s="104">
+      <c r="K7" s="84">
         <v>2</v>
       </c>
-      <c r="L7" s="104">
+      <c r="L7" s="84">
         <v>3</v>
       </c>
-      <c r="M7" s="104">
+      <c r="M7" s="84">
         <v>4</v>
       </c>
-      <c r="N7" s="104">
+      <c r="N7" s="84">
         <v>5</v>
       </c>
-      <c r="O7" s="104">
+      <c r="O7" s="84">
         <v>6</v>
       </c>
-      <c r="P7" s="104">
+      <c r="P7" s="84">
         <v>7</v>
       </c>
-      <c r="Q7" s="104">
+      <c r="Q7" s="84">
         <v>8</v>
       </c>
-      <c r="R7" s="104">
+      <c r="R7" s="84">
         <v>9</v>
       </c>
-      <c r="S7" s="104">
+      <c r="S7" s="84">
         <v>10</v>
       </c>
-      <c r="T7" s="104">
+      <c r="T7" s="84">
         <v>11</v>
       </c>
-      <c r="U7" s="104">
+      <c r="U7" s="84">
         <v>12</v>
       </c>
-      <c r="V7" s="104">
+      <c r="V7" s="84">
         <v>13</v>
       </c>
-      <c r="W7" s="104">
+      <c r="W7" s="84">
         <v>14</v>
       </c>
-      <c r="X7" s="104">
+      <c r="X7" s="84">
         <v>15</v>
       </c>
-      <c r="Y7" s="104">
+      <c r="Y7" s="84">
         <v>16</v>
       </c>
-      <c r="Z7" s="104">
+      <c r="Z7" s="84">
         <v>17</v>
       </c>
-      <c r="AA7" s="104">
+      <c r="AA7" s="84">
         <v>18</v>
       </c>
-      <c r="AB7" s="104">
+      <c r="AB7" s="84">
         <v>19</v>
       </c>
-      <c r="AC7" s="104">
+      <c r="AC7" s="84">
         <v>20</v>
       </c>
-      <c r="AD7" s="104">
+      <c r="AD7" s="84">
         <v>21</v>
       </c>
-      <c r="AE7" s="104">
+      <c r="AE7" s="84">
         <v>22</v>
       </c>
-      <c r="AF7" s="104">
+      <c r="AF7" s="84">
         <v>23</v>
       </c>
-      <c r="AG7" s="104">
+      <c r="AG7" s="84">
         <v>24</v>
       </c>
-      <c r="AH7" s="104">
+      <c r="AH7" s="84">
         <v>25</v>
       </c>
-      <c r="AI7" s="104">
+      <c r="AI7" s="84">
         <v>26</v>
       </c>
-      <c r="AJ7" s="104">
+      <c r="AJ7" s="84">
         <v>27</v>
       </c>
-      <c r="AK7" s="104">
+      <c r="AK7" s="84">
         <v>28</v>
       </c>
-      <c r="AL7" s="104">
+      <c r="AL7" s="84">
         <v>29</v>
       </c>
-      <c r="AM7" s="104">
+      <c r="AM7" s="84">
         <v>30</v>
       </c>
-      <c r="AN7" s="104">
+      <c r="AN7" s="84">
         <v>31</v>
       </c>
-      <c r="AO7" s="98"/>
-      <c r="AP7" s="99"/>
-      <c r="AQ7" s="99"/>
-      <c r="AR7" s="100"/>
+      <c r="AO7" s="122"/>
+      <c r="AP7" s="123"/>
+      <c r="AQ7" s="123"/>
+      <c r="AR7" s="124"/>
     </row>
     <row r="8" spans="1:44" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="67"/>
-      <c r="B8" s="67"/>
-      <c r="C8" s="74"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="87"/>
-      <c r="I8" s="88"/>
-      <c r="J8" s="105"/>
-      <c r="K8" s="105"/>
-      <c r="L8" s="105"/>
-      <c r="M8" s="105"/>
-      <c r="N8" s="105"/>
-      <c r="O8" s="105"/>
-      <c r="P8" s="105"/>
-      <c r="Q8" s="105"/>
-      <c r="R8" s="105"/>
-      <c r="S8" s="105"/>
-      <c r="T8" s="105"/>
-      <c r="U8" s="105"/>
-      <c r="V8" s="105"/>
-      <c r="W8" s="105"/>
-      <c r="X8" s="105"/>
-      <c r="Y8" s="105"/>
-      <c r="Z8" s="105"/>
-      <c r="AA8" s="105"/>
-      <c r="AB8" s="105"/>
-      <c r="AC8" s="105"/>
-      <c r="AD8" s="105"/>
-      <c r="AE8" s="105"/>
-      <c r="AF8" s="105"/>
-      <c r="AG8" s="105"/>
-      <c r="AH8" s="105"/>
-      <c r="AI8" s="105"/>
-      <c r="AJ8" s="105"/>
-      <c r="AK8" s="105"/>
-      <c r="AL8" s="105"/>
-      <c r="AM8" s="105"/>
-      <c r="AN8" s="105"/>
-      <c r="AO8" s="101"/>
-      <c r="AP8" s="102"/>
-      <c r="AQ8" s="102"/>
-      <c r="AR8" s="103"/>
+      <c r="A8" s="91"/>
+      <c r="B8" s="91"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="111"/>
+      <c r="I8" s="112"/>
+      <c r="J8" s="85"/>
+      <c r="K8" s="85"/>
+      <c r="L8" s="85"/>
+      <c r="M8" s="85"/>
+      <c r="N8" s="85"/>
+      <c r="O8" s="85"/>
+      <c r="P8" s="85"/>
+      <c r="Q8" s="85"/>
+      <c r="R8" s="85"/>
+      <c r="S8" s="85"/>
+      <c r="T8" s="85"/>
+      <c r="U8" s="85"/>
+      <c r="V8" s="85"/>
+      <c r="W8" s="85"/>
+      <c r="X8" s="85"/>
+      <c r="Y8" s="85"/>
+      <c r="Z8" s="85"/>
+      <c r="AA8" s="85"/>
+      <c r="AB8" s="85"/>
+      <c r="AC8" s="85"/>
+      <c r="AD8" s="85"/>
+      <c r="AE8" s="85"/>
+      <c r="AF8" s="85"/>
+      <c r="AG8" s="85"/>
+      <c r="AH8" s="85"/>
+      <c r="AI8" s="85"/>
+      <c r="AJ8" s="85"/>
+      <c r="AK8" s="85"/>
+      <c r="AL8" s="85"/>
+      <c r="AM8" s="85"/>
+      <c r="AN8" s="85"/>
+      <c r="AO8" s="125"/>
+      <c r="AP8" s="126"/>
+      <c r="AQ8" s="126"/>
+      <c r="AR8" s="127"/>
     </row>
     <row r="9" spans="1:44" s="26" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="18">
@@ -1790,21 +1773,21 @@
       <c r="B9" s="19">
         <v>2</v>
       </c>
-      <c r="C9" s="106">
+      <c r="C9" s="81">
         <v>3</v>
       </c>
-      <c r="D9" s="107"/>
-      <c r="E9" s="108"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="83"/>
       <c r="F9" s="20">
         <v>4</v>
       </c>
       <c r="G9" s="21">
         <v>5</v>
       </c>
-      <c r="H9" s="109">
+      <c r="H9" s="86">
         <v>6</v>
       </c>
-      <c r="I9" s="110"/>
+      <c r="I9" s="87"/>
       <c r="J9" s="22">
         <v>7</v>
       </c>
@@ -1898,1968 +1881,1968 @@
       <c r="AN9" s="25">
         <v>37</v>
       </c>
-      <c r="AO9" s="106">
+      <c r="AO9" s="81">
         <v>38</v>
       </c>
-      <c r="AP9" s="107"/>
-      <c r="AQ9" s="107"/>
-      <c r="AR9" s="108"/>
-    </row>
-    <row r="10" spans="1:44" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="111"/>
-      <c r="B10" s="111"/>
-      <c r="C10" s="114"/>
-      <c r="D10" s="115"/>
-      <c r="E10" s="116"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="118"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="48"/>
-      <c r="P10" s="48"/>
-      <c r="Q10" s="48"/>
-      <c r="R10" s="48"/>
-      <c r="S10" s="48"/>
-      <c r="T10" s="48"/>
-      <c r="U10" s="48"/>
-      <c r="V10" s="48"/>
-      <c r="W10" s="48"/>
-      <c r="X10" s="48"/>
-      <c r="Y10" s="48"/>
-      <c r="Z10" s="48"/>
-      <c r="AA10" s="48"/>
-      <c r="AB10" s="48"/>
-      <c r="AC10" s="48"/>
-      <c r="AD10" s="48"/>
-      <c r="AE10" s="48"/>
-      <c r="AF10" s="48"/>
-      <c r="AG10" s="48"/>
-      <c r="AH10" s="48"/>
-      <c r="AI10" s="48"/>
-      <c r="AJ10" s="48"/>
-      <c r="AK10" s="48"/>
-      <c r="AL10" s="48"/>
-      <c r="AM10" s="48"/>
-      <c r="AN10" s="58"/>
-      <c r="AO10" s="27" t="s">
+      <c r="AP9" s="82"/>
+      <c r="AQ9" s="82"/>
+      <c r="AR9" s="83"/>
+    </row>
+    <row r="10" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A10" s="60"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="35"/>
+      <c r="S10" s="35"/>
+      <c r="T10" s="35"/>
+      <c r="U10" s="35"/>
+      <c r="V10" s="35"/>
+      <c r="W10" s="35"/>
+      <c r="X10" s="35"/>
+      <c r="Y10" s="35"/>
+      <c r="Z10" s="35"/>
+      <c r="AA10" s="35"/>
+      <c r="AB10" s="35"/>
+      <c r="AC10" s="35"/>
+      <c r="AD10" s="35"/>
+      <c r="AE10" s="35"/>
+      <c r="AF10" s="35"/>
+      <c r="AG10" s="35"/>
+      <c r="AH10" s="35"/>
+      <c r="AI10" s="35"/>
+      <c r="AJ10" s="35"/>
+      <c r="AK10" s="35"/>
+      <c r="AL10" s="35"/>
+      <c r="AM10" s="35"/>
+      <c r="AN10" s="45"/>
+      <c r="AO10" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="AP10" s="28"/>
-      <c r="AQ10" s="29"/>
-      <c r="AR10" s="30"/>
+      <c r="AP10" s="58"/>
+      <c r="AQ10" s="58"/>
+      <c r="AR10" s="59"/>
     </row>
     <row r="11" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A11" s="112"/>
-      <c r="B11" s="112"/>
-      <c r="C11" s="119"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="121"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="122"/>
-      <c r="I11" s="123"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="49"/>
-      <c r="O11" s="49"/>
-      <c r="P11" s="49"/>
-      <c r="Q11" s="49"/>
-      <c r="R11" s="49"/>
-      <c r="S11" s="49"/>
-      <c r="T11" s="49"/>
-      <c r="U11" s="49"/>
-      <c r="V11" s="49"/>
-      <c r="W11" s="49"/>
-      <c r="X11" s="49"/>
-      <c r="Y11" s="49"/>
-      <c r="Z11" s="49"/>
-      <c r="AA11" s="49"/>
-      <c r="AB11" s="49"/>
-      <c r="AC11" s="49"/>
-      <c r="AD11" s="49"/>
-      <c r="AE11" s="49"/>
-      <c r="AF11" s="49"/>
-      <c r="AG11" s="49"/>
-      <c r="AH11" s="49"/>
-      <c r="AI11" s="49"/>
-      <c r="AJ11" s="49"/>
-      <c r="AK11" s="49"/>
-      <c r="AL11" s="49"/>
-      <c r="AM11" s="49"/>
-      <c r="AN11" s="60"/>
-      <c r="AO11" s="124" t="s">
+      <c r="A11" s="61"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="71"/>
+      <c r="I11" s="72"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
+      <c r="S11" s="36"/>
+      <c r="T11" s="36"/>
+      <c r="U11" s="36"/>
+      <c r="V11" s="36"/>
+      <c r="W11" s="36"/>
+      <c r="X11" s="36"/>
+      <c r="Y11" s="36"/>
+      <c r="Z11" s="36"/>
+      <c r="AA11" s="36"/>
+      <c r="AB11" s="36"/>
+      <c r="AC11" s="36"/>
+      <c r="AD11" s="36"/>
+      <c r="AE11" s="36"/>
+      <c r="AF11" s="36"/>
+      <c r="AG11" s="36"/>
+      <c r="AH11" s="36"/>
+      <c r="AI11" s="36"/>
+      <c r="AJ11" s="36"/>
+      <c r="AK11" s="36"/>
+      <c r="AL11" s="36"/>
+      <c r="AM11" s="36"/>
+      <c r="AN11" s="47"/>
+      <c r="AO11" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="AP11" s="125"/>
-      <c r="AQ11" s="125"/>
-      <c r="AR11" s="30"/>
+      <c r="AP11" s="52"/>
+      <c r="AQ11" s="52"/>
+      <c r="AR11" s="53"/>
     </row>
     <row r="12" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A12" s="112"/>
-      <c r="B12" s="112"/>
-      <c r="C12" s="119"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="121"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="122"/>
-      <c r="I12" s="123"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="51"/>
-      <c r="Q12" s="51"/>
-      <c r="R12" s="51"/>
-      <c r="S12" s="51"/>
-      <c r="T12" s="51"/>
-      <c r="U12" s="51"/>
-      <c r="V12" s="51"/>
-      <c r="W12" s="51"/>
-      <c r="X12" s="51"/>
-      <c r="Y12" s="51"/>
-      <c r="Z12" s="51"/>
-      <c r="AA12" s="51"/>
-      <c r="AB12" s="51"/>
-      <c r="AC12" s="51"/>
-      <c r="AD12" s="51"/>
-      <c r="AE12" s="51"/>
-      <c r="AF12" s="51"/>
-      <c r="AG12" s="51"/>
-      <c r="AH12" s="51"/>
-      <c r="AI12" s="51"/>
-      <c r="AJ12" s="51"/>
-      <c r="AK12" s="51"/>
-      <c r="AL12" s="51"/>
-      <c r="AM12" s="51"/>
-      <c r="AN12" s="52"/>
-      <c r="AO12" s="31" t="s">
+      <c r="A12" s="61"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="38"/>
+      <c r="R12" s="38"/>
+      <c r="S12" s="38"/>
+      <c r="T12" s="38"/>
+      <c r="U12" s="38"/>
+      <c r="V12" s="38"/>
+      <c r="W12" s="38"/>
+      <c r="X12" s="38"/>
+      <c r="Y12" s="38"/>
+      <c r="Z12" s="38"/>
+      <c r="AA12" s="38"/>
+      <c r="AB12" s="38"/>
+      <c r="AC12" s="38"/>
+      <c r="AD12" s="38"/>
+      <c r="AE12" s="38"/>
+      <c r="AF12" s="38"/>
+      <c r="AG12" s="38"/>
+      <c r="AH12" s="38"/>
+      <c r="AI12" s="38"/>
+      <c r="AJ12" s="38"/>
+      <c r="AK12" s="38"/>
+      <c r="AL12" s="38"/>
+      <c r="AM12" s="38"/>
+      <c r="AN12" s="39"/>
+      <c r="AO12" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="AP12" s="52"/>
+      <c r="AQ12" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="AR12" s="53"/>
+    </row>
+    <row r="13" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A13" s="61"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="38"/>
+      <c r="R13" s="38"/>
+      <c r="S13" s="38"/>
+      <c r="T13" s="38"/>
+      <c r="U13" s="38"/>
+      <c r="V13" s="38"/>
+      <c r="W13" s="38"/>
+      <c r="X13" s="38"/>
+      <c r="Y13" s="38"/>
+      <c r="Z13" s="38"/>
+      <c r="AA13" s="38"/>
+      <c r="AB13" s="38"/>
+      <c r="AC13" s="38"/>
+      <c r="AD13" s="38"/>
+      <c r="AE13" s="38"/>
+      <c r="AF13" s="38"/>
+      <c r="AG13" s="38"/>
+      <c r="AH13" s="38"/>
+      <c r="AI13" s="38"/>
+      <c r="AJ13" s="38"/>
+      <c r="AK13" s="38"/>
+      <c r="AL13" s="38"/>
+      <c r="AM13" s="38"/>
+      <c r="AN13" s="39"/>
+      <c r="AO13" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="AP12" s="32"/>
-      <c r="AQ12" s="29" t="s">
+      <c r="AP13" s="52"/>
+      <c r="AQ13" s="52"/>
+      <c r="AR13" s="53"/>
+    </row>
+    <row r="14" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A14" s="61"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="71"/>
+      <c r="I14" s="72"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="38"/>
+      <c r="R14" s="38"/>
+      <c r="S14" s="38"/>
+      <c r="T14" s="38"/>
+      <c r="U14" s="38"/>
+      <c r="V14" s="38"/>
+      <c r="W14" s="38"/>
+      <c r="X14" s="38"/>
+      <c r="Y14" s="38"/>
+      <c r="Z14" s="38"/>
+      <c r="AA14" s="38"/>
+      <c r="AB14" s="38"/>
+      <c r="AC14" s="38"/>
+      <c r="AD14" s="38"/>
+      <c r="AE14" s="38"/>
+      <c r="AF14" s="38"/>
+      <c r="AG14" s="38"/>
+      <c r="AH14" s="38"/>
+      <c r="AI14" s="38"/>
+      <c r="AJ14" s="38"/>
+      <c r="AK14" s="38"/>
+      <c r="AL14" s="38"/>
+      <c r="AM14" s="38"/>
+      <c r="AN14" s="39"/>
+      <c r="AO14" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="AR12" s="33"/>
-    </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A13" s="112"/>
-      <c r="B13" s="112"/>
-      <c r="C13" s="119"/>
-      <c r="D13" s="120"/>
-      <c r="E13" s="121"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="123"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="51"/>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="51"/>
-      <c r="R13" s="51"/>
-      <c r="S13" s="51"/>
-      <c r="T13" s="51"/>
-      <c r="U13" s="51"/>
-      <c r="V13" s="51"/>
-      <c r="W13" s="51"/>
-      <c r="X13" s="51"/>
-      <c r="Y13" s="51"/>
-      <c r="Z13" s="51"/>
-      <c r="AA13" s="51"/>
-      <c r="AB13" s="51"/>
-      <c r="AC13" s="51"/>
-      <c r="AD13" s="51"/>
-      <c r="AE13" s="51"/>
-      <c r="AF13" s="51"/>
-      <c r="AG13" s="51"/>
-      <c r="AH13" s="51"/>
-      <c r="AI13" s="51"/>
-      <c r="AJ13" s="51"/>
-      <c r="AK13" s="51"/>
-      <c r="AL13" s="51"/>
-      <c r="AM13" s="51"/>
-      <c r="AN13" s="52"/>
-      <c r="AO13" s="124" t="s">
+      <c r="AP14" s="52"/>
+      <c r="AQ14" s="52"/>
+      <c r="AR14" s="53"/>
+    </row>
+    <row r="15" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A15" s="61"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="71"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="38"/>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="38"/>
+      <c r="R15" s="38"/>
+      <c r="S15" s="38"/>
+      <c r="T15" s="38"/>
+      <c r="U15" s="38"/>
+      <c r="V15" s="38"/>
+      <c r="W15" s="38"/>
+      <c r="X15" s="38"/>
+      <c r="Y15" s="38"/>
+      <c r="Z15" s="38"/>
+      <c r="AA15" s="38"/>
+      <c r="AB15" s="38"/>
+      <c r="AC15" s="38"/>
+      <c r="AD15" s="38"/>
+      <c r="AE15" s="38"/>
+      <c r="AF15" s="38"/>
+      <c r="AG15" s="38"/>
+      <c r="AH15" s="38"/>
+      <c r="AI15" s="38"/>
+      <c r="AJ15" s="38"/>
+      <c r="AK15" s="38"/>
+      <c r="AL15" s="38"/>
+      <c r="AM15" s="38"/>
+      <c r="AN15" s="39"/>
+      <c r="AO15" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="AP13" s="125"/>
-      <c r="AQ13" s="32"/>
-      <c r="AR13" s="30"/>
-    </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A14" s="112"/>
-      <c r="B14" s="112"/>
-      <c r="C14" s="126"/>
-      <c r="D14" s="127"/>
-      <c r="E14" s="128"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="123"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="51"/>
-      <c r="P14" s="51"/>
-      <c r="Q14" s="51"/>
-      <c r="R14" s="51"/>
-      <c r="S14" s="51"/>
-      <c r="T14" s="51"/>
-      <c r="U14" s="51"/>
-      <c r="V14" s="51"/>
-      <c r="W14" s="51"/>
-      <c r="X14" s="51"/>
-      <c r="Y14" s="51"/>
-      <c r="Z14" s="51"/>
-      <c r="AA14" s="51"/>
-      <c r="AB14" s="51"/>
-      <c r="AC14" s="51"/>
-      <c r="AD14" s="51"/>
-      <c r="AE14" s="51"/>
-      <c r="AF14" s="51"/>
-      <c r="AG14" s="51"/>
-      <c r="AH14" s="51"/>
-      <c r="AI14" s="51"/>
-      <c r="AJ14" s="51"/>
-      <c r="AK14" s="51"/>
-      <c r="AL14" s="51"/>
-      <c r="AM14" s="51"/>
-      <c r="AN14" s="52"/>
-      <c r="AO14" s="124" t="s">
+      <c r="AP15" s="52"/>
+      <c r="AQ15" s="52"/>
+      <c r="AR15" s="53"/>
+    </row>
+    <row r="16" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A16" s="61"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="38"/>
+      <c r="R16" s="38"/>
+      <c r="S16" s="38"/>
+      <c r="T16" s="38"/>
+      <c r="U16" s="38"/>
+      <c r="V16" s="38"/>
+      <c r="W16" s="38"/>
+      <c r="X16" s="38"/>
+      <c r="Y16" s="38"/>
+      <c r="Z16" s="38"/>
+      <c r="AA16" s="38"/>
+      <c r="AB16" s="38"/>
+      <c r="AC16" s="38"/>
+      <c r="AD16" s="38"/>
+      <c r="AE16" s="38"/>
+      <c r="AF16" s="38"/>
+      <c r="AG16" s="38"/>
+      <c r="AH16" s="38"/>
+      <c r="AI16" s="38"/>
+      <c r="AJ16" s="38"/>
+      <c r="AK16" s="38"/>
+      <c r="AL16" s="38"/>
+      <c r="AM16" s="38"/>
+      <c r="AN16" s="39"/>
+      <c r="AO16" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="AP14" s="125"/>
-      <c r="AQ14" s="32"/>
-      <c r="AR14" s="34"/>
-    </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A15" s="112"/>
-      <c r="B15" s="112"/>
-      <c r="C15" s="126"/>
-      <c r="D15" s="127"/>
-      <c r="E15" s="128"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="123"/>
-      <c r="J15" s="61"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="51"/>
-      <c r="Q15" s="51"/>
-      <c r="R15" s="51"/>
-      <c r="S15" s="51"/>
-      <c r="T15" s="51"/>
-      <c r="U15" s="51"/>
-      <c r="V15" s="51"/>
-      <c r="W15" s="51"/>
-      <c r="X15" s="51"/>
-      <c r="Y15" s="51"/>
-      <c r="Z15" s="51"/>
-      <c r="AA15" s="51"/>
-      <c r="AB15" s="51"/>
-      <c r="AC15" s="51"/>
-      <c r="AD15" s="51"/>
-      <c r="AE15" s="51"/>
-      <c r="AF15" s="51"/>
-      <c r="AG15" s="51"/>
-      <c r="AH15" s="51"/>
-      <c r="AI15" s="51"/>
-      <c r="AJ15" s="51"/>
-      <c r="AK15" s="51"/>
-      <c r="AL15" s="51"/>
-      <c r="AM15" s="51"/>
-      <c r="AN15" s="52"/>
-      <c r="AO15" s="124" t="s">
+      <c r="AP16" s="52"/>
+      <c r="AQ16" s="52"/>
+      <c r="AR16" s="53"/>
+    </row>
+    <row r="17" spans="1:44" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="62"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="71"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="37"/>
+      <c r="R17" s="37"/>
+      <c r="S17" s="37"/>
+      <c r="T17" s="37"/>
+      <c r="U17" s="37"/>
+      <c r="V17" s="37"/>
+      <c r="W17" s="37"/>
+      <c r="X17" s="37"/>
+      <c r="Y17" s="37"/>
+      <c r="Z17" s="37"/>
+      <c r="AA17" s="37"/>
+      <c r="AB17" s="37"/>
+      <c r="AC17" s="37"/>
+      <c r="AD17" s="37"/>
+      <c r="AE17" s="37"/>
+      <c r="AF17" s="37"/>
+      <c r="AG17" s="37"/>
+      <c r="AH17" s="37"/>
+      <c r="AI17" s="37"/>
+      <c r="AJ17" s="37"/>
+      <c r="AK17" s="37"/>
+      <c r="AL17" s="37"/>
+      <c r="AM17" s="37"/>
+      <c r="AN17" s="50"/>
+      <c r="AO17" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="AP17" s="55"/>
+      <c r="AQ17" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="AR17" s="56"/>
+    </row>
+    <row r="18" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A18" s="60"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="35"/>
+      <c r="S18" s="35"/>
+      <c r="T18" s="35"/>
+      <c r="U18" s="35"/>
+      <c r="V18" s="35"/>
+      <c r="W18" s="35"/>
+      <c r="X18" s="35"/>
+      <c r="Y18" s="35"/>
+      <c r="Z18" s="35"/>
+      <c r="AA18" s="35"/>
+      <c r="AB18" s="35"/>
+      <c r="AC18" s="35"/>
+      <c r="AD18" s="35"/>
+      <c r="AE18" s="35"/>
+      <c r="AF18" s="35"/>
+      <c r="AG18" s="35"/>
+      <c r="AH18" s="35"/>
+      <c r="AI18" s="35"/>
+      <c r="AJ18" s="35"/>
+      <c r="AK18" s="35"/>
+      <c r="AL18" s="35"/>
+      <c r="AM18" s="35"/>
+      <c r="AN18" s="45"/>
+      <c r="AO18" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP18" s="58"/>
+      <c r="AQ18" s="58"/>
+      <c r="AR18" s="59"/>
+    </row>
+    <row r="19" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A19" s="61"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="71"/>
+      <c r="I19" s="72"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
+      <c r="S19" s="36"/>
+      <c r="T19" s="36"/>
+      <c r="U19" s="36"/>
+      <c r="V19" s="36"/>
+      <c r="W19" s="36"/>
+      <c r="X19" s="36"/>
+      <c r="Y19" s="36"/>
+      <c r="Z19" s="36"/>
+      <c r="AA19" s="36"/>
+      <c r="AB19" s="36"/>
+      <c r="AC19" s="36"/>
+      <c r="AD19" s="36"/>
+      <c r="AE19" s="36"/>
+      <c r="AF19" s="36"/>
+      <c r="AG19" s="36"/>
+      <c r="AH19" s="36"/>
+      <c r="AI19" s="36"/>
+      <c r="AJ19" s="36"/>
+      <c r="AK19" s="36"/>
+      <c r="AL19" s="36"/>
+      <c r="AM19" s="36"/>
+      <c r="AN19" s="47"/>
+      <c r="AO19" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP19" s="52"/>
+      <c r="AQ19" s="52"/>
+      <c r="AR19" s="53"/>
+    </row>
+    <row r="20" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A20" s="61"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="72"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="38"/>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="38"/>
+      <c r="R20" s="38"/>
+      <c r="S20" s="38"/>
+      <c r="T20" s="38"/>
+      <c r="U20" s="38"/>
+      <c r="V20" s="38"/>
+      <c r="W20" s="38"/>
+      <c r="X20" s="38"/>
+      <c r="Y20" s="38"/>
+      <c r="Z20" s="38"/>
+      <c r="AA20" s="38"/>
+      <c r="AB20" s="38"/>
+      <c r="AC20" s="38"/>
+      <c r="AD20" s="38"/>
+      <c r="AE20" s="38"/>
+      <c r="AF20" s="38"/>
+      <c r="AG20" s="38"/>
+      <c r="AH20" s="38"/>
+      <c r="AI20" s="38"/>
+      <c r="AJ20" s="38"/>
+      <c r="AK20" s="38"/>
+      <c r="AL20" s="38"/>
+      <c r="AM20" s="38"/>
+      <c r="AN20" s="39"/>
+      <c r="AO20" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="AP15" s="125"/>
-      <c r="AQ15" s="32"/>
-      <c r="AR15" s="30"/>
-    </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A16" s="112"/>
-      <c r="B16" s="112"/>
-      <c r="C16" s="119"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="121"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="123"/>
-      <c r="J16" s="61"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="51"/>
-      <c r="O16" s="51"/>
-      <c r="P16" s="51"/>
-      <c r="Q16" s="51"/>
-      <c r="R16" s="51"/>
-      <c r="S16" s="51"/>
-      <c r="T16" s="51"/>
-      <c r="U16" s="51"/>
-      <c r="V16" s="51"/>
-      <c r="W16" s="51"/>
-      <c r="X16" s="51"/>
-      <c r="Y16" s="51"/>
-      <c r="Z16" s="51"/>
-      <c r="AA16" s="51"/>
-      <c r="AB16" s="51"/>
-      <c r="AC16" s="51"/>
-      <c r="AD16" s="51"/>
-      <c r="AE16" s="51"/>
-      <c r="AF16" s="51"/>
-      <c r="AG16" s="51"/>
-      <c r="AH16" s="51"/>
-      <c r="AI16" s="51"/>
-      <c r="AJ16" s="51"/>
-      <c r="AK16" s="51"/>
-      <c r="AL16" s="51"/>
-      <c r="AM16" s="51"/>
-      <c r="AN16" s="52"/>
-      <c r="AO16" s="124" t="s">
+      <c r="AP20" s="52"/>
+      <c r="AQ20" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="AP16" s="125"/>
-      <c r="AQ16" s="36"/>
-      <c r="AR16" s="34"/>
-    </row>
-    <row r="17" spans="1:44" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="113"/>
-      <c r="B17" s="113"/>
-      <c r="C17" s="129"/>
-      <c r="D17" s="130"/>
-      <c r="E17" s="131"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="122"/>
-      <c r="I17" s="123"/>
-      <c r="J17" s="62"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="50"/>
-      <c r="O17" s="50"/>
-      <c r="P17" s="50"/>
-      <c r="Q17" s="50"/>
-      <c r="R17" s="50"/>
-      <c r="S17" s="50"/>
-      <c r="T17" s="50"/>
-      <c r="U17" s="50"/>
-      <c r="V17" s="50"/>
-      <c r="W17" s="50"/>
-      <c r="X17" s="50"/>
-      <c r="Y17" s="50"/>
-      <c r="Z17" s="50"/>
-      <c r="AA17" s="50"/>
-      <c r="AB17" s="50"/>
-      <c r="AC17" s="50"/>
-      <c r="AD17" s="50"/>
-      <c r="AE17" s="50"/>
-      <c r="AF17" s="50"/>
-      <c r="AG17" s="50"/>
-      <c r="AH17" s="50"/>
-      <c r="AI17" s="50"/>
-      <c r="AJ17" s="50"/>
-      <c r="AK17" s="50"/>
-      <c r="AL17" s="50"/>
-      <c r="AM17" s="50"/>
-      <c r="AN17" s="63"/>
-      <c r="AO17" s="37" t="s">
+      <c r="AR20" s="53"/>
+    </row>
+    <row r="21" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A21" s="61"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="71"/>
+      <c r="I21" s="72"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="38"/>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="38"/>
+      <c r="R21" s="38"/>
+      <c r="S21" s="38"/>
+      <c r="T21" s="38"/>
+      <c r="U21" s="38"/>
+      <c r="V21" s="38"/>
+      <c r="W21" s="38"/>
+      <c r="X21" s="38"/>
+      <c r="Y21" s="38"/>
+      <c r="Z21" s="38"/>
+      <c r="AA21" s="38"/>
+      <c r="AB21" s="38"/>
+      <c r="AC21" s="38"/>
+      <c r="AD21" s="38"/>
+      <c r="AE21" s="38"/>
+      <c r="AF21" s="38"/>
+      <c r="AG21" s="38"/>
+      <c r="AH21" s="38"/>
+      <c r="AI21" s="38"/>
+      <c r="AJ21" s="38"/>
+      <c r="AK21" s="38"/>
+      <c r="AL21" s="38"/>
+      <c r="AM21" s="38"/>
+      <c r="AN21" s="39"/>
+      <c r="AO21" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="AP21" s="52"/>
+      <c r="AQ21" s="52"/>
+      <c r="AR21" s="53"/>
+    </row>
+    <row r="22" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A22" s="61"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="71"/>
+      <c r="I22" s="72"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="38"/>
+      <c r="P22" s="38"/>
+      <c r="Q22" s="38"/>
+      <c r="R22" s="38"/>
+      <c r="S22" s="38"/>
+      <c r="T22" s="38"/>
+      <c r="U22" s="38"/>
+      <c r="V22" s="38"/>
+      <c r="W22" s="38"/>
+      <c r="X22" s="38"/>
+      <c r="Y22" s="38"/>
+      <c r="Z22" s="38"/>
+      <c r="AA22" s="38"/>
+      <c r="AB22" s="38"/>
+      <c r="AC22" s="38"/>
+      <c r="AD22" s="38"/>
+      <c r="AE22" s="38"/>
+      <c r="AF22" s="38"/>
+      <c r="AG22" s="38"/>
+      <c r="AH22" s="38"/>
+      <c r="AI22" s="38"/>
+      <c r="AJ22" s="38"/>
+      <c r="AK22" s="38"/>
+      <c r="AL22" s="38"/>
+      <c r="AM22" s="38"/>
+      <c r="AN22" s="39"/>
+      <c r="AO22" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP22" s="52"/>
+      <c r="AQ22" s="52"/>
+      <c r="AR22" s="53"/>
+    </row>
+    <row r="23" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A23" s="61"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="73"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="71"/>
+      <c r="I23" s="72"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="38"/>
+      <c r="O23" s="38"/>
+      <c r="P23" s="38"/>
+      <c r="Q23" s="38"/>
+      <c r="R23" s="38"/>
+      <c r="S23" s="38"/>
+      <c r="T23" s="38"/>
+      <c r="U23" s="38"/>
+      <c r="V23" s="38"/>
+      <c r="W23" s="38"/>
+      <c r="X23" s="38"/>
+      <c r="Y23" s="38"/>
+      <c r="Z23" s="38"/>
+      <c r="AA23" s="38"/>
+      <c r="AB23" s="38"/>
+      <c r="AC23" s="38"/>
+      <c r="AD23" s="38"/>
+      <c r="AE23" s="38"/>
+      <c r="AF23" s="38"/>
+      <c r="AG23" s="38"/>
+      <c r="AH23" s="38"/>
+      <c r="AI23" s="38"/>
+      <c r="AJ23" s="38"/>
+      <c r="AK23" s="38"/>
+      <c r="AL23" s="38"/>
+      <c r="AM23" s="38"/>
+      <c r="AN23" s="39"/>
+      <c r="AO23" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="AP23" s="52"/>
+      <c r="AQ23" s="52"/>
+      <c r="AR23" s="53"/>
+    </row>
+    <row r="24" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A24" s="61"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="72"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="38"/>
+      <c r="O24" s="38"/>
+      <c r="P24" s="38"/>
+      <c r="Q24" s="38"/>
+      <c r="R24" s="38"/>
+      <c r="S24" s="38"/>
+      <c r="T24" s="38"/>
+      <c r="U24" s="38"/>
+      <c r="V24" s="38"/>
+      <c r="W24" s="38"/>
+      <c r="X24" s="38"/>
+      <c r="Y24" s="38"/>
+      <c r="Z24" s="38"/>
+      <c r="AA24" s="38"/>
+      <c r="AB24" s="38"/>
+      <c r="AC24" s="38"/>
+      <c r="AD24" s="38"/>
+      <c r="AE24" s="38"/>
+      <c r="AF24" s="38"/>
+      <c r="AG24" s="38"/>
+      <c r="AH24" s="38"/>
+      <c r="AI24" s="38"/>
+      <c r="AJ24" s="38"/>
+      <c r="AK24" s="38"/>
+      <c r="AL24" s="38"/>
+      <c r="AM24" s="38"/>
+      <c r="AN24" s="39"/>
+      <c r="AO24" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="AP24" s="52"/>
+      <c r="AQ24" s="52"/>
+      <c r="AR24" s="53"/>
+    </row>
+    <row r="25" spans="1:44" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="62"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="77"/>
+      <c r="E25" s="78"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="71"/>
+      <c r="I25" s="72"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="37"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="37"/>
+      <c r="R25" s="37"/>
+      <c r="S25" s="37"/>
+      <c r="T25" s="37"/>
+      <c r="U25" s="37"/>
+      <c r="V25" s="37"/>
+      <c r="W25" s="37"/>
+      <c r="X25" s="37"/>
+      <c r="Y25" s="37"/>
+      <c r="Z25" s="37"/>
+      <c r="AA25" s="37"/>
+      <c r="AB25" s="37"/>
+      <c r="AC25" s="37"/>
+      <c r="AD25" s="37"/>
+      <c r="AE25" s="37"/>
+      <c r="AF25" s="37"/>
+      <c r="AG25" s="37"/>
+      <c r="AH25" s="37"/>
+      <c r="AI25" s="37"/>
+      <c r="AJ25" s="37"/>
+      <c r="AK25" s="37"/>
+      <c r="AL25" s="37"/>
+      <c r="AM25" s="37"/>
+      <c r="AN25" s="50"/>
+      <c r="AO25" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="AP17" s="38"/>
-      <c r="AQ17" s="39" t="s">
+      <c r="AP25" s="55"/>
+      <c r="AQ25" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="AR25" s="56"/>
+    </row>
+    <row r="26" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A26" s="60"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="66"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="35"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="35"/>
+      <c r="Q26" s="35"/>
+      <c r="R26" s="35"/>
+      <c r="S26" s="35"/>
+      <c r="T26" s="35"/>
+      <c r="U26" s="35"/>
+      <c r="V26" s="35"/>
+      <c r="W26" s="35"/>
+      <c r="X26" s="35"/>
+      <c r="Y26" s="35"/>
+      <c r="Z26" s="35"/>
+      <c r="AA26" s="35"/>
+      <c r="AB26" s="35"/>
+      <c r="AC26" s="35"/>
+      <c r="AD26" s="35"/>
+      <c r="AE26" s="35"/>
+      <c r="AF26" s="35"/>
+      <c r="AG26" s="35"/>
+      <c r="AH26" s="35"/>
+      <c r="AI26" s="35"/>
+      <c r="AJ26" s="35"/>
+      <c r="AK26" s="35"/>
+      <c r="AL26" s="35"/>
+      <c r="AM26" s="35"/>
+      <c r="AN26" s="45"/>
+      <c r="AO26" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP26" s="58"/>
+      <c r="AQ26" s="58"/>
+      <c r="AR26" s="59"/>
+    </row>
+    <row r="27" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A27" s="61"/>
+      <c r="B27" s="61"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="71"/>
+      <c r="I27" s="72"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="36"/>
+      <c r="R27" s="36"/>
+      <c r="S27" s="36"/>
+      <c r="T27" s="36"/>
+      <c r="U27" s="36"/>
+      <c r="V27" s="36"/>
+      <c r="W27" s="36"/>
+      <c r="X27" s="36"/>
+      <c r="Y27" s="36"/>
+      <c r="Z27" s="36"/>
+      <c r="AA27" s="36"/>
+      <c r="AB27" s="36"/>
+      <c r="AC27" s="36"/>
+      <c r="AD27" s="36"/>
+      <c r="AE27" s="36"/>
+      <c r="AF27" s="36"/>
+      <c r="AG27" s="36"/>
+      <c r="AH27" s="36"/>
+      <c r="AI27" s="36"/>
+      <c r="AJ27" s="36"/>
+      <c r="AK27" s="36"/>
+      <c r="AL27" s="36"/>
+      <c r="AM27" s="36"/>
+      <c r="AN27" s="47"/>
+      <c r="AO27" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP27" s="52"/>
+      <c r="AQ27" s="52"/>
+      <c r="AR27" s="53"/>
+    </row>
+    <row r="28" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A28" s="61"/>
+      <c r="B28" s="61"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="71"/>
+      <c r="I28" s="72"/>
+      <c r="J28" s="48"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="38"/>
+      <c r="O28" s="38"/>
+      <c r="P28" s="38"/>
+      <c r="Q28" s="38"/>
+      <c r="R28" s="38"/>
+      <c r="S28" s="38"/>
+      <c r="T28" s="38"/>
+      <c r="U28" s="38"/>
+      <c r="V28" s="38"/>
+      <c r="W28" s="38"/>
+      <c r="X28" s="38"/>
+      <c r="Y28" s="38"/>
+      <c r="Z28" s="38"/>
+      <c r="AA28" s="38"/>
+      <c r="AB28" s="38"/>
+      <c r="AC28" s="38"/>
+      <c r="AD28" s="38"/>
+      <c r="AE28" s="38"/>
+      <c r="AF28" s="38"/>
+      <c r="AG28" s="38"/>
+      <c r="AH28" s="38"/>
+      <c r="AI28" s="38"/>
+      <c r="AJ28" s="38"/>
+      <c r="AK28" s="38"/>
+      <c r="AL28" s="38"/>
+      <c r="AM28" s="38"/>
+      <c r="AN28" s="39"/>
+      <c r="AO28" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="AP28" s="52"/>
+      <c r="AQ28" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="AR28" s="53"/>
+    </row>
+    <row r="29" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A29" s="61"/>
+      <c r="B29" s="61"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="48"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="38"/>
+      <c r="N29" s="38"/>
+      <c r="O29" s="38"/>
+      <c r="P29" s="38"/>
+      <c r="Q29" s="38"/>
+      <c r="R29" s="38"/>
+      <c r="S29" s="38"/>
+      <c r="T29" s="38"/>
+      <c r="U29" s="38"/>
+      <c r="V29" s="38"/>
+      <c r="W29" s="38"/>
+      <c r="X29" s="38"/>
+      <c r="Y29" s="38"/>
+      <c r="Z29" s="38"/>
+      <c r="AA29" s="38"/>
+      <c r="AB29" s="38"/>
+      <c r="AC29" s="38"/>
+      <c r="AD29" s="38"/>
+      <c r="AE29" s="38"/>
+      <c r="AF29" s="38"/>
+      <c r="AG29" s="38"/>
+      <c r="AH29" s="38"/>
+      <c r="AI29" s="38"/>
+      <c r="AJ29" s="38"/>
+      <c r="AK29" s="38"/>
+      <c r="AL29" s="38"/>
+      <c r="AM29" s="38"/>
+      <c r="AN29" s="39"/>
+      <c r="AO29" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="AP29" s="52"/>
+      <c r="AQ29" s="52"/>
+      <c r="AR29" s="53"/>
+    </row>
+    <row r="30" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A30" s="61"/>
+      <c r="B30" s="61"/>
+      <c r="C30" s="73"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="75"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="71"/>
+      <c r="I30" s="72"/>
+      <c r="J30" s="48"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="38"/>
+      <c r="N30" s="38"/>
+      <c r="O30" s="38"/>
+      <c r="P30" s="38"/>
+      <c r="Q30" s="38"/>
+      <c r="R30" s="38"/>
+      <c r="S30" s="38"/>
+      <c r="T30" s="38"/>
+      <c r="U30" s="38"/>
+      <c r="V30" s="38"/>
+      <c r="W30" s="38"/>
+      <c r="X30" s="38"/>
+      <c r="Y30" s="38"/>
+      <c r="Z30" s="38"/>
+      <c r="AA30" s="38"/>
+      <c r="AB30" s="38"/>
+      <c r="AC30" s="38"/>
+      <c r="AD30" s="38"/>
+      <c r="AE30" s="38"/>
+      <c r="AF30" s="38"/>
+      <c r="AG30" s="38"/>
+      <c r="AH30" s="38"/>
+      <c r="AI30" s="38"/>
+      <c r="AJ30" s="38"/>
+      <c r="AK30" s="38"/>
+      <c r="AL30" s="38"/>
+      <c r="AM30" s="38"/>
+      <c r="AN30" s="39"/>
+      <c r="AO30" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="AR17" s="40"/>
-    </row>
-    <row r="18" spans="1:44" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="111"/>
-      <c r="B18" s="111"/>
-      <c r="C18" s="114"/>
-      <c r="D18" s="115"/>
-      <c r="E18" s="116"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="117"/>
-      <c r="I18" s="118"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="48"/>
-      <c r="O18" s="48"/>
-      <c r="P18" s="48"/>
-      <c r="Q18" s="48"/>
-      <c r="R18" s="48"/>
-      <c r="S18" s="48"/>
-      <c r="T18" s="48"/>
-      <c r="U18" s="48"/>
-      <c r="V18" s="48"/>
-      <c r="W18" s="48"/>
-      <c r="X18" s="48"/>
-      <c r="Y18" s="48"/>
-      <c r="Z18" s="48"/>
-      <c r="AA18" s="48"/>
-      <c r="AB18" s="48"/>
-      <c r="AC18" s="48"/>
-      <c r="AD18" s="48"/>
-      <c r="AE18" s="48"/>
-      <c r="AF18" s="48"/>
-      <c r="AG18" s="48"/>
-      <c r="AH18" s="48"/>
-      <c r="AI18" s="48"/>
-      <c r="AJ18" s="48"/>
-      <c r="AK18" s="48"/>
-      <c r="AL18" s="48"/>
-      <c r="AM18" s="48"/>
-      <c r="AN18" s="58"/>
-      <c r="AO18" s="27" t="s">
+      <c r="AP30" s="52"/>
+      <c r="AQ30" s="52"/>
+      <c r="AR30" s="53"/>
+    </row>
+    <row r="31" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A31" s="61"/>
+      <c r="B31" s="61"/>
+      <c r="C31" s="73"/>
+      <c r="D31" s="74"/>
+      <c r="E31" s="75"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="71"/>
+      <c r="I31" s="72"/>
+      <c r="J31" s="48"/>
+      <c r="K31" s="38"/>
+      <c r="L31" s="38"/>
+      <c r="M31" s="38"/>
+      <c r="N31" s="38"/>
+      <c r="O31" s="38"/>
+      <c r="P31" s="38"/>
+      <c r="Q31" s="38"/>
+      <c r="R31" s="38"/>
+      <c r="S31" s="38"/>
+      <c r="T31" s="38"/>
+      <c r="U31" s="38"/>
+      <c r="V31" s="38"/>
+      <c r="W31" s="38"/>
+      <c r="X31" s="38"/>
+      <c r="Y31" s="38"/>
+      <c r="Z31" s="38"/>
+      <c r="AA31" s="38"/>
+      <c r="AB31" s="38"/>
+      <c r="AC31" s="38"/>
+      <c r="AD31" s="38"/>
+      <c r="AE31" s="38"/>
+      <c r="AF31" s="38"/>
+      <c r="AG31" s="38"/>
+      <c r="AH31" s="38"/>
+      <c r="AI31" s="38"/>
+      <c r="AJ31" s="38"/>
+      <c r="AK31" s="38"/>
+      <c r="AL31" s="38"/>
+      <c r="AM31" s="38"/>
+      <c r="AN31" s="39"/>
+      <c r="AO31" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="AP31" s="52"/>
+      <c r="AQ31" s="52"/>
+      <c r="AR31" s="53"/>
+    </row>
+    <row r="32" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A32" s="61"/>
+      <c r="B32" s="61"/>
+      <c r="C32" s="68"/>
+      <c r="D32" s="69"/>
+      <c r="E32" s="70"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="71"/>
+      <c r="I32" s="72"/>
+      <c r="J32" s="48"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="38"/>
+      <c r="N32" s="38"/>
+      <c r="O32" s="38"/>
+      <c r="P32" s="38"/>
+      <c r="Q32" s="38"/>
+      <c r="R32" s="38"/>
+      <c r="S32" s="38"/>
+      <c r="T32" s="38"/>
+      <c r="U32" s="38"/>
+      <c r="V32" s="38"/>
+      <c r="W32" s="38"/>
+      <c r="X32" s="38"/>
+      <c r="Y32" s="38"/>
+      <c r="Z32" s="38"/>
+      <c r="AA32" s="38"/>
+      <c r="AB32" s="38"/>
+      <c r="AC32" s="38"/>
+      <c r="AD32" s="38"/>
+      <c r="AE32" s="38"/>
+      <c r="AF32" s="38"/>
+      <c r="AG32" s="38"/>
+      <c r="AH32" s="38"/>
+      <c r="AI32" s="38"/>
+      <c r="AJ32" s="38"/>
+      <c r="AK32" s="38"/>
+      <c r="AL32" s="38"/>
+      <c r="AM32" s="38"/>
+      <c r="AN32" s="39"/>
+      <c r="AO32" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="AP32" s="52"/>
+      <c r="AQ32" s="52"/>
+      <c r="AR32" s="53"/>
+    </row>
+    <row r="33" spans="1:44" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="62"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="76"/>
+      <c r="D33" s="77"/>
+      <c r="E33" s="78"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="71"/>
+      <c r="I33" s="72"/>
+      <c r="J33" s="49"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="37"/>
+      <c r="N33" s="37"/>
+      <c r="O33" s="37"/>
+      <c r="P33" s="37"/>
+      <c r="Q33" s="37"/>
+      <c r="R33" s="37"/>
+      <c r="S33" s="37"/>
+      <c r="T33" s="37"/>
+      <c r="U33" s="37"/>
+      <c r="V33" s="37"/>
+      <c r="W33" s="37"/>
+      <c r="X33" s="37"/>
+      <c r="Y33" s="37"/>
+      <c r="Z33" s="37"/>
+      <c r="AA33" s="37"/>
+      <c r="AB33" s="37"/>
+      <c r="AC33" s="37"/>
+      <c r="AD33" s="37"/>
+      <c r="AE33" s="37"/>
+      <c r="AF33" s="37"/>
+      <c r="AG33" s="37"/>
+      <c r="AH33" s="37"/>
+      <c r="AI33" s="37"/>
+      <c r="AJ33" s="37"/>
+      <c r="AK33" s="37"/>
+      <c r="AL33" s="37"/>
+      <c r="AM33" s="37"/>
+      <c r="AN33" s="50"/>
+      <c r="AO33" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="AP33" s="55"/>
+      <c r="AQ33" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="AR33" s="56"/>
+    </row>
+    <row r="34" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A34" s="60"/>
+      <c r="B34" s="60"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="64"/>
+      <c r="E34" s="65"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="66"/>
+      <c r="I34" s="67"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="35"/>
+      <c r="M34" s="35"/>
+      <c r="N34" s="35"/>
+      <c r="O34" s="35"/>
+      <c r="P34" s="35"/>
+      <c r="Q34" s="35"/>
+      <c r="R34" s="35"/>
+      <c r="S34" s="35"/>
+      <c r="T34" s="35"/>
+      <c r="U34" s="35"/>
+      <c r="V34" s="35"/>
+      <c r="W34" s="35"/>
+      <c r="X34" s="35"/>
+      <c r="Y34" s="35"/>
+      <c r="Z34" s="35"/>
+      <c r="AA34" s="35"/>
+      <c r="AB34" s="35"/>
+      <c r="AC34" s="35"/>
+      <c r="AD34" s="35"/>
+      <c r="AE34" s="35"/>
+      <c r="AF34" s="35"/>
+      <c r="AG34" s="35"/>
+      <c r="AH34" s="35"/>
+      <c r="AI34" s="35"/>
+      <c r="AJ34" s="35"/>
+      <c r="AK34" s="35"/>
+      <c r="AL34" s="35"/>
+      <c r="AM34" s="35"/>
+      <c r="AN34" s="45"/>
+      <c r="AO34" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="AP18" s="28"/>
-      <c r="AQ18" s="29"/>
-      <c r="AR18" s="30"/>
-    </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A19" s="112"/>
-      <c r="B19" s="112"/>
-      <c r="C19" s="119"/>
-      <c r="D19" s="120"/>
-      <c r="E19" s="121"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="122"/>
-      <c r="I19" s="123"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="49"/>
-      <c r="L19" s="49"/>
-      <c r="M19" s="49"/>
-      <c r="N19" s="49"/>
-      <c r="O19" s="49"/>
-      <c r="P19" s="49"/>
-      <c r="Q19" s="49"/>
-      <c r="R19" s="49"/>
-      <c r="S19" s="49"/>
-      <c r="T19" s="49"/>
-      <c r="U19" s="49"/>
-      <c r="V19" s="49"/>
-      <c r="W19" s="49"/>
-      <c r="X19" s="49"/>
-      <c r="Y19" s="49"/>
-      <c r="Z19" s="49"/>
-      <c r="AA19" s="49"/>
-      <c r="AB19" s="49"/>
-      <c r="AC19" s="49"/>
-      <c r="AD19" s="49"/>
-      <c r="AE19" s="49"/>
-      <c r="AF19" s="49"/>
-      <c r="AG19" s="49"/>
-      <c r="AH19" s="49"/>
-      <c r="AI19" s="49"/>
-      <c r="AJ19" s="49"/>
-      <c r="AK19" s="49"/>
-      <c r="AL19" s="49"/>
-      <c r="AM19" s="49"/>
-      <c r="AN19" s="60"/>
-      <c r="AO19" s="124" t="s">
+      <c r="AP34" s="58"/>
+      <c r="AQ34" s="58"/>
+      <c r="AR34" s="59"/>
+    </row>
+    <row r="35" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A35" s="61"/>
+      <c r="B35" s="61"/>
+      <c r="C35" s="68"/>
+      <c r="D35" s="69"/>
+      <c r="E35" s="70"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="71"/>
+      <c r="I35" s="72"/>
+      <c r="J35" s="46"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="36"/>
+      <c r="M35" s="36"/>
+      <c r="N35" s="36"/>
+      <c r="O35" s="36"/>
+      <c r="P35" s="36"/>
+      <c r="Q35" s="36"/>
+      <c r="R35" s="36"/>
+      <c r="S35" s="36"/>
+      <c r="T35" s="36"/>
+      <c r="U35" s="36"/>
+      <c r="V35" s="36"/>
+      <c r="W35" s="36"/>
+      <c r="X35" s="36"/>
+      <c r="Y35" s="36"/>
+      <c r="Z35" s="36"/>
+      <c r="AA35" s="36"/>
+      <c r="AB35" s="36"/>
+      <c r="AC35" s="36"/>
+      <c r="AD35" s="36"/>
+      <c r="AE35" s="36"/>
+      <c r="AF35" s="36"/>
+      <c r="AG35" s="36"/>
+      <c r="AH35" s="36"/>
+      <c r="AI35" s="36"/>
+      <c r="AJ35" s="36"/>
+      <c r="AK35" s="36"/>
+      <c r="AL35" s="36"/>
+      <c r="AM35" s="36"/>
+      <c r="AN35" s="47"/>
+      <c r="AO35" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="AP19" s="125"/>
-      <c r="AQ19" s="125"/>
-      <c r="AR19" s="30"/>
-    </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A20" s="112"/>
-      <c r="B20" s="112"/>
-      <c r="C20" s="119"/>
-      <c r="D20" s="120"/>
-      <c r="E20" s="121"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="122"/>
-      <c r="I20" s="123"/>
-      <c r="J20" s="61"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="51"/>
-      <c r="N20" s="51"/>
-      <c r="O20" s="51"/>
-      <c r="P20" s="51"/>
-      <c r="Q20" s="51"/>
-      <c r="R20" s="51"/>
-      <c r="S20" s="51"/>
-      <c r="T20" s="51"/>
-      <c r="U20" s="51"/>
-      <c r="V20" s="51"/>
-      <c r="W20" s="51"/>
-      <c r="X20" s="51"/>
-      <c r="Y20" s="51"/>
-      <c r="Z20" s="51"/>
-      <c r="AA20" s="51"/>
-      <c r="AB20" s="51"/>
-      <c r="AC20" s="51"/>
-      <c r="AD20" s="51"/>
-      <c r="AE20" s="51"/>
-      <c r="AF20" s="51"/>
-      <c r="AG20" s="51"/>
-      <c r="AH20" s="51"/>
-      <c r="AI20" s="51"/>
-      <c r="AJ20" s="51"/>
-      <c r="AK20" s="51"/>
-      <c r="AL20" s="51"/>
-      <c r="AM20" s="51"/>
-      <c r="AN20" s="52"/>
-      <c r="AO20" s="31" t="s">
+      <c r="AP35" s="52"/>
+      <c r="AQ35" s="52"/>
+      <c r="AR35" s="53"/>
+    </row>
+    <row r="36" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A36" s="61"/>
+      <c r="B36" s="61"/>
+      <c r="C36" s="68"/>
+      <c r="D36" s="69"/>
+      <c r="E36" s="70"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="71"/>
+      <c r="I36" s="72"/>
+      <c r="J36" s="48"/>
+      <c r="K36" s="38"/>
+      <c r="L36" s="38"/>
+      <c r="M36" s="38"/>
+      <c r="N36" s="38"/>
+      <c r="O36" s="38"/>
+      <c r="P36" s="38"/>
+      <c r="Q36" s="38"/>
+      <c r="R36" s="38"/>
+      <c r="S36" s="38"/>
+      <c r="T36" s="38"/>
+      <c r="U36" s="38"/>
+      <c r="V36" s="38"/>
+      <c r="W36" s="38"/>
+      <c r="X36" s="38"/>
+      <c r="Y36" s="38"/>
+      <c r="Z36" s="38"/>
+      <c r="AA36" s="38"/>
+      <c r="AB36" s="38"/>
+      <c r="AC36" s="38"/>
+      <c r="AD36" s="38"/>
+      <c r="AE36" s="38"/>
+      <c r="AF36" s="38"/>
+      <c r="AG36" s="38"/>
+      <c r="AH36" s="38"/>
+      <c r="AI36" s="38"/>
+      <c r="AJ36" s="38"/>
+      <c r="AK36" s="38"/>
+      <c r="AL36" s="38"/>
+      <c r="AM36" s="38"/>
+      <c r="AN36" s="39"/>
+      <c r="AO36" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="AP36" s="52"/>
+      <c r="AQ36" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="AR36" s="53"/>
+    </row>
+    <row r="37" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A37" s="61"/>
+      <c r="B37" s="61"/>
+      <c r="C37" s="68"/>
+      <c r="D37" s="69"/>
+      <c r="E37" s="70"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="71"/>
+      <c r="I37" s="72"/>
+      <c r="J37" s="48"/>
+      <c r="K37" s="38"/>
+      <c r="L37" s="38"/>
+      <c r="M37" s="38"/>
+      <c r="N37" s="38"/>
+      <c r="O37" s="38"/>
+      <c r="P37" s="38"/>
+      <c r="Q37" s="38"/>
+      <c r="R37" s="38"/>
+      <c r="S37" s="38"/>
+      <c r="T37" s="38"/>
+      <c r="U37" s="38"/>
+      <c r="V37" s="38"/>
+      <c r="W37" s="38"/>
+      <c r="X37" s="38"/>
+      <c r="Y37" s="38"/>
+      <c r="Z37" s="38"/>
+      <c r="AA37" s="38"/>
+      <c r="AB37" s="38"/>
+      <c r="AC37" s="38"/>
+      <c r="AD37" s="38"/>
+      <c r="AE37" s="38"/>
+      <c r="AF37" s="38"/>
+      <c r="AG37" s="38"/>
+      <c r="AH37" s="38"/>
+      <c r="AI37" s="38"/>
+      <c r="AJ37" s="38"/>
+      <c r="AK37" s="38"/>
+      <c r="AL37" s="38"/>
+      <c r="AM37" s="38"/>
+      <c r="AN37" s="39"/>
+      <c r="AO37" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="AP20" s="32"/>
-      <c r="AQ20" s="29" t="s">
+      <c r="AP37" s="52"/>
+      <c r="AQ37" s="52"/>
+      <c r="AR37" s="53"/>
+    </row>
+    <row r="38" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A38" s="61"/>
+      <c r="B38" s="61"/>
+      <c r="C38" s="73"/>
+      <c r="D38" s="74"/>
+      <c r="E38" s="75"/>
+      <c r="F38" s="41"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="71"/>
+      <c r="I38" s="72"/>
+      <c r="J38" s="48"/>
+      <c r="K38" s="38"/>
+      <c r="L38" s="38"/>
+      <c r="M38" s="38"/>
+      <c r="N38" s="38"/>
+      <c r="O38" s="38"/>
+      <c r="P38" s="38"/>
+      <c r="Q38" s="38"/>
+      <c r="R38" s="38"/>
+      <c r="S38" s="38"/>
+      <c r="T38" s="38"/>
+      <c r="U38" s="38"/>
+      <c r="V38" s="38"/>
+      <c r="W38" s="38"/>
+      <c r="X38" s="38"/>
+      <c r="Y38" s="38"/>
+      <c r="Z38" s="38"/>
+      <c r="AA38" s="38"/>
+      <c r="AB38" s="38"/>
+      <c r="AC38" s="38"/>
+      <c r="AD38" s="38"/>
+      <c r="AE38" s="38"/>
+      <c r="AF38" s="38"/>
+      <c r="AG38" s="38"/>
+      <c r="AH38" s="38"/>
+      <c r="AI38" s="38"/>
+      <c r="AJ38" s="38"/>
+      <c r="AK38" s="38"/>
+      <c r="AL38" s="38"/>
+      <c r="AM38" s="38"/>
+      <c r="AN38" s="39"/>
+      <c r="AO38" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="AR20" s="33"/>
-    </row>
-    <row r="21" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A21" s="112"/>
-      <c r="B21" s="112"/>
-      <c r="C21" s="119"/>
-      <c r="D21" s="120"/>
-      <c r="E21" s="121"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="122"/>
-      <c r="I21" s="123"/>
-      <c r="J21" s="61"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="51"/>
-      <c r="M21" s="51"/>
-      <c r="N21" s="51"/>
-      <c r="O21" s="51"/>
-      <c r="P21" s="51"/>
-      <c r="Q21" s="51"/>
-      <c r="R21" s="51"/>
-      <c r="S21" s="51"/>
-      <c r="T21" s="51"/>
-      <c r="U21" s="51"/>
-      <c r="V21" s="51"/>
-      <c r="W21" s="51"/>
-      <c r="X21" s="51"/>
-      <c r="Y21" s="51"/>
-      <c r="Z21" s="51"/>
-      <c r="AA21" s="51"/>
-      <c r="AB21" s="51"/>
-      <c r="AC21" s="51"/>
-      <c r="AD21" s="51"/>
-      <c r="AE21" s="51"/>
-      <c r="AF21" s="51"/>
-      <c r="AG21" s="51"/>
-      <c r="AH21" s="51"/>
-      <c r="AI21" s="51"/>
-      <c r="AJ21" s="51"/>
-      <c r="AK21" s="51"/>
-      <c r="AL21" s="51"/>
-      <c r="AM21" s="51"/>
-      <c r="AN21" s="52"/>
-      <c r="AO21" s="124" t="s">
+      <c r="AP38" s="52"/>
+      <c r="AQ38" s="52"/>
+      <c r="AR38" s="53"/>
+    </row>
+    <row r="39" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A39" s="61"/>
+      <c r="B39" s="61"/>
+      <c r="C39" s="73"/>
+      <c r="D39" s="74"/>
+      <c r="E39" s="75"/>
+      <c r="F39" s="41"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="71"/>
+      <c r="I39" s="72"/>
+      <c r="J39" s="48"/>
+      <c r="K39" s="38"/>
+      <c r="L39" s="38"/>
+      <c r="M39" s="38"/>
+      <c r="N39" s="38"/>
+      <c r="O39" s="38"/>
+      <c r="P39" s="38"/>
+      <c r="Q39" s="38"/>
+      <c r="R39" s="38"/>
+      <c r="S39" s="38"/>
+      <c r="T39" s="38"/>
+      <c r="U39" s="38"/>
+      <c r="V39" s="38"/>
+      <c r="W39" s="38"/>
+      <c r="X39" s="38"/>
+      <c r="Y39" s="38"/>
+      <c r="Z39" s="38"/>
+      <c r="AA39" s="38"/>
+      <c r="AB39" s="38"/>
+      <c r="AC39" s="38"/>
+      <c r="AD39" s="38"/>
+      <c r="AE39" s="38"/>
+      <c r="AF39" s="38"/>
+      <c r="AG39" s="38"/>
+      <c r="AH39" s="38"/>
+      <c r="AI39" s="38"/>
+      <c r="AJ39" s="38"/>
+      <c r="AK39" s="38"/>
+      <c r="AL39" s="38"/>
+      <c r="AM39" s="38"/>
+      <c r="AN39" s="39"/>
+      <c r="AO39" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="AP21" s="125"/>
-      <c r="AQ21" s="32"/>
-      <c r="AR21" s="30"/>
-    </row>
-    <row r="22" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A22" s="112"/>
-      <c r="B22" s="112"/>
-      <c r="C22" s="126"/>
-      <c r="D22" s="127"/>
-      <c r="E22" s="128"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="122"/>
-      <c r="I22" s="123"/>
-      <c r="J22" s="61"/>
-      <c r="K22" s="51"/>
-      <c r="L22" s="51"/>
-      <c r="M22" s="51"/>
-      <c r="N22" s="51"/>
-      <c r="O22" s="51"/>
-      <c r="P22" s="51"/>
-      <c r="Q22" s="51"/>
-      <c r="R22" s="51"/>
-      <c r="S22" s="51"/>
-      <c r="T22" s="51"/>
-      <c r="U22" s="51"/>
-      <c r="V22" s="51"/>
-      <c r="W22" s="51"/>
-      <c r="X22" s="51"/>
-      <c r="Y22" s="51"/>
-      <c r="Z22" s="51"/>
-      <c r="AA22" s="51"/>
-      <c r="AB22" s="51"/>
-      <c r="AC22" s="51"/>
-      <c r="AD22" s="51"/>
-      <c r="AE22" s="51"/>
-      <c r="AF22" s="51"/>
-      <c r="AG22" s="51"/>
-      <c r="AH22" s="51"/>
-      <c r="AI22" s="51"/>
-      <c r="AJ22" s="51"/>
-      <c r="AK22" s="51"/>
-      <c r="AL22" s="51"/>
-      <c r="AM22" s="51"/>
-      <c r="AN22" s="52"/>
-      <c r="AO22" s="124" t="s">
+      <c r="AP39" s="52"/>
+      <c r="AQ39" s="52"/>
+      <c r="AR39" s="53"/>
+    </row>
+    <row r="40" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A40" s="61"/>
+      <c r="B40" s="61"/>
+      <c r="C40" s="68"/>
+      <c r="D40" s="69"/>
+      <c r="E40" s="70"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="71"/>
+      <c r="I40" s="72"/>
+      <c r="J40" s="48"/>
+      <c r="K40" s="38"/>
+      <c r="L40" s="38"/>
+      <c r="M40" s="38"/>
+      <c r="N40" s="38"/>
+      <c r="O40" s="38"/>
+      <c r="P40" s="38"/>
+      <c r="Q40" s="38"/>
+      <c r="R40" s="38"/>
+      <c r="S40" s="38"/>
+      <c r="T40" s="38"/>
+      <c r="U40" s="38"/>
+      <c r="V40" s="38"/>
+      <c r="W40" s="38"/>
+      <c r="X40" s="38"/>
+      <c r="Y40" s="38"/>
+      <c r="Z40" s="38"/>
+      <c r="AA40" s="38"/>
+      <c r="AB40" s="38"/>
+      <c r="AC40" s="38"/>
+      <c r="AD40" s="38"/>
+      <c r="AE40" s="38"/>
+      <c r="AF40" s="38"/>
+      <c r="AG40" s="38"/>
+      <c r="AH40" s="38"/>
+      <c r="AI40" s="38"/>
+      <c r="AJ40" s="38"/>
+      <c r="AK40" s="38"/>
+      <c r="AL40" s="38"/>
+      <c r="AM40" s="38"/>
+      <c r="AN40" s="39"/>
+      <c r="AO40" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="AP22" s="125"/>
-      <c r="AQ22" s="32"/>
-      <c r="AR22" s="34"/>
-    </row>
-    <row r="23" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A23" s="112"/>
-      <c r="B23" s="112"/>
-      <c r="C23" s="126"/>
-      <c r="D23" s="127"/>
-      <c r="E23" s="128"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="122"/>
-      <c r="I23" s="123"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="51"/>
-      <c r="L23" s="51"/>
-      <c r="M23" s="51"/>
-      <c r="N23" s="51"/>
-      <c r="O23" s="51"/>
-      <c r="P23" s="51"/>
-      <c r="Q23" s="51"/>
-      <c r="R23" s="51"/>
-      <c r="S23" s="51"/>
-      <c r="T23" s="51"/>
-      <c r="U23" s="51"/>
-      <c r="V23" s="51"/>
-      <c r="W23" s="51"/>
-      <c r="X23" s="51"/>
-      <c r="Y23" s="51"/>
-      <c r="Z23" s="51"/>
-      <c r="AA23" s="51"/>
-      <c r="AB23" s="51"/>
-      <c r="AC23" s="51"/>
-      <c r="AD23" s="51"/>
-      <c r="AE23" s="51"/>
-      <c r="AF23" s="51"/>
-      <c r="AG23" s="51"/>
-      <c r="AH23" s="51"/>
-      <c r="AI23" s="51"/>
-      <c r="AJ23" s="51"/>
-      <c r="AK23" s="51"/>
-      <c r="AL23" s="51"/>
-      <c r="AM23" s="51"/>
-      <c r="AN23" s="52"/>
-      <c r="AO23" s="124" t="s">
+      <c r="AP40" s="52"/>
+      <c r="AQ40" s="52"/>
+      <c r="AR40" s="53"/>
+    </row>
+    <row r="41" spans="1:44" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="62"/>
+      <c r="B41" s="62"/>
+      <c r="C41" s="76"/>
+      <c r="D41" s="77"/>
+      <c r="E41" s="78"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="71"/>
+      <c r="I41" s="72"/>
+      <c r="J41" s="49"/>
+      <c r="K41" s="37"/>
+      <c r="L41" s="37"/>
+      <c r="M41" s="37"/>
+      <c r="N41" s="37"/>
+      <c r="O41" s="37"/>
+      <c r="P41" s="37"/>
+      <c r="Q41" s="37"/>
+      <c r="R41" s="37"/>
+      <c r="S41" s="37"/>
+      <c r="T41" s="37"/>
+      <c r="U41" s="37"/>
+      <c r="V41" s="37"/>
+      <c r="W41" s="37"/>
+      <c r="X41" s="37"/>
+      <c r="Y41" s="37"/>
+      <c r="Z41" s="37"/>
+      <c r="AA41" s="37"/>
+      <c r="AB41" s="37"/>
+      <c r="AC41" s="37"/>
+      <c r="AD41" s="37"/>
+      <c r="AE41" s="37"/>
+      <c r="AF41" s="37"/>
+      <c r="AG41" s="37"/>
+      <c r="AH41" s="37"/>
+      <c r="AI41" s="37"/>
+      <c r="AJ41" s="37"/>
+      <c r="AK41" s="37"/>
+      <c r="AL41" s="37"/>
+      <c r="AM41" s="37"/>
+      <c r="AN41" s="50"/>
+      <c r="AO41" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="AP41" s="55"/>
+      <c r="AQ41" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="AR41" s="56"/>
+    </row>
+    <row r="42" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A42" s="60"/>
+      <c r="B42" s="60"/>
+      <c r="C42" s="63"/>
+      <c r="D42" s="64"/>
+      <c r="E42" s="65"/>
+      <c r="F42" s="40"/>
+      <c r="G42" s="43"/>
+      <c r="H42" s="66"/>
+      <c r="I42" s="67"/>
+      <c r="J42" s="44"/>
+      <c r="K42" s="35"/>
+      <c r="L42" s="35"/>
+      <c r="M42" s="35"/>
+      <c r="N42" s="35"/>
+      <c r="O42" s="35"/>
+      <c r="P42" s="35"/>
+      <c r="Q42" s="35"/>
+      <c r="R42" s="35"/>
+      <c r="S42" s="35"/>
+      <c r="T42" s="35"/>
+      <c r="U42" s="35"/>
+      <c r="V42" s="35"/>
+      <c r="W42" s="35"/>
+      <c r="X42" s="35"/>
+      <c r="Y42" s="35"/>
+      <c r="Z42" s="35"/>
+      <c r="AA42" s="35"/>
+      <c r="AB42" s="35"/>
+      <c r="AC42" s="35"/>
+      <c r="AD42" s="35"/>
+      <c r="AE42" s="35"/>
+      <c r="AF42" s="35"/>
+      <c r="AG42" s="35"/>
+      <c r="AH42" s="35"/>
+      <c r="AI42" s="35"/>
+      <c r="AJ42" s="35"/>
+      <c r="AK42" s="35"/>
+      <c r="AL42" s="35"/>
+      <c r="AM42" s="35"/>
+      <c r="AN42" s="45"/>
+      <c r="AO42" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP42" s="58"/>
+      <c r="AQ42" s="58"/>
+      <c r="AR42" s="59"/>
+    </row>
+    <row r="43" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A43" s="61"/>
+      <c r="B43" s="61"/>
+      <c r="C43" s="68"/>
+      <c r="D43" s="69"/>
+      <c r="E43" s="70"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="71"/>
+      <c r="I43" s="72"/>
+      <c r="J43" s="46"/>
+      <c r="K43" s="36"/>
+      <c r="L43" s="36"/>
+      <c r="M43" s="36"/>
+      <c r="N43" s="36"/>
+      <c r="O43" s="36"/>
+      <c r="P43" s="36"/>
+      <c r="Q43" s="36"/>
+      <c r="R43" s="36"/>
+      <c r="S43" s="36"/>
+      <c r="T43" s="36"/>
+      <c r="U43" s="36"/>
+      <c r="V43" s="36"/>
+      <c r="W43" s="36"/>
+      <c r="X43" s="36"/>
+      <c r="Y43" s="36"/>
+      <c r="Z43" s="36"/>
+      <c r="AA43" s="36"/>
+      <c r="AB43" s="36"/>
+      <c r="AC43" s="36"/>
+      <c r="AD43" s="36"/>
+      <c r="AE43" s="36"/>
+      <c r="AF43" s="36"/>
+      <c r="AG43" s="36"/>
+      <c r="AH43" s="36"/>
+      <c r="AI43" s="36"/>
+      <c r="AJ43" s="36"/>
+      <c r="AK43" s="36"/>
+      <c r="AL43" s="36"/>
+      <c r="AM43" s="36"/>
+      <c r="AN43" s="47"/>
+      <c r="AO43" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP43" s="52"/>
+      <c r="AQ43" s="52"/>
+      <c r="AR43" s="53"/>
+    </row>
+    <row r="44" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A44" s="61"/>
+      <c r="B44" s="61"/>
+      <c r="C44" s="68"/>
+      <c r="D44" s="69"/>
+      <c r="E44" s="70"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="71"/>
+      <c r="I44" s="72"/>
+      <c r="J44" s="48"/>
+      <c r="K44" s="38"/>
+      <c r="L44" s="38"/>
+      <c r="M44" s="38"/>
+      <c r="N44" s="38"/>
+      <c r="O44" s="38"/>
+      <c r="P44" s="38"/>
+      <c r="Q44" s="38"/>
+      <c r="R44" s="38"/>
+      <c r="S44" s="38"/>
+      <c r="T44" s="38"/>
+      <c r="U44" s="38"/>
+      <c r="V44" s="38"/>
+      <c r="W44" s="38"/>
+      <c r="X44" s="38"/>
+      <c r="Y44" s="38"/>
+      <c r="Z44" s="38"/>
+      <c r="AA44" s="38"/>
+      <c r="AB44" s="38"/>
+      <c r="AC44" s="38"/>
+      <c r="AD44" s="38"/>
+      <c r="AE44" s="38"/>
+      <c r="AF44" s="38"/>
+      <c r="AG44" s="38"/>
+      <c r="AH44" s="38"/>
+      <c r="AI44" s="38"/>
+      <c r="AJ44" s="38"/>
+      <c r="AK44" s="38"/>
+      <c r="AL44" s="38"/>
+      <c r="AM44" s="38"/>
+      <c r="AN44" s="39"/>
+      <c r="AO44" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="AP23" s="125"/>
-      <c r="AQ23" s="32"/>
-      <c r="AR23" s="30"/>
-    </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A24" s="112"/>
-      <c r="B24" s="112"/>
-      <c r="C24" s="119"/>
-      <c r="D24" s="120"/>
-      <c r="E24" s="121"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="122"/>
-      <c r="I24" s="123"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="51"/>
-      <c r="L24" s="51"/>
-      <c r="M24" s="51"/>
-      <c r="N24" s="51"/>
-      <c r="O24" s="51"/>
-      <c r="P24" s="51"/>
-      <c r="Q24" s="51"/>
-      <c r="R24" s="51"/>
-      <c r="S24" s="51"/>
-      <c r="T24" s="51"/>
-      <c r="U24" s="51"/>
-      <c r="V24" s="51"/>
-      <c r="W24" s="51"/>
-      <c r="X24" s="51"/>
-      <c r="Y24" s="51"/>
-      <c r="Z24" s="51"/>
-      <c r="AA24" s="51"/>
-      <c r="AB24" s="51"/>
-      <c r="AC24" s="51"/>
-      <c r="AD24" s="51"/>
-      <c r="AE24" s="51"/>
-      <c r="AF24" s="51"/>
-      <c r="AG24" s="51"/>
-      <c r="AH24" s="51"/>
-      <c r="AI24" s="51"/>
-      <c r="AJ24" s="51"/>
-      <c r="AK24" s="51"/>
-      <c r="AL24" s="51"/>
-      <c r="AM24" s="51"/>
-      <c r="AN24" s="52"/>
-      <c r="AO24" s="124" t="s">
+      <c r="AP44" s="52"/>
+      <c r="AQ44" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="AP24" s="125"/>
-      <c r="AQ24" s="36"/>
-      <c r="AR24" s="34"/>
-    </row>
-    <row r="25" spans="1:44" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="113"/>
-      <c r="B25" s="113"/>
-      <c r="C25" s="129"/>
-      <c r="D25" s="130"/>
-      <c r="E25" s="131"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="122"/>
-      <c r="I25" s="123"/>
-      <c r="J25" s="62"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="50"/>
-      <c r="M25" s="50"/>
-      <c r="N25" s="50"/>
-      <c r="O25" s="50"/>
-      <c r="P25" s="50"/>
-      <c r="Q25" s="50"/>
-      <c r="R25" s="50"/>
-      <c r="S25" s="50"/>
-      <c r="T25" s="50"/>
-      <c r="U25" s="50"/>
-      <c r="V25" s="50"/>
-      <c r="W25" s="50"/>
-      <c r="X25" s="50"/>
-      <c r="Y25" s="50"/>
-      <c r="Z25" s="50"/>
-      <c r="AA25" s="50"/>
-      <c r="AB25" s="50"/>
-      <c r="AC25" s="50"/>
-      <c r="AD25" s="50"/>
-      <c r="AE25" s="50"/>
-      <c r="AF25" s="50"/>
-      <c r="AG25" s="50"/>
-      <c r="AH25" s="50"/>
-      <c r="AI25" s="50"/>
-      <c r="AJ25" s="50"/>
-      <c r="AK25" s="50"/>
-      <c r="AL25" s="50"/>
-      <c r="AM25" s="50"/>
-      <c r="AN25" s="63"/>
-      <c r="AO25" s="37" t="s">
+      <c r="AR44" s="53"/>
+    </row>
+    <row r="45" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A45" s="61"/>
+      <c r="B45" s="61"/>
+      <c r="C45" s="68"/>
+      <c r="D45" s="69"/>
+      <c r="E45" s="70"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="71"/>
+      <c r="I45" s="72"/>
+      <c r="J45" s="48"/>
+      <c r="K45" s="38"/>
+      <c r="L45" s="38"/>
+      <c r="M45" s="38"/>
+      <c r="N45" s="38"/>
+      <c r="O45" s="38"/>
+      <c r="P45" s="38"/>
+      <c r="Q45" s="38"/>
+      <c r="R45" s="38"/>
+      <c r="S45" s="38"/>
+      <c r="T45" s="38"/>
+      <c r="U45" s="38"/>
+      <c r="V45" s="38"/>
+      <c r="W45" s="38"/>
+      <c r="X45" s="38"/>
+      <c r="Y45" s="38"/>
+      <c r="Z45" s="38"/>
+      <c r="AA45" s="38"/>
+      <c r="AB45" s="38"/>
+      <c r="AC45" s="38"/>
+      <c r="AD45" s="38"/>
+      <c r="AE45" s="38"/>
+      <c r="AF45" s="38"/>
+      <c r="AG45" s="38"/>
+      <c r="AH45" s="38"/>
+      <c r="AI45" s="38"/>
+      <c r="AJ45" s="38"/>
+      <c r="AK45" s="38"/>
+      <c r="AL45" s="38"/>
+      <c r="AM45" s="38"/>
+      <c r="AN45" s="39"/>
+      <c r="AO45" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="AP45" s="52"/>
+      <c r="AQ45" s="52"/>
+      <c r="AR45" s="53"/>
+    </row>
+    <row r="46" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A46" s="61"/>
+      <c r="B46" s="61"/>
+      <c r="C46" s="73"/>
+      <c r="D46" s="74"/>
+      <c r="E46" s="75"/>
+      <c r="F46" s="41"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="71"/>
+      <c r="I46" s="72"/>
+      <c r="J46" s="48"/>
+      <c r="K46" s="38"/>
+      <c r="L46" s="38"/>
+      <c r="M46" s="38"/>
+      <c r="N46" s="38"/>
+      <c r="O46" s="38"/>
+      <c r="P46" s="38"/>
+      <c r="Q46" s="38"/>
+      <c r="R46" s="38"/>
+      <c r="S46" s="38"/>
+      <c r="T46" s="38"/>
+      <c r="U46" s="38"/>
+      <c r="V46" s="38"/>
+      <c r="W46" s="38"/>
+      <c r="X46" s="38"/>
+      <c r="Y46" s="38"/>
+      <c r="Z46" s="38"/>
+      <c r="AA46" s="38"/>
+      <c r="AB46" s="38"/>
+      <c r="AC46" s="38"/>
+      <c r="AD46" s="38"/>
+      <c r="AE46" s="38"/>
+      <c r="AF46" s="38"/>
+      <c r="AG46" s="38"/>
+      <c r="AH46" s="38"/>
+      <c r="AI46" s="38"/>
+      <c r="AJ46" s="38"/>
+      <c r="AK46" s="38"/>
+      <c r="AL46" s="38"/>
+      <c r="AM46" s="38"/>
+      <c r="AN46" s="39"/>
+      <c r="AO46" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP46" s="52"/>
+      <c r="AQ46" s="52"/>
+      <c r="AR46" s="53"/>
+    </row>
+    <row r="47" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A47" s="61"/>
+      <c r="B47" s="61"/>
+      <c r="C47" s="73"/>
+      <c r="D47" s="74"/>
+      <c r="E47" s="75"/>
+      <c r="F47" s="41"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="71"/>
+      <c r="I47" s="72"/>
+      <c r="J47" s="48"/>
+      <c r="K47" s="38"/>
+      <c r="L47" s="38"/>
+      <c r="M47" s="38"/>
+      <c r="N47" s="38"/>
+      <c r="O47" s="38"/>
+      <c r="P47" s="38"/>
+      <c r="Q47" s="38"/>
+      <c r="R47" s="38"/>
+      <c r="S47" s="38"/>
+      <c r="T47" s="38"/>
+      <c r="U47" s="38"/>
+      <c r="V47" s="38"/>
+      <c r="W47" s="38"/>
+      <c r="X47" s="38"/>
+      <c r="Y47" s="38"/>
+      <c r="Z47" s="38"/>
+      <c r="AA47" s="38"/>
+      <c r="AB47" s="38"/>
+      <c r="AC47" s="38"/>
+      <c r="AD47" s="38"/>
+      <c r="AE47" s="38"/>
+      <c r="AF47" s="38"/>
+      <c r="AG47" s="38"/>
+      <c r="AH47" s="38"/>
+      <c r="AI47" s="38"/>
+      <c r="AJ47" s="38"/>
+      <c r="AK47" s="38"/>
+      <c r="AL47" s="38"/>
+      <c r="AM47" s="38"/>
+      <c r="AN47" s="39"/>
+      <c r="AO47" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="AP47" s="52"/>
+      <c r="AQ47" s="52"/>
+      <c r="AR47" s="53"/>
+    </row>
+    <row r="48" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A48" s="61"/>
+      <c r="B48" s="61"/>
+      <c r="C48" s="68"/>
+      <c r="D48" s="69"/>
+      <c r="E48" s="70"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="71"/>
+      <c r="I48" s="72"/>
+      <c r="J48" s="48"/>
+      <c r="K48" s="38"/>
+      <c r="L48" s="38"/>
+      <c r="M48" s="38"/>
+      <c r="N48" s="38"/>
+      <c r="O48" s="38"/>
+      <c r="P48" s="38"/>
+      <c r="Q48" s="38"/>
+      <c r="R48" s="38"/>
+      <c r="S48" s="38"/>
+      <c r="T48" s="38"/>
+      <c r="U48" s="38"/>
+      <c r="V48" s="38"/>
+      <c r="W48" s="38"/>
+      <c r="X48" s="38"/>
+      <c r="Y48" s="38"/>
+      <c r="Z48" s="38"/>
+      <c r="AA48" s="38"/>
+      <c r="AB48" s="38"/>
+      <c r="AC48" s="38"/>
+      <c r="AD48" s="38"/>
+      <c r="AE48" s="38"/>
+      <c r="AF48" s="38"/>
+      <c r="AG48" s="38"/>
+      <c r="AH48" s="38"/>
+      <c r="AI48" s="38"/>
+      <c r="AJ48" s="38"/>
+      <c r="AK48" s="38"/>
+      <c r="AL48" s="38"/>
+      <c r="AM48" s="38"/>
+      <c r="AN48" s="39"/>
+      <c r="AO48" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="AP48" s="52"/>
+      <c r="AQ48" s="52"/>
+      <c r="AR48" s="53"/>
+    </row>
+    <row r="49" spans="1:44" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="62"/>
+      <c r="B49" s="62"/>
+      <c r="C49" s="76"/>
+      <c r="D49" s="77"/>
+      <c r="E49" s="78"/>
+      <c r="F49" s="42"/>
+      <c r="G49" s="42"/>
+      <c r="H49" s="79"/>
+      <c r="I49" s="80"/>
+      <c r="J49" s="49"/>
+      <c r="K49" s="37"/>
+      <c r="L49" s="37"/>
+      <c r="M49" s="37"/>
+      <c r="N49" s="37"/>
+      <c r="O49" s="37"/>
+      <c r="P49" s="37"/>
+      <c r="Q49" s="37"/>
+      <c r="R49" s="37"/>
+      <c r="S49" s="37"/>
+      <c r="T49" s="37"/>
+      <c r="U49" s="37"/>
+      <c r="V49" s="37"/>
+      <c r="W49" s="37"/>
+      <c r="X49" s="37"/>
+      <c r="Y49" s="37"/>
+      <c r="Z49" s="37"/>
+      <c r="AA49" s="37"/>
+      <c r="AB49" s="37"/>
+      <c r="AC49" s="37"/>
+      <c r="AD49" s="37"/>
+      <c r="AE49" s="37"/>
+      <c r="AF49" s="37"/>
+      <c r="AG49" s="37"/>
+      <c r="AH49" s="37"/>
+      <c r="AI49" s="37"/>
+      <c r="AJ49" s="37"/>
+      <c r="AK49" s="37"/>
+      <c r="AL49" s="37"/>
+      <c r="AM49" s="37"/>
+      <c r="AN49" s="50"/>
+      <c r="AO49" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="AP25" s="38"/>
-      <c r="AQ25" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="AR25" s="40"/>
-    </row>
-    <row r="26" spans="1:44" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="111"/>
-      <c r="B26" s="111"/>
-      <c r="C26" s="114"/>
-      <c r="D26" s="115"/>
-      <c r="E26" s="116"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="117"/>
-      <c r="I26" s="118"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="48"/>
-      <c r="L26" s="48"/>
-      <c r="M26" s="48"/>
-      <c r="N26" s="48"/>
-      <c r="O26" s="48"/>
-      <c r="P26" s="48"/>
-      <c r="Q26" s="48"/>
-      <c r="R26" s="48"/>
-      <c r="S26" s="48"/>
-      <c r="T26" s="48"/>
-      <c r="U26" s="48"/>
-      <c r="V26" s="48"/>
-      <c r="W26" s="48"/>
-      <c r="X26" s="48"/>
-      <c r="Y26" s="48"/>
-      <c r="Z26" s="48"/>
-      <c r="AA26" s="48"/>
-      <c r="AB26" s="48"/>
-      <c r="AC26" s="48"/>
-      <c r="AD26" s="48"/>
-      <c r="AE26" s="48"/>
-      <c r="AF26" s="48"/>
-      <c r="AG26" s="48"/>
-      <c r="AH26" s="48"/>
-      <c r="AI26" s="48"/>
-      <c r="AJ26" s="48"/>
-      <c r="AK26" s="48"/>
-      <c r="AL26" s="48"/>
-      <c r="AM26" s="48"/>
-      <c r="AN26" s="58"/>
-      <c r="AO26" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="AP26" s="28"/>
-      <c r="AQ26" s="29"/>
-      <c r="AR26" s="30"/>
-    </row>
-    <row r="27" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A27" s="112"/>
-      <c r="B27" s="112"/>
-      <c r="C27" s="119"/>
-      <c r="D27" s="120"/>
-      <c r="E27" s="121"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="122"/>
-      <c r="I27" s="123"/>
-      <c r="J27" s="59"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="49"/>
-      <c r="M27" s="49"/>
-      <c r="N27" s="49"/>
-      <c r="O27" s="49"/>
-      <c r="P27" s="49"/>
-      <c r="Q27" s="49"/>
-      <c r="R27" s="49"/>
-      <c r="S27" s="49"/>
-      <c r="T27" s="49"/>
-      <c r="U27" s="49"/>
-      <c r="V27" s="49"/>
-      <c r="W27" s="49"/>
-      <c r="X27" s="49"/>
-      <c r="Y27" s="49"/>
-      <c r="Z27" s="49"/>
-      <c r="AA27" s="49"/>
-      <c r="AB27" s="49"/>
-      <c r="AC27" s="49"/>
-      <c r="AD27" s="49"/>
-      <c r="AE27" s="49"/>
-      <c r="AF27" s="49"/>
-      <c r="AG27" s="49"/>
-      <c r="AH27" s="49"/>
-      <c r="AI27" s="49"/>
-      <c r="AJ27" s="49"/>
-      <c r="AK27" s="49"/>
-      <c r="AL27" s="49"/>
-      <c r="AM27" s="49"/>
-      <c r="AN27" s="60"/>
-      <c r="AO27" s="124" t="s">
-        <v>10</v>
-      </c>
-      <c r="AP27" s="125"/>
-      <c r="AQ27" s="125"/>
-      <c r="AR27" s="30"/>
-    </row>
-    <row r="28" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A28" s="112"/>
-      <c r="B28" s="112"/>
-      <c r="C28" s="119"/>
-      <c r="D28" s="120"/>
-      <c r="E28" s="121"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="122"/>
-      <c r="I28" s="123"/>
-      <c r="J28" s="61"/>
-      <c r="K28" s="51"/>
-      <c r="L28" s="51"/>
-      <c r="M28" s="51"/>
-      <c r="N28" s="51"/>
-      <c r="O28" s="51"/>
-      <c r="P28" s="51"/>
-      <c r="Q28" s="51"/>
-      <c r="R28" s="51"/>
-      <c r="S28" s="51"/>
-      <c r="T28" s="51"/>
-      <c r="U28" s="51"/>
-      <c r="V28" s="51"/>
-      <c r="W28" s="51"/>
-      <c r="X28" s="51"/>
-      <c r="Y28" s="51"/>
-      <c r="Z28" s="51"/>
-      <c r="AA28" s="51"/>
-      <c r="AB28" s="51"/>
-      <c r="AC28" s="51"/>
-      <c r="AD28" s="51"/>
-      <c r="AE28" s="51"/>
-      <c r="AF28" s="51"/>
-      <c r="AG28" s="51"/>
-      <c r="AH28" s="51"/>
-      <c r="AI28" s="51"/>
-      <c r="AJ28" s="51"/>
-      <c r="AK28" s="51"/>
-      <c r="AL28" s="51"/>
-      <c r="AM28" s="51"/>
-      <c r="AN28" s="52"/>
-      <c r="AO28" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="AP28" s="32"/>
-      <c r="AQ28" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="AR28" s="33"/>
-    </row>
-    <row r="29" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A29" s="112"/>
-      <c r="B29" s="112"/>
-      <c r="C29" s="119"/>
-      <c r="D29" s="120"/>
-      <c r="E29" s="121"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="122"/>
-      <c r="I29" s="123"/>
-      <c r="J29" s="61"/>
-      <c r="K29" s="51"/>
-      <c r="L29" s="51"/>
-      <c r="M29" s="51"/>
-      <c r="N29" s="51"/>
-      <c r="O29" s="51"/>
-      <c r="P29" s="51"/>
-      <c r="Q29" s="51"/>
-      <c r="R29" s="51"/>
-      <c r="S29" s="51"/>
-      <c r="T29" s="51"/>
-      <c r="U29" s="51"/>
-      <c r="V29" s="51"/>
-      <c r="W29" s="51"/>
-      <c r="X29" s="51"/>
-      <c r="Y29" s="51"/>
-      <c r="Z29" s="51"/>
-      <c r="AA29" s="51"/>
-      <c r="AB29" s="51"/>
-      <c r="AC29" s="51"/>
-      <c r="AD29" s="51"/>
-      <c r="AE29" s="51"/>
-      <c r="AF29" s="51"/>
-      <c r="AG29" s="51"/>
-      <c r="AH29" s="51"/>
-      <c r="AI29" s="51"/>
-      <c r="AJ29" s="51"/>
-      <c r="AK29" s="51"/>
-      <c r="AL29" s="51"/>
-      <c r="AM29" s="51"/>
-      <c r="AN29" s="52"/>
-      <c r="AO29" s="124" t="s">
-        <v>13</v>
-      </c>
-      <c r="AP29" s="125"/>
-      <c r="AQ29" s="32"/>
-      <c r="AR29" s="30"/>
-    </row>
-    <row r="30" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A30" s="112"/>
-      <c r="B30" s="112"/>
-      <c r="C30" s="126"/>
-      <c r="D30" s="127"/>
-      <c r="E30" s="128"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="122"/>
-      <c r="I30" s="123"/>
-      <c r="J30" s="61"/>
-      <c r="K30" s="51"/>
-      <c r="L30" s="51"/>
-      <c r="M30" s="51"/>
-      <c r="N30" s="51"/>
-      <c r="O30" s="51"/>
-      <c r="P30" s="51"/>
-      <c r="Q30" s="51"/>
-      <c r="R30" s="51"/>
-      <c r="S30" s="51"/>
-      <c r="T30" s="51"/>
-      <c r="U30" s="51"/>
-      <c r="V30" s="51"/>
-      <c r="W30" s="51"/>
-      <c r="X30" s="51"/>
-      <c r="Y30" s="51"/>
-      <c r="Z30" s="51"/>
-      <c r="AA30" s="51"/>
-      <c r="AB30" s="51"/>
-      <c r="AC30" s="51"/>
-      <c r="AD30" s="51"/>
-      <c r="AE30" s="51"/>
-      <c r="AF30" s="51"/>
-      <c r="AG30" s="51"/>
-      <c r="AH30" s="51"/>
-      <c r="AI30" s="51"/>
-      <c r="AJ30" s="51"/>
-      <c r="AK30" s="51"/>
-      <c r="AL30" s="51"/>
-      <c r="AM30" s="51"/>
-      <c r="AN30" s="52"/>
-      <c r="AO30" s="124" t="s">
-        <v>14</v>
-      </c>
-      <c r="AP30" s="125"/>
-      <c r="AQ30" s="32"/>
-      <c r="AR30" s="34"/>
-    </row>
-    <row r="31" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A31" s="112"/>
-      <c r="B31" s="112"/>
-      <c r="C31" s="126"/>
-      <c r="D31" s="127"/>
-      <c r="E31" s="128"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="122"/>
-      <c r="I31" s="123"/>
-      <c r="J31" s="61"/>
-      <c r="K31" s="51"/>
-      <c r="L31" s="51"/>
-      <c r="M31" s="51"/>
-      <c r="N31" s="51"/>
-      <c r="O31" s="51"/>
-      <c r="P31" s="51"/>
-      <c r="Q31" s="51"/>
-      <c r="R31" s="51"/>
-      <c r="S31" s="51"/>
-      <c r="T31" s="51"/>
-      <c r="U31" s="51"/>
-      <c r="V31" s="51"/>
-      <c r="W31" s="51"/>
-      <c r="X31" s="51"/>
-      <c r="Y31" s="51"/>
-      <c r="Z31" s="51"/>
-      <c r="AA31" s="51"/>
-      <c r="AB31" s="51"/>
-      <c r="AC31" s="51"/>
-      <c r="AD31" s="51"/>
-      <c r="AE31" s="51"/>
-      <c r="AF31" s="51"/>
-      <c r="AG31" s="51"/>
-      <c r="AH31" s="51"/>
-      <c r="AI31" s="51"/>
-      <c r="AJ31" s="51"/>
-      <c r="AK31" s="51"/>
-      <c r="AL31" s="51"/>
-      <c r="AM31" s="51"/>
-      <c r="AN31" s="52"/>
-      <c r="AO31" s="124" t="s">
-        <v>15</v>
-      </c>
-      <c r="AP31" s="125"/>
-      <c r="AQ31" s="32"/>
-      <c r="AR31" s="30"/>
-    </row>
-    <row r="32" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A32" s="112"/>
-      <c r="B32" s="112"/>
-      <c r="C32" s="119"/>
-      <c r="D32" s="120"/>
-      <c r="E32" s="121"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="122"/>
-      <c r="I32" s="123"/>
-      <c r="J32" s="61"/>
-      <c r="K32" s="51"/>
-      <c r="L32" s="51"/>
-      <c r="M32" s="51"/>
-      <c r="N32" s="51"/>
-      <c r="O32" s="51"/>
-      <c r="P32" s="51"/>
-      <c r="Q32" s="51"/>
-      <c r="R32" s="51"/>
-      <c r="S32" s="51"/>
-      <c r="T32" s="51"/>
-      <c r="U32" s="51"/>
-      <c r="V32" s="51"/>
-      <c r="W32" s="51"/>
-      <c r="X32" s="51"/>
-      <c r="Y32" s="51"/>
-      <c r="Z32" s="51"/>
-      <c r="AA32" s="51"/>
-      <c r="AB32" s="51"/>
-      <c r="AC32" s="51"/>
-      <c r="AD32" s="51"/>
-      <c r="AE32" s="51"/>
-      <c r="AF32" s="51"/>
-      <c r="AG32" s="51"/>
-      <c r="AH32" s="51"/>
-      <c r="AI32" s="51"/>
-      <c r="AJ32" s="51"/>
-      <c r="AK32" s="51"/>
-      <c r="AL32" s="51"/>
-      <c r="AM32" s="51"/>
-      <c r="AN32" s="52"/>
-      <c r="AO32" s="124" t="s">
+      <c r="AP49" s="55"/>
+      <c r="AQ49" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="AP32" s="125"/>
-      <c r="AQ32" s="36"/>
-      <c r="AR32" s="34"/>
-    </row>
-    <row r="33" spans="1:44" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="113"/>
-      <c r="B33" s="113"/>
-      <c r="C33" s="129"/>
-      <c r="D33" s="130"/>
-      <c r="E33" s="131"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="122"/>
-      <c r="I33" s="123"/>
-      <c r="J33" s="62"/>
-      <c r="K33" s="50"/>
-      <c r="L33" s="50"/>
-      <c r="M33" s="50"/>
-      <c r="N33" s="50"/>
-      <c r="O33" s="50"/>
-      <c r="P33" s="50"/>
-      <c r="Q33" s="50"/>
-      <c r="R33" s="50"/>
-      <c r="S33" s="50"/>
-      <c r="T33" s="50"/>
-      <c r="U33" s="50"/>
-      <c r="V33" s="50"/>
-      <c r="W33" s="50"/>
-      <c r="X33" s="50"/>
-      <c r="Y33" s="50"/>
-      <c r="Z33" s="50"/>
-      <c r="AA33" s="50"/>
-      <c r="AB33" s="50"/>
-      <c r="AC33" s="50"/>
-      <c r="AD33" s="50"/>
-      <c r="AE33" s="50"/>
-      <c r="AF33" s="50"/>
-      <c r="AG33" s="50"/>
-      <c r="AH33" s="50"/>
-      <c r="AI33" s="50"/>
-      <c r="AJ33" s="50"/>
-      <c r="AK33" s="50"/>
-      <c r="AL33" s="50"/>
-      <c r="AM33" s="50"/>
-      <c r="AN33" s="63"/>
-      <c r="AO33" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="AP33" s="38"/>
-      <c r="AQ33" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="AR33" s="40"/>
-    </row>
-    <row r="34" spans="1:44" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="111"/>
-      <c r="B34" s="111"/>
-      <c r="C34" s="114"/>
-      <c r="D34" s="115"/>
-      <c r="E34" s="116"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="56"/>
-      <c r="H34" s="117"/>
-      <c r="I34" s="118"/>
-      <c r="J34" s="57"/>
-      <c r="K34" s="48"/>
-      <c r="L34" s="48"/>
-      <c r="M34" s="48"/>
-      <c r="N34" s="48"/>
-      <c r="O34" s="48"/>
-      <c r="P34" s="48"/>
-      <c r="Q34" s="48"/>
-      <c r="R34" s="48"/>
-      <c r="S34" s="48"/>
-      <c r="T34" s="48"/>
-      <c r="U34" s="48"/>
-      <c r="V34" s="48"/>
-      <c r="W34" s="48"/>
-      <c r="X34" s="48"/>
-      <c r="Y34" s="48"/>
-      <c r="Z34" s="48"/>
-      <c r="AA34" s="48"/>
-      <c r="AB34" s="48"/>
-      <c r="AC34" s="48"/>
-      <c r="AD34" s="48"/>
-      <c r="AE34" s="48"/>
-      <c r="AF34" s="48"/>
-      <c r="AG34" s="48"/>
-      <c r="AH34" s="48"/>
-      <c r="AI34" s="48"/>
-      <c r="AJ34" s="48"/>
-      <c r="AK34" s="48"/>
-      <c r="AL34" s="48"/>
-      <c r="AM34" s="48"/>
-      <c r="AN34" s="58"/>
-      <c r="AO34" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="AP34" s="28"/>
-      <c r="AQ34" s="29"/>
-      <c r="AR34" s="30"/>
-    </row>
-    <row r="35" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A35" s="112"/>
-      <c r="B35" s="112"/>
-      <c r="C35" s="119"/>
-      <c r="D35" s="120"/>
-      <c r="E35" s="121"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="122"/>
-      <c r="I35" s="123"/>
-      <c r="J35" s="59"/>
-      <c r="K35" s="49"/>
-      <c r="L35" s="49"/>
-      <c r="M35" s="49"/>
-      <c r="N35" s="49"/>
-      <c r="O35" s="49"/>
-      <c r="P35" s="49"/>
-      <c r="Q35" s="49"/>
-      <c r="R35" s="49"/>
-      <c r="S35" s="49"/>
-      <c r="T35" s="49"/>
-      <c r="U35" s="49"/>
-      <c r="V35" s="49"/>
-      <c r="W35" s="49"/>
-      <c r="X35" s="49"/>
-      <c r="Y35" s="49"/>
-      <c r="Z35" s="49"/>
-      <c r="AA35" s="49"/>
-      <c r="AB35" s="49"/>
-      <c r="AC35" s="49"/>
-      <c r="AD35" s="49"/>
-      <c r="AE35" s="49"/>
-      <c r="AF35" s="49"/>
-      <c r="AG35" s="49"/>
-      <c r="AH35" s="49"/>
-      <c r="AI35" s="49"/>
-      <c r="AJ35" s="49"/>
-      <c r="AK35" s="49"/>
-      <c r="AL35" s="49"/>
-      <c r="AM35" s="49"/>
-      <c r="AN35" s="60"/>
-      <c r="AO35" s="124" t="s">
-        <v>10</v>
-      </c>
-      <c r="AP35" s="125"/>
-      <c r="AQ35" s="125"/>
-      <c r="AR35" s="30"/>
-    </row>
-    <row r="36" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A36" s="112"/>
-      <c r="B36" s="112"/>
-      <c r="C36" s="119"/>
-      <c r="D36" s="120"/>
-      <c r="E36" s="121"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="122"/>
-      <c r="I36" s="123"/>
-      <c r="J36" s="61"/>
-      <c r="K36" s="51"/>
-      <c r="L36" s="51"/>
-      <c r="M36" s="51"/>
-      <c r="N36" s="51"/>
-      <c r="O36" s="51"/>
-      <c r="P36" s="51"/>
-      <c r="Q36" s="51"/>
-      <c r="R36" s="51"/>
-      <c r="S36" s="51"/>
-      <c r="T36" s="51"/>
-      <c r="U36" s="51"/>
-      <c r="V36" s="51"/>
-      <c r="W36" s="51"/>
-      <c r="X36" s="51"/>
-      <c r="Y36" s="51"/>
-      <c r="Z36" s="51"/>
-      <c r="AA36" s="51"/>
-      <c r="AB36" s="51"/>
-      <c r="AC36" s="51"/>
-      <c r="AD36" s="51"/>
-      <c r="AE36" s="51"/>
-      <c r="AF36" s="51"/>
-      <c r="AG36" s="51"/>
-      <c r="AH36" s="51"/>
-      <c r="AI36" s="51"/>
-      <c r="AJ36" s="51"/>
-      <c r="AK36" s="51"/>
-      <c r="AL36" s="51"/>
-      <c r="AM36" s="51"/>
-      <c r="AN36" s="52"/>
-      <c r="AO36" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="AP36" s="32"/>
-      <c r="AQ36" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="AR36" s="33"/>
-    </row>
-    <row r="37" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A37" s="112"/>
-      <c r="B37" s="112"/>
-      <c r="C37" s="119"/>
-      <c r="D37" s="120"/>
-      <c r="E37" s="121"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="122"/>
-      <c r="I37" s="123"/>
-      <c r="J37" s="61"/>
-      <c r="K37" s="51"/>
-      <c r="L37" s="51"/>
-      <c r="M37" s="51"/>
-      <c r="N37" s="51"/>
-      <c r="O37" s="51"/>
-      <c r="P37" s="51"/>
-      <c r="Q37" s="51"/>
-      <c r="R37" s="51"/>
-      <c r="S37" s="51"/>
-      <c r="T37" s="51"/>
-      <c r="U37" s="51"/>
-      <c r="V37" s="51"/>
-      <c r="W37" s="51"/>
-      <c r="X37" s="51"/>
-      <c r="Y37" s="51"/>
-      <c r="Z37" s="51"/>
-      <c r="AA37" s="51"/>
-      <c r="AB37" s="51"/>
-      <c r="AC37" s="51"/>
-      <c r="AD37" s="51"/>
-      <c r="AE37" s="51"/>
-      <c r="AF37" s="51"/>
-      <c r="AG37" s="51"/>
-      <c r="AH37" s="51"/>
-      <c r="AI37" s="51"/>
-      <c r="AJ37" s="51"/>
-      <c r="AK37" s="51"/>
-      <c r="AL37" s="51"/>
-      <c r="AM37" s="51"/>
-      <c r="AN37" s="52"/>
-      <c r="AO37" s="124" t="s">
-        <v>13</v>
-      </c>
-      <c r="AP37" s="125"/>
-      <c r="AQ37" s="32"/>
-      <c r="AR37" s="30"/>
-    </row>
-    <row r="38" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A38" s="112"/>
-      <c r="B38" s="112"/>
-      <c r="C38" s="126"/>
-      <c r="D38" s="127"/>
-      <c r="E38" s="128"/>
-      <c r="F38" s="54"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="122"/>
-      <c r="I38" s="123"/>
-      <c r="J38" s="61"/>
-      <c r="K38" s="51"/>
-      <c r="L38" s="51"/>
-      <c r="M38" s="51"/>
-      <c r="N38" s="51"/>
-      <c r="O38" s="51"/>
-      <c r="P38" s="51"/>
-      <c r="Q38" s="51"/>
-      <c r="R38" s="51"/>
-      <c r="S38" s="51"/>
-      <c r="T38" s="51"/>
-      <c r="U38" s="51"/>
-      <c r="V38" s="51"/>
-      <c r="W38" s="51"/>
-      <c r="X38" s="51"/>
-      <c r="Y38" s="51"/>
-      <c r="Z38" s="51"/>
-      <c r="AA38" s="51"/>
-      <c r="AB38" s="51"/>
-      <c r="AC38" s="51"/>
-      <c r="AD38" s="51"/>
-      <c r="AE38" s="51"/>
-      <c r="AF38" s="51"/>
-      <c r="AG38" s="51"/>
-      <c r="AH38" s="51"/>
-      <c r="AI38" s="51"/>
-      <c r="AJ38" s="51"/>
-      <c r="AK38" s="51"/>
-      <c r="AL38" s="51"/>
-      <c r="AM38" s="51"/>
-      <c r="AN38" s="52"/>
-      <c r="AO38" s="124" t="s">
-        <v>14</v>
-      </c>
-      <c r="AP38" s="125"/>
-      <c r="AQ38" s="32"/>
-      <c r="AR38" s="34"/>
-    </row>
-    <row r="39" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A39" s="112"/>
-      <c r="B39" s="112"/>
-      <c r="C39" s="126"/>
-      <c r="D39" s="127"/>
-      <c r="E39" s="128"/>
-      <c r="F39" s="54"/>
-      <c r="G39" s="35"/>
-      <c r="H39" s="122"/>
-      <c r="I39" s="123"/>
-      <c r="J39" s="61"/>
-      <c r="K39" s="51"/>
-      <c r="L39" s="51"/>
-      <c r="M39" s="51"/>
-      <c r="N39" s="51"/>
-      <c r="O39" s="51"/>
-      <c r="P39" s="51"/>
-      <c r="Q39" s="51"/>
-      <c r="R39" s="51"/>
-      <c r="S39" s="51"/>
-      <c r="T39" s="51"/>
-      <c r="U39" s="51"/>
-      <c r="V39" s="51"/>
-      <c r="W39" s="51"/>
-      <c r="X39" s="51"/>
-      <c r="Y39" s="51"/>
-      <c r="Z39" s="51"/>
-      <c r="AA39" s="51"/>
-      <c r="AB39" s="51"/>
-      <c r="AC39" s="51"/>
-      <c r="AD39" s="51"/>
-      <c r="AE39" s="51"/>
-      <c r="AF39" s="51"/>
-      <c r="AG39" s="51"/>
-      <c r="AH39" s="51"/>
-      <c r="AI39" s="51"/>
-      <c r="AJ39" s="51"/>
-      <c r="AK39" s="51"/>
-      <c r="AL39" s="51"/>
-      <c r="AM39" s="51"/>
-      <c r="AN39" s="52"/>
-      <c r="AO39" s="124" t="s">
-        <v>15</v>
-      </c>
-      <c r="AP39" s="125"/>
-      <c r="AQ39" s="32"/>
-      <c r="AR39" s="30"/>
-    </row>
-    <row r="40" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A40" s="112"/>
-      <c r="B40" s="112"/>
-      <c r="C40" s="119"/>
-      <c r="D40" s="120"/>
-      <c r="E40" s="121"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="122"/>
-      <c r="I40" s="123"/>
-      <c r="J40" s="61"/>
-      <c r="K40" s="51"/>
-      <c r="L40" s="51"/>
-      <c r="M40" s="51"/>
-      <c r="N40" s="51"/>
-      <c r="O40" s="51"/>
-      <c r="P40" s="51"/>
-      <c r="Q40" s="51"/>
-      <c r="R40" s="51"/>
-      <c r="S40" s="51"/>
-      <c r="T40" s="51"/>
-      <c r="U40" s="51"/>
-      <c r="V40" s="51"/>
-      <c r="W40" s="51"/>
-      <c r="X40" s="51"/>
-      <c r="Y40" s="51"/>
-      <c r="Z40" s="51"/>
-      <c r="AA40" s="51"/>
-      <c r="AB40" s="51"/>
-      <c r="AC40" s="51"/>
-      <c r="AD40" s="51"/>
-      <c r="AE40" s="51"/>
-      <c r="AF40" s="51"/>
-      <c r="AG40" s="51"/>
-      <c r="AH40" s="51"/>
-      <c r="AI40" s="51"/>
-      <c r="AJ40" s="51"/>
-      <c r="AK40" s="51"/>
-      <c r="AL40" s="51"/>
-      <c r="AM40" s="51"/>
-      <c r="AN40" s="52"/>
-      <c r="AO40" s="124" t="s">
-        <v>16</v>
-      </c>
-      <c r="AP40" s="125"/>
-      <c r="AQ40" s="36"/>
-      <c r="AR40" s="34"/>
-    </row>
-    <row r="41" spans="1:44" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="113"/>
-      <c r="B41" s="113"/>
-      <c r="C41" s="129"/>
-      <c r="D41" s="130"/>
-      <c r="E41" s="131"/>
-      <c r="F41" s="55"/>
-      <c r="G41" s="55"/>
-      <c r="H41" s="122"/>
-      <c r="I41" s="123"/>
-      <c r="J41" s="62"/>
-      <c r="K41" s="50"/>
-      <c r="L41" s="50"/>
-      <c r="M41" s="50"/>
-      <c r="N41" s="50"/>
-      <c r="O41" s="50"/>
-      <c r="P41" s="50"/>
-      <c r="Q41" s="50"/>
-      <c r="R41" s="50"/>
-      <c r="S41" s="50"/>
-      <c r="T41" s="50"/>
-      <c r="U41" s="50"/>
-      <c r="V41" s="50"/>
-      <c r="W41" s="50"/>
-      <c r="X41" s="50"/>
-      <c r="Y41" s="50"/>
-      <c r="Z41" s="50"/>
-      <c r="AA41" s="50"/>
-      <c r="AB41" s="50"/>
-      <c r="AC41" s="50"/>
-      <c r="AD41" s="50"/>
-      <c r="AE41" s="50"/>
-      <c r="AF41" s="50"/>
-      <c r="AG41" s="50"/>
-      <c r="AH41" s="50"/>
-      <c r="AI41" s="50"/>
-      <c r="AJ41" s="50"/>
-      <c r="AK41" s="50"/>
-      <c r="AL41" s="50"/>
-      <c r="AM41" s="50"/>
-      <c r="AN41" s="63"/>
-      <c r="AO41" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="AP41" s="38"/>
-      <c r="AQ41" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="AR41" s="40"/>
-    </row>
-    <row r="42" spans="1:44" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="111"/>
-      <c r="B42" s="111"/>
-      <c r="C42" s="114"/>
-      <c r="D42" s="115"/>
-      <c r="E42" s="116"/>
-      <c r="F42" s="53"/>
-      <c r="G42" s="56"/>
-      <c r="H42" s="117"/>
-      <c r="I42" s="118"/>
-      <c r="J42" s="57"/>
-      <c r="K42" s="48"/>
-      <c r="L42" s="48"/>
-      <c r="M42" s="48"/>
-      <c r="N42" s="48"/>
-      <c r="O42" s="48"/>
-      <c r="P42" s="48"/>
-      <c r="Q42" s="48"/>
-      <c r="R42" s="48"/>
-      <c r="S42" s="48"/>
-      <c r="T42" s="48"/>
-      <c r="U42" s="48"/>
-      <c r="V42" s="48"/>
-      <c r="W42" s="48"/>
-      <c r="X42" s="48"/>
-      <c r="Y42" s="48"/>
-      <c r="Z42" s="48"/>
-      <c r="AA42" s="48"/>
-      <c r="AB42" s="48"/>
-      <c r="AC42" s="48"/>
-      <c r="AD42" s="48"/>
-      <c r="AE42" s="48"/>
-      <c r="AF42" s="48"/>
-      <c r="AG42" s="48"/>
-      <c r="AH42" s="48"/>
-      <c r="AI42" s="48"/>
-      <c r="AJ42" s="48"/>
-      <c r="AK42" s="48"/>
-      <c r="AL42" s="48"/>
-      <c r="AM42" s="48"/>
-      <c r="AN42" s="58"/>
-      <c r="AO42" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="AP42" s="28"/>
-      <c r="AQ42" s="29"/>
-      <c r="AR42" s="30"/>
-    </row>
-    <row r="43" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A43" s="112"/>
-      <c r="B43" s="112"/>
-      <c r="C43" s="119"/>
-      <c r="D43" s="120"/>
-      <c r="E43" s="121"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="35"/>
-      <c r="H43" s="122"/>
-      <c r="I43" s="123"/>
-      <c r="J43" s="59"/>
-      <c r="K43" s="49"/>
-      <c r="L43" s="49"/>
-      <c r="M43" s="49"/>
-      <c r="N43" s="49"/>
-      <c r="O43" s="49"/>
-      <c r="P43" s="49"/>
-      <c r="Q43" s="49"/>
-      <c r="R43" s="49"/>
-      <c r="S43" s="49"/>
-      <c r="T43" s="49"/>
-      <c r="U43" s="49"/>
-      <c r="V43" s="49"/>
-      <c r="W43" s="49"/>
-      <c r="X43" s="49"/>
-      <c r="Y43" s="49"/>
-      <c r="Z43" s="49"/>
-      <c r="AA43" s="49"/>
-      <c r="AB43" s="49"/>
-      <c r="AC43" s="49"/>
-      <c r="AD43" s="49"/>
-      <c r="AE43" s="49"/>
-      <c r="AF43" s="49"/>
-      <c r="AG43" s="49"/>
-      <c r="AH43" s="49"/>
-      <c r="AI43" s="49"/>
-      <c r="AJ43" s="49"/>
-      <c r="AK43" s="49"/>
-      <c r="AL43" s="49"/>
-      <c r="AM43" s="49"/>
-      <c r="AN43" s="60"/>
-      <c r="AO43" s="124" t="s">
-        <v>10</v>
-      </c>
-      <c r="AP43" s="125"/>
-      <c r="AQ43" s="125"/>
-      <c r="AR43" s="30"/>
-    </row>
-    <row r="44" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A44" s="112"/>
-      <c r="B44" s="112"/>
-      <c r="C44" s="119"/>
-      <c r="D44" s="120"/>
-      <c r="E44" s="121"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="35"/>
-      <c r="H44" s="122"/>
-      <c r="I44" s="123"/>
-      <c r="J44" s="61"/>
-      <c r="K44" s="51"/>
-      <c r="L44" s="51"/>
-      <c r="M44" s="51"/>
-      <c r="N44" s="51"/>
-      <c r="O44" s="51"/>
-      <c r="P44" s="51"/>
-      <c r="Q44" s="51"/>
-      <c r="R44" s="51"/>
-      <c r="S44" s="51"/>
-      <c r="T44" s="51"/>
-      <c r="U44" s="51"/>
-      <c r="V44" s="51"/>
-      <c r="W44" s="51"/>
-      <c r="X44" s="51"/>
-      <c r="Y44" s="51"/>
-      <c r="Z44" s="51"/>
-      <c r="AA44" s="51"/>
-      <c r="AB44" s="51"/>
-      <c r="AC44" s="51"/>
-      <c r="AD44" s="51"/>
-      <c r="AE44" s="51"/>
-      <c r="AF44" s="51"/>
-      <c r="AG44" s="51"/>
-      <c r="AH44" s="51"/>
-      <c r="AI44" s="51"/>
-      <c r="AJ44" s="51"/>
-      <c r="AK44" s="51"/>
-      <c r="AL44" s="51"/>
-      <c r="AM44" s="51"/>
-      <c r="AN44" s="52"/>
-      <c r="AO44" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="AP44" s="32"/>
-      <c r="AQ44" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="AR44" s="33"/>
-    </row>
-    <row r="45" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A45" s="112"/>
-      <c r="B45" s="112"/>
-      <c r="C45" s="119"/>
-      <c r="D45" s="120"/>
-      <c r="E45" s="121"/>
-      <c r="F45" s="35"/>
-      <c r="G45" s="35"/>
-      <c r="H45" s="122"/>
-      <c r="I45" s="123"/>
-      <c r="J45" s="61"/>
-      <c r="K45" s="51"/>
-      <c r="L45" s="51"/>
-      <c r="M45" s="51"/>
-      <c r="N45" s="51"/>
-      <c r="O45" s="51"/>
-      <c r="P45" s="51"/>
-      <c r="Q45" s="51"/>
-      <c r="R45" s="51"/>
-      <c r="S45" s="51"/>
-      <c r="T45" s="51"/>
-      <c r="U45" s="51"/>
-      <c r="V45" s="51"/>
-      <c r="W45" s="51"/>
-      <c r="X45" s="51"/>
-      <c r="Y45" s="51"/>
-      <c r="Z45" s="51"/>
-      <c r="AA45" s="51"/>
-      <c r="AB45" s="51"/>
-      <c r="AC45" s="51"/>
-      <c r="AD45" s="51"/>
-      <c r="AE45" s="51"/>
-      <c r="AF45" s="51"/>
-      <c r="AG45" s="51"/>
-      <c r="AH45" s="51"/>
-      <c r="AI45" s="51"/>
-      <c r="AJ45" s="51"/>
-      <c r="AK45" s="51"/>
-      <c r="AL45" s="51"/>
-      <c r="AM45" s="51"/>
-      <c r="AN45" s="52"/>
-      <c r="AO45" s="124" t="s">
-        <v>13</v>
-      </c>
-      <c r="AP45" s="125"/>
-      <c r="AQ45" s="32"/>
-      <c r="AR45" s="30"/>
-    </row>
-    <row r="46" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A46" s="112"/>
-      <c r="B46" s="112"/>
-      <c r="C46" s="126"/>
-      <c r="D46" s="127"/>
-      <c r="E46" s="128"/>
-      <c r="F46" s="54"/>
-      <c r="G46" s="35"/>
-      <c r="H46" s="122"/>
-      <c r="I46" s="123"/>
-      <c r="J46" s="61"/>
-      <c r="K46" s="51"/>
-      <c r="L46" s="51"/>
-      <c r="M46" s="51"/>
-      <c r="N46" s="51"/>
-      <c r="O46" s="51"/>
-      <c r="P46" s="51"/>
-      <c r="Q46" s="51"/>
-      <c r="R46" s="51"/>
-      <c r="S46" s="51"/>
-      <c r="T46" s="51"/>
-      <c r="U46" s="51"/>
-      <c r="V46" s="51"/>
-      <c r="W46" s="51"/>
-      <c r="X46" s="51"/>
-      <c r="Y46" s="51"/>
-      <c r="Z46" s="51"/>
-      <c r="AA46" s="51"/>
-      <c r="AB46" s="51"/>
-      <c r="AC46" s="51"/>
-      <c r="AD46" s="51"/>
-      <c r="AE46" s="51"/>
-      <c r="AF46" s="51"/>
-      <c r="AG46" s="51"/>
-      <c r="AH46" s="51"/>
-      <c r="AI46" s="51"/>
-      <c r="AJ46" s="51"/>
-      <c r="AK46" s="51"/>
-      <c r="AL46" s="51"/>
-      <c r="AM46" s="51"/>
-      <c r="AN46" s="52"/>
-      <c r="AO46" s="124" t="s">
-        <v>14</v>
-      </c>
-      <c r="AP46" s="125"/>
-      <c r="AQ46" s="32"/>
-      <c r="AR46" s="34"/>
-    </row>
-    <row r="47" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A47" s="112"/>
-      <c r="B47" s="112"/>
-      <c r="C47" s="126"/>
-      <c r="D47" s="127"/>
-      <c r="E47" s="128"/>
-      <c r="F47" s="54"/>
-      <c r="G47" s="35"/>
-      <c r="H47" s="122"/>
-      <c r="I47" s="123"/>
-      <c r="J47" s="61"/>
-      <c r="K47" s="51"/>
-      <c r="L47" s="51"/>
-      <c r="M47" s="51"/>
-      <c r="N47" s="51"/>
-      <c r="O47" s="51"/>
-      <c r="P47" s="51"/>
-      <c r="Q47" s="51"/>
-      <c r="R47" s="51"/>
-      <c r="S47" s="51"/>
-      <c r="T47" s="51"/>
-      <c r="U47" s="51"/>
-      <c r="V47" s="51"/>
-      <c r="W47" s="51"/>
-      <c r="X47" s="51"/>
-      <c r="Y47" s="51"/>
-      <c r="Z47" s="51"/>
-      <c r="AA47" s="51"/>
-      <c r="AB47" s="51"/>
-      <c r="AC47" s="51"/>
-      <c r="AD47" s="51"/>
-      <c r="AE47" s="51"/>
-      <c r="AF47" s="51"/>
-      <c r="AG47" s="51"/>
-      <c r="AH47" s="51"/>
-      <c r="AI47" s="51"/>
-      <c r="AJ47" s="51"/>
-      <c r="AK47" s="51"/>
-      <c r="AL47" s="51"/>
-      <c r="AM47" s="51"/>
-      <c r="AN47" s="52"/>
-      <c r="AO47" s="124" t="s">
-        <v>15</v>
-      </c>
-      <c r="AP47" s="125"/>
-      <c r="AQ47" s="32"/>
-      <c r="AR47" s="30"/>
-    </row>
-    <row r="48" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A48" s="112"/>
-      <c r="B48" s="112"/>
-      <c r="C48" s="119"/>
-      <c r="D48" s="120"/>
-      <c r="E48" s="121"/>
-      <c r="F48" s="35"/>
-      <c r="G48" s="35"/>
-      <c r="H48" s="122"/>
-      <c r="I48" s="123"/>
-      <c r="J48" s="61"/>
-      <c r="K48" s="51"/>
-      <c r="L48" s="51"/>
-      <c r="M48" s="51"/>
-      <c r="N48" s="51"/>
-      <c r="O48" s="51"/>
-      <c r="P48" s="51"/>
-      <c r="Q48" s="51"/>
-      <c r="R48" s="51"/>
-      <c r="S48" s="51"/>
-      <c r="T48" s="51"/>
-      <c r="U48" s="51"/>
-      <c r="V48" s="51"/>
-      <c r="W48" s="51"/>
-      <c r="X48" s="51"/>
-      <c r="Y48" s="51"/>
-      <c r="Z48" s="51"/>
-      <c r="AA48" s="51"/>
-      <c r="AB48" s="51"/>
-      <c r="AC48" s="51"/>
-      <c r="AD48" s="51"/>
-      <c r="AE48" s="51"/>
-      <c r="AF48" s="51"/>
-      <c r="AG48" s="51"/>
-      <c r="AH48" s="51"/>
-      <c r="AI48" s="51"/>
-      <c r="AJ48" s="51"/>
-      <c r="AK48" s="51"/>
-      <c r="AL48" s="51"/>
-      <c r="AM48" s="51"/>
-      <c r="AN48" s="52"/>
-      <c r="AO48" s="124" t="s">
-        <v>16</v>
-      </c>
-      <c r="AP48" s="125"/>
-      <c r="AQ48" s="36"/>
-      <c r="AR48" s="34"/>
-    </row>
-    <row r="49" spans="1:44" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="113"/>
-      <c r="B49" s="113"/>
-      <c r="C49" s="129"/>
-      <c r="D49" s="130"/>
-      <c r="E49" s="131"/>
-      <c r="F49" s="55"/>
-      <c r="G49" s="55"/>
-      <c r="H49" s="132"/>
-      <c r="I49" s="133"/>
-      <c r="J49" s="62"/>
-      <c r="K49" s="50"/>
-      <c r="L49" s="50"/>
-      <c r="M49" s="50"/>
-      <c r="N49" s="50"/>
-      <c r="O49" s="50"/>
-      <c r="P49" s="50"/>
-      <c r="Q49" s="50"/>
-      <c r="R49" s="50"/>
-      <c r="S49" s="50"/>
-      <c r="T49" s="50"/>
-      <c r="U49" s="50"/>
-      <c r="V49" s="50"/>
-      <c r="W49" s="50"/>
-      <c r="X49" s="50"/>
-      <c r="Y49" s="50"/>
-      <c r="Z49" s="50"/>
-      <c r="AA49" s="50"/>
-      <c r="AB49" s="50"/>
-      <c r="AC49" s="50"/>
-      <c r="AD49" s="50"/>
-      <c r="AE49" s="50"/>
-      <c r="AF49" s="50"/>
-      <c r="AG49" s="50"/>
-      <c r="AH49" s="50"/>
-      <c r="AI49" s="50"/>
-      <c r="AJ49" s="50"/>
-      <c r="AK49" s="50"/>
-      <c r="AL49" s="50"/>
-      <c r="AM49" s="50"/>
-      <c r="AN49" s="63"/>
-      <c r="AO49" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="AP49" s="38"/>
-      <c r="AQ49" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="AR49" s="40"/>
+      <c r="AR49" s="56"/>
     </row>
     <row r="50" spans="1:44" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="G50" s="41"/>
-      <c r="J50" s="42"/>
-      <c r="K50" s="42"/>
-      <c r="L50" s="42"/>
-      <c r="M50" s="42"/>
-      <c r="N50" s="42"/>
-      <c r="O50" s="42"/>
-      <c r="P50" s="42"/>
-      <c r="Q50" s="42"/>
-      <c r="R50" s="42"/>
-      <c r="S50" s="42"/>
-      <c r="T50" s="42"/>
-      <c r="U50" s="42"/>
-      <c r="V50" s="42"/>
+      <c r="G50" s="28"/>
+      <c r="J50" s="29"/>
+      <c r="K50" s="29"/>
+      <c r="L50" s="29"/>
+      <c r="M50" s="29"/>
+      <c r="N50" s="29"/>
+      <c r="O50" s="29"/>
+      <c r="P50" s="29"/>
+      <c r="Q50" s="29"/>
+      <c r="R50" s="29"/>
+      <c r="S50" s="29"/>
+      <c r="T50" s="29"/>
+      <c r="U50" s="29"/>
+      <c r="V50" s="29"/>
       <c r="W50" s="6"/>
       <c r="X50" s="6"/>
       <c r="Y50" s="6"/>
@@ -3878,26 +3861,26 @@
       <c r="AL50" s="6"/>
       <c r="AM50" s="6"/>
       <c r="AN50" s="6"/>
-      <c r="AO50" s="43"/>
-      <c r="AP50" s="43"/>
-      <c r="AQ50" s="43"/>
-      <c r="AR50" s="43"/>
+      <c r="AO50" s="30"/>
+      <c r="AP50" s="30"/>
+      <c r="AQ50" s="30"/>
+      <c r="AR50" s="30"/>
     </row>
     <row r="51" spans="1:44" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="G51" s="41"/>
-      <c r="J51" s="42"/>
-      <c r="K51" s="42"/>
-      <c r="L51" s="42"/>
-      <c r="M51" s="42"/>
-      <c r="N51" s="42"/>
-      <c r="O51" s="42"/>
-      <c r="P51" s="42"/>
-      <c r="Q51" s="42"/>
-      <c r="R51" s="42"/>
-      <c r="S51" s="42"/>
-      <c r="T51" s="42"/>
-      <c r="U51" s="42"/>
-      <c r="V51" s="42"/>
+      <c r="G51" s="28"/>
+      <c r="J51" s="29"/>
+      <c r="K51" s="29"/>
+      <c r="L51" s="29"/>
+      <c r="M51" s="29"/>
+      <c r="N51" s="29"/>
+      <c r="O51" s="29"/>
+      <c r="P51" s="29"/>
+      <c r="Q51" s="29"/>
+      <c r="R51" s="29"/>
+      <c r="S51" s="29"/>
+      <c r="T51" s="29"/>
+      <c r="U51" s="29"/>
+      <c r="V51" s="29"/>
       <c r="W51" s="6"/>
       <c r="X51" s="6"/>
       <c r="Y51" s="6"/>
@@ -3916,26 +3899,26 @@
       <c r="AL51" s="6"/>
       <c r="AM51" s="6"/>
       <c r="AN51" s="6"/>
-      <c r="AO51" s="43"/>
-      <c r="AP51" s="43"/>
-      <c r="AQ51" s="43"/>
-      <c r="AR51" s="43"/>
+      <c r="AO51" s="30"/>
+      <c r="AP51" s="30"/>
+      <c r="AQ51" s="30"/>
+      <c r="AR51" s="30"/>
     </row>
     <row r="52" spans="1:44" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="G52" s="41"/>
-      <c r="J52" s="42"/>
-      <c r="K52" s="42"/>
-      <c r="L52" s="42"/>
-      <c r="M52" s="42"/>
-      <c r="N52" s="42"/>
-      <c r="O52" s="42"/>
-      <c r="P52" s="42"/>
-      <c r="Q52" s="42"/>
-      <c r="R52" s="42"/>
-      <c r="S52" s="42"/>
-      <c r="T52" s="42"/>
-      <c r="U52" s="42"/>
-      <c r="V52" s="42"/>
+      <c r="G52" s="28"/>
+      <c r="J52" s="29"/>
+      <c r="K52" s="29"/>
+      <c r="L52" s="29"/>
+      <c r="M52" s="29"/>
+      <c r="N52" s="29"/>
+      <c r="O52" s="29"/>
+      <c r="P52" s="29"/>
+      <c r="Q52" s="29"/>
+      <c r="R52" s="29"/>
+      <c r="S52" s="29"/>
+      <c r="T52" s="29"/>
+      <c r="U52" s="29"/>
+      <c r="V52" s="29"/>
       <c r="W52" s="6"/>
       <c r="X52" s="6"/>
       <c r="Y52" s="6"/>
@@ -3954,121 +3937,121 @@
       <c r="AL52" s="6"/>
       <c r="AM52" s="6"/>
       <c r="AN52" s="6"/>
-      <c r="AO52" s="43"/>
-      <c r="AP52" s="43"/>
-      <c r="AQ52" s="43"/>
-      <c r="AR52" s="43"/>
+      <c r="AO52" s="30"/>
+      <c r="AP52" s="30"/>
+      <c r="AQ52" s="30"/>
+      <c r="AR52" s="30"/>
     </row>
     <row r="53" spans="1:44" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="G53" s="41"/>
-      <c r="J53" s="42"/>
-      <c r="K53" s="42"/>
-      <c r="L53" s="42"/>
-      <c r="M53" s="42"/>
-      <c r="N53" s="42"/>
-      <c r="O53" s="42"/>
-      <c r="P53" s="42"/>
-      <c r="Q53" s="42"/>
-      <c r="R53" s="42"/>
-      <c r="S53" s="42"/>
-      <c r="T53" s="42"/>
-      <c r="U53" s="42"/>
-      <c r="V53" s="42"/>
-      <c r="W53" s="42"/>
-      <c r="X53" s="42"/>
-      <c r="Y53" s="42"/>
-      <c r="Z53" s="42"/>
-      <c r="AA53" s="42"/>
-      <c r="AB53" s="42"/>
-      <c r="AC53" s="42"/>
-      <c r="AD53" s="42"/>
-      <c r="AE53" s="42"/>
-      <c r="AF53" s="42"/>
-      <c r="AG53" s="42"/>
-      <c r="AH53" s="42"/>
-      <c r="AI53" s="42"/>
-      <c r="AJ53" s="42"/>
-      <c r="AK53" s="42"/>
-      <c r="AL53" s="42"/>
-      <c r="AM53" s="42"/>
-      <c r="AN53" s="42"/>
+      <c r="G53" s="28"/>
+      <c r="J53" s="29"/>
+      <c r="K53" s="29"/>
+      <c r="L53" s="29"/>
+      <c r="M53" s="29"/>
+      <c r="N53" s="29"/>
+      <c r="O53" s="29"/>
+      <c r="P53" s="29"/>
+      <c r="Q53" s="29"/>
+      <c r="R53" s="29"/>
+      <c r="S53" s="29"/>
+      <c r="T53" s="29"/>
+      <c r="U53" s="29"/>
+      <c r="V53" s="29"/>
+      <c r="W53" s="29"/>
+      <c r="X53" s="29"/>
+      <c r="Y53" s="29"/>
+      <c r="Z53" s="29"/>
+      <c r="AA53" s="29"/>
+      <c r="AB53" s="29"/>
+      <c r="AC53" s="29"/>
+      <c r="AD53" s="29"/>
+      <c r="AE53" s="29"/>
+      <c r="AF53" s="29"/>
+      <c r="AG53" s="29"/>
+      <c r="AH53" s="29"/>
+      <c r="AI53" s="29"/>
+      <c r="AJ53" s="29"/>
+      <c r="AK53" s="29"/>
+      <c r="AL53" s="29"/>
+      <c r="AM53" s="29"/>
+      <c r="AN53" s="29"/>
     </row>
     <row r="54" spans="1:44" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="G54" s="41"/>
-      <c r="J54" s="44"/>
-      <c r="K54" s="44"/>
-      <c r="L54" s="44"/>
-      <c r="M54" s="44"/>
-      <c r="N54" s="44"/>
-      <c r="O54" s="44"/>
-      <c r="P54" s="44"/>
-      <c r="Q54" s="44"/>
-      <c r="R54" s="44"/>
-      <c r="S54" s="44"/>
-      <c r="T54" s="45"/>
-      <c r="U54" s="45"/>
-      <c r="V54" s="45"/>
-      <c r="W54" s="45"/>
-      <c r="X54" s="45"/>
-      <c r="Y54" s="46"/>
-      <c r="Z54" s="46"/>
-      <c r="AA54" s="46"/>
-      <c r="AB54" s="46"/>
-      <c r="AC54" s="44"/>
-      <c r="AD54" s="42"/>
-      <c r="AE54" s="42"/>
-      <c r="AF54" s="42"/>
-      <c r="AG54" s="42"/>
-      <c r="AH54" s="42"/>
-      <c r="AI54" s="42"/>
-      <c r="AJ54" s="42"/>
-      <c r="AK54" s="42"/>
-      <c r="AL54" s="42"/>
-      <c r="AM54" s="42"/>
-      <c r="AN54" s="42"/>
+      <c r="G54" s="28"/>
+      <c r="J54" s="31"/>
+      <c r="K54" s="31"/>
+      <c r="L54" s="31"/>
+      <c r="M54" s="31"/>
+      <c r="N54" s="31"/>
+      <c r="O54" s="31"/>
+      <c r="P54" s="31"/>
+      <c r="Q54" s="31"/>
+      <c r="R54" s="31"/>
+      <c r="S54" s="31"/>
+      <c r="T54" s="32"/>
+      <c r="U54" s="32"/>
+      <c r="V54" s="32"/>
+      <c r="W54" s="32"/>
+      <c r="X54" s="32"/>
+      <c r="Y54" s="33"/>
+      <c r="Z54" s="33"/>
+      <c r="AA54" s="33"/>
+      <c r="AB54" s="33"/>
+      <c r="AC54" s="31"/>
+      <c r="AD54" s="29"/>
+      <c r="AE54" s="29"/>
+      <c r="AF54" s="29"/>
+      <c r="AG54" s="29"/>
+      <c r="AH54" s="29"/>
+      <c r="AI54" s="29"/>
+      <c r="AJ54" s="29"/>
+      <c r="AK54" s="29"/>
+      <c r="AL54" s="29"/>
+      <c r="AM54" s="29"/>
+      <c r="AN54" s="29"/>
     </row>
     <row r="55" spans="1:44" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="43"/>
-      <c r="B55" s="43"/>
-      <c r="C55" s="43"/>
-      <c r="D55" s="43"/>
-      <c r="E55" s="43"/>
-      <c r="F55" s="43"/>
+      <c r="A55" s="30"/>
+      <c r="B55" s="30"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="30"/>
       <c r="G55" s="4"/>
-      <c r="H55" s="43"/>
-      <c r="I55" s="43"/>
-      <c r="J55" s="44"/>
-      <c r="K55" s="44"/>
-      <c r="L55" s="44"/>
-      <c r="M55" s="44"/>
-      <c r="N55" s="44"/>
-      <c r="O55" s="44"/>
-      <c r="P55" s="44"/>
-      <c r="Q55" s="44"/>
-      <c r="R55" s="44"/>
-      <c r="S55" s="44"/>
-      <c r="T55" s="45"/>
-      <c r="U55" s="45"/>
-      <c r="V55" s="45"/>
-      <c r="W55" s="45"/>
-      <c r="X55" s="45"/>
-      <c r="Y55" s="46"/>
-      <c r="Z55" s="46"/>
-      <c r="AA55" s="46"/>
-      <c r="AB55" s="46"/>
-      <c r="AC55" s="44"/>
-      <c r="AD55" s="42"/>
-      <c r="AE55" s="42"/>
-      <c r="AF55" s="42"/>
-      <c r="AG55" s="42"/>
-      <c r="AH55" s="42"/>
-      <c r="AI55" s="42"/>
-      <c r="AJ55" s="42"/>
-      <c r="AK55" s="42"/>
-      <c r="AL55" s="42"/>
-      <c r="AM55" s="42"/>
-      <c r="AN55" s="42"/>
-      <c r="AR55" s="47"/>
+      <c r="H55" s="30"/>
+      <c r="I55" s="30"/>
+      <c r="J55" s="31"/>
+      <c r="K55" s="31"/>
+      <c r="L55" s="31"/>
+      <c r="M55" s="31"/>
+      <c r="N55" s="31"/>
+      <c r="O55" s="31"/>
+      <c r="P55" s="31"/>
+      <c r="Q55" s="31"/>
+      <c r="R55" s="31"/>
+      <c r="S55" s="31"/>
+      <c r="T55" s="32"/>
+      <c r="U55" s="32"/>
+      <c r="V55" s="32"/>
+      <c r="W55" s="32"/>
+      <c r="X55" s="32"/>
+      <c r="Y55" s="33"/>
+      <c r="Z55" s="33"/>
+      <c r="AA55" s="33"/>
+      <c r="AB55" s="33"/>
+      <c r="AC55" s="31"/>
+      <c r="AD55" s="29"/>
+      <c r="AE55" s="29"/>
+      <c r="AF55" s="29"/>
+      <c r="AG55" s="29"/>
+      <c r="AH55" s="29"/>
+      <c r="AI55" s="29"/>
+      <c r="AJ55" s="29"/>
+      <c r="AK55" s="29"/>
+      <c r="AL55" s="29"/>
+      <c r="AM55" s="29"/>
+      <c r="AN55" s="29"/>
+      <c r="AR55" s="34"/>
     </row>
     <row r="56" spans="1:44" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="57" spans="1:44" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -37672,141 +37655,7 @@
       <c r="AN1316" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="158">
-    <mergeCell ref="A42:A49"/>
-    <mergeCell ref="B42:B49"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="AO43:AQ43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="AO45:AP45"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="AO46:AP46"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="AO47:AP47"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="AO48:AP48"/>
-    <mergeCell ref="A34:A41"/>
-    <mergeCell ref="B34:B41"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="AO35:AQ35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="AO37:AP37"/>
-    <mergeCell ref="AO38:AP38"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="AO39:AP39"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="AO40:AP40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="A26:A33"/>
-    <mergeCell ref="B26:B33"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="AO27:AQ27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="AO29:AP29"/>
-    <mergeCell ref="AO30:AP30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="AO31:AP31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="AO32:AP32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="A18:A25"/>
-    <mergeCell ref="B18:B25"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="AO19:AQ19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="AO21:AP21"/>
-    <mergeCell ref="AO22:AP22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="AO23:AP23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="AO24:AP24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="AO9:AR9"/>
-    <mergeCell ref="A10:A17"/>
-    <mergeCell ref="B10:B17"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="AO11:AQ11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="AO13:AP13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="AO14:AP14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="AO15:AP15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="AO16:AP16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="AH7:AH8"/>
-    <mergeCell ref="AI7:AI8"/>
-    <mergeCell ref="AJ7:AJ8"/>
-    <mergeCell ref="AK7:AK8"/>
-    <mergeCell ref="AL7:AL8"/>
-    <mergeCell ref="AM7:AM8"/>
-    <mergeCell ref="AN7:AN8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="Y7:Y8"/>
-    <mergeCell ref="Z7:Z8"/>
-    <mergeCell ref="AA7:AA8"/>
-    <mergeCell ref="AB7:AB8"/>
-    <mergeCell ref="AC7:AC8"/>
-    <mergeCell ref="AD7:AD8"/>
-    <mergeCell ref="AE7:AE8"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AG7:AG8"/>
+  <mergeCells count="183">
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="A5:A8"/>
     <mergeCell ref="B5:B8"/>
@@ -37831,9 +37680,169 @@
     <mergeCell ref="V7:V8"/>
     <mergeCell ref="W7:W8"/>
     <mergeCell ref="X7:X8"/>
+    <mergeCell ref="AH7:AH8"/>
+    <mergeCell ref="AI7:AI8"/>
+    <mergeCell ref="AJ7:AJ8"/>
+    <mergeCell ref="AK7:AK8"/>
+    <mergeCell ref="AL7:AL8"/>
+    <mergeCell ref="AM7:AM8"/>
+    <mergeCell ref="AN7:AN8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="Y7:Y8"/>
+    <mergeCell ref="Z7:Z8"/>
+    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="AB7:AB8"/>
+    <mergeCell ref="AC7:AC8"/>
+    <mergeCell ref="AD7:AD8"/>
+    <mergeCell ref="AE7:AE8"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="AO18:AR18"/>
+    <mergeCell ref="AO9:AR9"/>
+    <mergeCell ref="A10:A17"/>
+    <mergeCell ref="B10:B17"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="AO34:AR34"/>
+    <mergeCell ref="A26:A33"/>
+    <mergeCell ref="B26:B33"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="AO26:AR26"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="AO10:AR10"/>
+    <mergeCell ref="A42:A49"/>
+    <mergeCell ref="B42:B49"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="AO42:AR42"/>
+    <mergeCell ref="A34:A41"/>
+    <mergeCell ref="B34:B41"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="AO11:AR11"/>
+    <mergeCell ref="AO12:AP12"/>
+    <mergeCell ref="AQ12:AR12"/>
+    <mergeCell ref="AO13:AR13"/>
+    <mergeCell ref="AO14:AR14"/>
+    <mergeCell ref="AO15:AR15"/>
+    <mergeCell ref="AO16:AR16"/>
+    <mergeCell ref="AO17:AP17"/>
+    <mergeCell ref="AQ17:AR17"/>
+    <mergeCell ref="AO19:AR19"/>
+    <mergeCell ref="AO20:AP20"/>
+    <mergeCell ref="AQ20:AR20"/>
+    <mergeCell ref="AO21:AR21"/>
+    <mergeCell ref="AO22:AR22"/>
+    <mergeCell ref="AO23:AR23"/>
+    <mergeCell ref="AO24:AR24"/>
+    <mergeCell ref="AO25:AP25"/>
+    <mergeCell ref="AQ25:AR25"/>
+    <mergeCell ref="AO27:AR27"/>
+    <mergeCell ref="AO28:AP28"/>
+    <mergeCell ref="AQ28:AR28"/>
+    <mergeCell ref="AO29:AR29"/>
+    <mergeCell ref="AO30:AR30"/>
+    <mergeCell ref="AO31:AR31"/>
+    <mergeCell ref="AO32:AR32"/>
+    <mergeCell ref="AO33:AP33"/>
+    <mergeCell ref="AQ33:AR33"/>
+    <mergeCell ref="AO35:AR35"/>
+    <mergeCell ref="AO36:AP36"/>
+    <mergeCell ref="AQ36:AR36"/>
+    <mergeCell ref="AO37:AR37"/>
+    <mergeCell ref="AO38:AR38"/>
+    <mergeCell ref="AO39:AR39"/>
+    <mergeCell ref="AO40:AR40"/>
+    <mergeCell ref="AO41:AP41"/>
+    <mergeCell ref="AQ41:AR41"/>
+    <mergeCell ref="AO43:AR43"/>
+    <mergeCell ref="AO44:AP44"/>
+    <mergeCell ref="AQ44:AR44"/>
+    <mergeCell ref="AO45:AR45"/>
+    <mergeCell ref="AO46:AR46"/>
+    <mergeCell ref="AO47:AR47"/>
+    <mergeCell ref="AO48:AR48"/>
+    <mergeCell ref="AO49:AP49"/>
+    <mergeCell ref="AQ49:AR49"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="58" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.31496062992125984" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="64" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
     <brk id="220" max="16383" man="1"/>
